--- a/static/downloads/production/monthly_production.xlsx
+++ b/static/downloads/production/monthly_production.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faiedm\Documents\GitHub\nrrd\static\downloads\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35322E85-D525-41BC-818E-699983D08C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15979438-115A-4002-81CC-03E63398459C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6598" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6599" uniqueCount="26">
   <si>
     <t>Month</t>
   </si>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="C477" sqref="C477"/>
+    <sheetView tabSelected="1" topLeftCell="A1319" workbookViewId="0">
+      <selection activeCell="D1332" sqref="D1332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -27196,8 +27196,8 @@
       <c r="C1331" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1331" s="12">
-        <v>0</v>
+      <c r="D1331" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="E1331" s="12" t="s">
         <v>9</v>

--- a/static/downloads/production/monthly_production.xlsx
+++ b/static/downloads/production/monthly_production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\Documents\Current Data NRRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E658CDB7-534B-46F4-9C83-BA503AA18D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C51D5EE-F13B-4700-B84A-AE221F4C56B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_production" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6726" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +417,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -578,9 +584,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,30 +942,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1673"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10639,7 +10655,7 @@
         <v>9</v>
       </c>
       <c r="F485" s="1">
-        <v>312652525</v>
+        <v>312657106</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10699,7 +10715,7 @@
         <v>9</v>
       </c>
       <c r="F488" s="1">
-        <v>24637343</v>
+        <v>24636755</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,7 +10735,7 @@
         <v>10</v>
       </c>
       <c r="F489" s="1">
-        <v>949715</v>
+        <v>949541</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10799,7 +10815,7 @@
         <v>9</v>
       </c>
       <c r="F493" s="1">
-        <v>295530200</v>
+        <v>295534497</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,7 +10875,7 @@
         <v>9</v>
       </c>
       <c r="F496" s="1">
-        <v>23269820</v>
+        <v>23269227</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10879,7 +10895,7 @@
         <v>10</v>
       </c>
       <c r="F497" s="1">
-        <v>889645</v>
+        <v>889473</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10959,7 +10975,7 @@
         <v>9</v>
       </c>
       <c r="F501" s="1">
-        <v>330398786</v>
+        <v>330403332</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11019,7 +11035,7 @@
         <v>9</v>
       </c>
       <c r="F504" s="1">
-        <v>25869740</v>
+        <v>25869263</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11039,7 +11055,7 @@
         <v>10</v>
       </c>
       <c r="F505" s="1">
-        <v>978390</v>
+        <v>978215</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -11119,7 +11135,7 @@
         <v>9</v>
       </c>
       <c r="F509" s="1">
-        <v>320365717</v>
+        <v>320370259</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -11179,7 +11195,7 @@
         <v>9</v>
       </c>
       <c r="F512" s="1">
-        <v>24926960</v>
+        <v>24926528</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -11199,7 +11215,7 @@
         <v>10</v>
       </c>
       <c r="F513" s="1">
-        <v>969500</v>
+        <v>969336</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -11279,7 +11295,7 @@
         <v>9</v>
       </c>
       <c r="F517" s="1">
-        <v>328688644</v>
+        <v>328693381</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11339,7 +11355,7 @@
         <v>9</v>
       </c>
       <c r="F520" s="1">
-        <v>25781996</v>
+        <v>25781437</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -11359,7 +11375,7 @@
         <v>10</v>
       </c>
       <c r="F521" s="1">
-        <v>988208</v>
+        <v>988061</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -11439,7 +11455,7 @@
         <v>9</v>
       </c>
       <c r="F525" s="1">
-        <v>318552068</v>
+        <v>318556598</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -11499,7 +11515,7 @@
         <v>9</v>
       </c>
       <c r="F528" s="1">
-        <v>24926462</v>
+        <v>24926001</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -11519,7 +11535,7 @@
         <v>10</v>
       </c>
       <c r="F529" s="1">
-        <v>931733</v>
+        <v>931556</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -11599,7 +11615,7 @@
         <v>9</v>
       </c>
       <c r="F533" s="1">
-        <v>333957467</v>
+        <v>333962119</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11675,7 @@
         <v>9</v>
       </c>
       <c r="F536" s="1">
-        <v>26046628</v>
+        <v>26046174</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11679,7 +11695,7 @@
         <v>10</v>
       </c>
       <c r="F537" s="1">
-        <v>982124</v>
+        <v>981950</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11759,7 +11775,7 @@
         <v>9</v>
       </c>
       <c r="F541" s="1">
-        <v>333043838</v>
+        <v>333048435</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -11819,7 +11835,7 @@
         <v>9</v>
       </c>
       <c r="F544" s="1">
-        <v>25588407</v>
+        <v>25587930</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -11839,7 +11855,7 @@
         <v>10</v>
       </c>
       <c r="F545" s="1">
-        <v>995841</v>
+        <v>995713</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -11919,7 +11935,7 @@
         <v>9</v>
       </c>
       <c r="F549" s="1">
-        <v>307719750</v>
+        <v>307724283</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11979,7 +11995,7 @@
         <v>9</v>
       </c>
       <c r="F552" s="1">
-        <v>24929171</v>
+        <v>24928821</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -11999,7 +12015,7 @@
         <v>10</v>
       </c>
       <c r="F553" s="1">
-        <v>982814</v>
+        <v>982638</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -12079,7 +12095,7 @@
         <v>9</v>
       </c>
       <c r="F557" s="1">
-        <v>335792142</v>
+        <v>335796842</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -12139,7 +12155,7 @@
         <v>9</v>
       </c>
       <c r="F560" s="1">
-        <v>25749116</v>
+        <v>25748668</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -12159,7 +12175,7 @@
         <v>10</v>
       </c>
       <c r="F561" s="1">
-        <v>1040889</v>
+        <v>1040707</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,7 +12255,7 @@
         <v>9</v>
       </c>
       <c r="F565" s="1">
-        <v>333836536</v>
+        <v>333841044</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
@@ -12299,7 +12315,7 @@
         <v>9</v>
       </c>
       <c r="F568" s="1">
-        <v>24890371</v>
+        <v>24890006</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -12319,7 +12335,7 @@
         <v>10</v>
       </c>
       <c r="F569" s="1">
-        <v>1006843</v>
+        <v>1006753</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -12399,7 +12415,7 @@
         <v>9</v>
       </c>
       <c r="F573" s="1">
-        <v>339549843</v>
+        <v>339554507</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -12459,7 +12475,7 @@
         <v>9</v>
       </c>
       <c r="F576" s="1">
-        <v>24914016</v>
+        <v>24913519</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
@@ -12479,7 +12495,7 @@
         <v>10</v>
       </c>
       <c r="F577" s="1">
-        <v>1008190</v>
+        <v>1008114</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,7 +12575,7 @@
         <v>9</v>
       </c>
       <c r="F581" s="1">
-        <v>344852466</v>
+        <v>344857078</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
@@ -12619,7 +12635,7 @@
         <v>9</v>
       </c>
       <c r="F584" s="1">
-        <v>24814271</v>
+        <v>24813879</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
@@ -12639,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="F585" s="1">
-        <v>991089</v>
+        <v>990923</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
@@ -12719,7 +12735,7 @@
         <v>9</v>
       </c>
       <c r="F589" s="1">
-        <v>317366026</v>
+        <v>317370153</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
@@ -12779,7 +12795,7 @@
         <v>9</v>
       </c>
       <c r="F592" s="1">
-        <v>23261731</v>
+        <v>23261342</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
@@ -12879,7 +12895,7 @@
         <v>9</v>
       </c>
       <c r="F597" s="1">
-        <v>348484891</v>
+        <v>348489444</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.3">
@@ -12939,7 +12955,7 @@
         <v>9</v>
       </c>
       <c r="F600" s="1">
-        <v>25595499</v>
+        <v>25595095</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
@@ -13039,7 +13055,7 @@
         <v>9</v>
       </c>
       <c r="F605" s="1">
-        <v>331684586</v>
+        <v>331689029</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.3">
@@ -13099,7 +13115,7 @@
         <v>9</v>
       </c>
       <c r="F608" s="1">
-        <v>24527857</v>
+        <v>24527471</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
@@ -13119,7 +13135,7 @@
         <v>10</v>
       </c>
       <c r="F609" s="1">
-        <v>961670</v>
+        <v>961499</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
@@ -13199,7 +13215,7 @@
         <v>9</v>
       </c>
       <c r="F613" s="1">
-        <v>338825674</v>
+        <v>338830142</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
@@ -13259,7 +13275,7 @@
         <v>9</v>
       </c>
       <c r="F616" s="1">
-        <v>25113198</v>
+        <v>25112757</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
@@ -13279,7 +13295,7 @@
         <v>10</v>
       </c>
       <c r="F617" s="1">
-        <v>996805</v>
+        <v>996655</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
@@ -13359,7 +13375,7 @@
         <v>9</v>
       </c>
       <c r="F621" s="1">
-        <v>324431603</v>
+        <v>324435935</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.3">
@@ -13419,7 +13435,7 @@
         <v>9</v>
       </c>
       <c r="F624" s="1">
-        <v>23403576</v>
+        <v>23403326</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.3">
@@ -13519,7 +13535,7 @@
         <v>9</v>
       </c>
       <c r="F629" s="1">
-        <v>319844262</v>
+        <v>319848480</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.3">
@@ -13579,7 +13595,7 @@
         <v>9</v>
       </c>
       <c r="F632" s="1">
-        <v>25111507</v>
+        <v>25111183</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.3">
@@ -13599,7 +13615,7 @@
         <v>10</v>
       </c>
       <c r="F633" s="1">
-        <v>987884</v>
+        <v>987704</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.3">
@@ -13679,7 +13695,7 @@
         <v>9</v>
       </c>
       <c r="F637" s="1">
-        <v>331217475</v>
+        <v>331221987</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.3">
@@ -13739,7 +13755,7 @@
         <v>9</v>
       </c>
       <c r="F640" s="1">
-        <v>25136934</v>
+        <v>25136484</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.3">
@@ -13839,7 +13855,7 @@
         <v>9</v>
       </c>
       <c r="F645" s="1">
-        <v>309650388</v>
+        <v>309654702</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.3">
@@ -13899,7 +13915,7 @@
         <v>9</v>
       </c>
       <c r="F648" s="1">
-        <v>23774594</v>
+        <v>23774320</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.3">
@@ -13919,7 +13935,7 @@
         <v>10</v>
       </c>
       <c r="F649" s="1">
-        <v>1007109</v>
+        <v>1006931</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.3">
@@ -13999,7 +14015,7 @@
         <v>9</v>
       </c>
       <c r="F653" s="1">
-        <v>337865232</v>
+        <v>337869578</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.3">
@@ -14059,7 +14075,7 @@
         <v>9</v>
       </c>
       <c r="F656" s="1">
-        <v>24525915</v>
+        <v>24525458</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.3">
@@ -14079,7 +14095,7 @@
         <v>10</v>
       </c>
       <c r="F657" s="1">
-        <v>1091620</v>
+        <v>1091442</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.3">
@@ -14159,7 +14175,7 @@
         <v>9</v>
       </c>
       <c r="F661" s="1">
-        <v>333982783</v>
+        <v>333986951</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.3">
@@ -14219,7 +14235,7 @@
         <v>9</v>
       </c>
       <c r="F664" s="1">
-        <v>23547381</v>
+        <v>23547058</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.3">
@@ -14239,7 +14255,7 @@
         <v>10</v>
       </c>
       <c r="F665" s="1">
-        <v>1035658</v>
+        <v>1035487</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.3">
@@ -14319,7 +14335,7 @@
         <v>9</v>
       </c>
       <c r="F669" s="1">
-        <v>335525556</v>
+        <v>335529714</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.3">
@@ -14379,7 +14395,7 @@
         <v>9</v>
       </c>
       <c r="F672" s="1">
-        <v>23297647</v>
+        <v>23297230</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
@@ -14399,7 +14415,7 @@
         <v>10</v>
       </c>
       <c r="F673" s="1">
-        <v>1034126</v>
+        <v>1033948</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
@@ -14479,7 +14495,7 @@
         <v>9</v>
       </c>
       <c r="F677" s="1">
-        <v>335532623</v>
+        <v>335536760</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.3">
@@ -14539,7 +14555,7 @@
         <v>9</v>
       </c>
       <c r="F680" s="1">
-        <v>23516664</v>
+        <v>23516226</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.3">
@@ -14559,7 +14575,7 @@
         <v>10</v>
       </c>
       <c r="F681" s="1">
-        <v>1033758</v>
+        <v>1033582</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.3">
@@ -14639,7 +14655,7 @@
         <v>9</v>
       </c>
       <c r="F685" s="1">
-        <v>302937173</v>
+        <v>302940933</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.3">
@@ -14699,7 +14715,7 @@
         <v>9</v>
       </c>
       <c r="F688" s="1">
-        <v>21555004</v>
+        <v>21554618</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.3">
@@ -14799,7 +14815,7 @@
         <v>9</v>
       </c>
       <c r="F693" s="1">
-        <v>336243023</v>
+        <v>336247122</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.3">
@@ -14859,7 +14875,7 @@
         <v>9</v>
       </c>
       <c r="F696" s="1">
-        <v>24142747</v>
+        <v>24142311</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.3">
@@ -14879,7 +14895,7 @@
         <v>10</v>
       </c>
       <c r="F697" s="1">
-        <v>1215633</v>
+        <v>1215454</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.3">
@@ -14959,7 +14975,7 @@
         <v>9</v>
       </c>
       <c r="F701" s="1">
-        <v>327627975</v>
+        <v>327631884</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.3">
@@ -15019,7 +15035,7 @@
         <v>9</v>
       </c>
       <c r="F704" s="1">
-        <v>23737809</v>
+        <v>23737501</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.3">
@@ -15039,7 +15055,7 @@
         <v>10</v>
       </c>
       <c r="F705" s="1">
-        <v>1221028</v>
+        <v>1220866</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.3">
@@ -15119,7 +15135,7 @@
         <v>9</v>
       </c>
       <c r="F709" s="1">
-        <v>334606457</v>
+        <v>334610509</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.3">
@@ -15179,7 +15195,7 @@
         <v>9</v>
       </c>
       <c r="F712" s="1">
-        <v>24989727</v>
+        <v>24989288</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.3">
@@ -15199,7 +15215,7 @@
         <v>10</v>
       </c>
       <c r="F713" s="1">
-        <v>1268376</v>
+        <v>1268211</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.3">
@@ -15279,7 +15295,7 @@
         <v>9</v>
       </c>
       <c r="F717" s="1">
-        <v>311060179</v>
+        <v>311064033</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.3">
@@ -15339,7 +15355,7 @@
         <v>9</v>
       </c>
       <c r="F720" s="1">
-        <v>24320686</v>
+        <v>24322926</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.3">
@@ -15359,7 +15375,7 @@
         <v>10</v>
       </c>
       <c r="F721" s="1">
-        <v>1327493</v>
+        <v>1326968</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.3">
@@ -15439,7 +15455,7 @@
         <v>9</v>
       </c>
       <c r="F725" s="1">
-        <v>328560239</v>
+        <v>328564209</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.3">
@@ -15499,7 +15515,7 @@
         <v>9</v>
       </c>
       <c r="F728" s="1">
-        <v>24885953</v>
+        <v>24879474</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.3">
@@ -15519,7 +15535,7 @@
         <v>10</v>
       </c>
       <c r="F729" s="1">
-        <v>1435429</v>
+        <v>1435113</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.3">
@@ -15599,7 +15615,7 @@
         <v>9</v>
       </c>
       <c r="F733" s="1">
-        <v>330788017</v>
+        <v>330792117</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.3">
@@ -15659,7 +15675,7 @@
         <v>9</v>
       </c>
       <c r="F736" s="1">
-        <v>25423567</v>
+        <v>25422706</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.3">
@@ -15679,7 +15695,7 @@
         <v>10</v>
       </c>
       <c r="F737" s="1">
-        <v>1545671</v>
+        <v>1545503</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.3">
@@ -15759,7 +15775,7 @@
         <v>9</v>
       </c>
       <c r="F741" s="1">
-        <v>319683681</v>
+        <v>319687610</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.3">
@@ -15819,7 +15835,7 @@
         <v>9</v>
       </c>
       <c r="F744" s="1">
-        <v>24880059</v>
+        <v>24880054</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.3">
@@ -15919,7 +15935,7 @@
         <v>9</v>
       </c>
       <c r="F749" s="1">
-        <v>328222371</v>
+        <v>328226363</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.3">
@@ -15979,7 +15995,7 @@
         <v>9</v>
       </c>
       <c r="F752" s="1">
-        <v>26010243</v>
+        <v>26009248</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.3">
@@ -15999,7 +16015,7 @@
         <v>10</v>
       </c>
       <c r="F753" s="1">
-        <v>1642408</v>
+        <v>1641747</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.3">
@@ -16079,7 +16095,7 @@
         <v>9</v>
       </c>
       <c r="F757" s="1">
-        <v>321865918</v>
+        <v>321869758</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.3">
@@ -16139,7 +16155,7 @@
         <v>9</v>
       </c>
       <c r="F760" s="1">
-        <v>25354938</v>
+        <v>25353166</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.3">
@@ -16159,7 +16175,7 @@
         <v>10</v>
       </c>
       <c r="F761" s="1">
-        <v>1589265</v>
+        <v>1588742</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.3">
@@ -16239,7 +16255,7 @@
         <v>9</v>
       </c>
       <c r="F765" s="1">
-        <v>332447738</v>
+        <v>332451680</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.3">
@@ -16299,7 +16315,7 @@
         <v>9</v>
       </c>
       <c r="F768" s="1">
-        <v>26114334</v>
+        <v>26111576</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.3">
@@ -16319,7 +16335,7 @@
         <v>10</v>
       </c>
       <c r="F769" s="1">
-        <v>1627108</v>
+        <v>1626770</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.3">
@@ -16399,7 +16415,7 @@
         <v>9</v>
       </c>
       <c r="F773" s="1">
-        <v>319224951</v>
+        <v>319228883</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.3">
@@ -16459,7 +16475,7 @@
         <v>9</v>
       </c>
       <c r="F776" s="1">
-        <v>24924279</v>
+        <v>24920033</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.3">
@@ -16479,7 +16495,7 @@
         <v>10</v>
       </c>
       <c r="F777" s="1">
-        <v>1636541</v>
+        <v>1636056</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.3">
@@ -16559,7 +16575,7 @@
         <v>9</v>
       </c>
       <c r="F781" s="1">
-        <v>287736330</v>
+        <v>287739768</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.3">
@@ -16619,7 +16635,7 @@
         <v>9</v>
       </c>
       <c r="F784" s="1">
-        <v>23117320</v>
+        <v>23113574</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.3">
@@ -16639,7 +16655,7 @@
         <v>10</v>
       </c>
       <c r="F785" s="1">
-        <v>1507988</v>
+        <v>1507901</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.3">
@@ -16719,7 +16735,7 @@
         <v>9</v>
       </c>
       <c r="F789" s="1">
-        <v>325398987</v>
+        <v>325402852</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.3">
@@ -16779,7 +16795,7 @@
         <v>9</v>
       </c>
       <c r="F792" s="1">
-        <v>26360677</v>
+        <v>26356874</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.3">
@@ -16799,7 +16815,7 @@
         <v>10</v>
       </c>
       <c r="F793" s="1">
-        <v>1744192</v>
+        <v>1743728</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.3">
@@ -16879,7 +16895,7 @@
         <v>9</v>
       </c>
       <c r="F797" s="1">
-        <v>318441194</v>
+        <v>318444950</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.3">
@@ -16939,7 +16955,7 @@
         <v>9</v>
       </c>
       <c r="F800" s="1">
-        <v>24716206</v>
+        <v>24712803</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.3">
@@ -16959,7 +16975,7 @@
         <v>10</v>
       </c>
       <c r="F801" s="1">
-        <v>1766382</v>
+        <v>1766072</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.3">
@@ -17039,7 +17055,7 @@
         <v>9</v>
       </c>
       <c r="F805" s="1">
-        <v>328067171</v>
+        <v>328071010</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.3">
@@ -17099,7 +17115,7 @@
         <v>9</v>
       </c>
       <c r="F808" s="1">
-        <v>25621725</v>
+        <v>25618062</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.3">
@@ -17119,7 +17135,7 @@
         <v>10</v>
       </c>
       <c r="F809" s="1">
-        <v>1887107</v>
+        <v>1886791</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
@@ -17199,7 +17215,7 @@
         <v>9</v>
       </c>
       <c r="F813" s="1">
-        <v>315294283</v>
+        <v>315297980</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.3">
@@ -17259,7 +17275,7 @@
         <v>9</v>
       </c>
       <c r="F816" s="1">
-        <v>25324982</v>
+        <v>25321515</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.3">
@@ -17279,7 +17295,7 @@
         <v>10</v>
       </c>
       <c r="F817" s="1">
-        <v>1935055</v>
+        <v>1934919</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.3">
@@ -17359,7 +17375,7 @@
         <v>9</v>
       </c>
       <c r="F821" s="1">
-        <v>328461108</v>
+        <v>328464979</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.3">
@@ -17419,7 +17435,7 @@
         <v>9</v>
       </c>
       <c r="F824" s="1">
-        <v>26285512</v>
+        <v>26281949</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.3">
@@ -17439,7 +17455,7 @@
         <v>10</v>
       </c>
       <c r="F825" s="1">
-        <v>2047438</v>
+        <v>2047254</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
@@ -17519,7 +17535,7 @@
         <v>9</v>
       </c>
       <c r="F829" s="1">
-        <v>310818049</v>
+        <v>310821863</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
@@ -17579,7 +17595,7 @@
         <v>9</v>
       </c>
       <c r="F832" s="1">
-        <v>26251574</v>
+        <v>26248198</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.3">
@@ -17599,7 +17615,7 @@
         <v>10</v>
       </c>
       <c r="F833" s="1">
-        <v>2174608</v>
+        <v>2174490</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.3">
@@ -17679,7 +17695,7 @@
         <v>9</v>
       </c>
       <c r="F837" s="1">
-        <v>314865346</v>
+        <v>314869043</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.3">
@@ -17739,7 +17755,7 @@
         <v>9</v>
       </c>
       <c r="F840" s="1">
-        <v>25055352</v>
+        <v>25052254</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.3">
@@ -17759,7 +17775,7 @@
         <v>10</v>
       </c>
       <c r="F841" s="1">
-        <v>2083977</v>
+        <v>2083819</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.3">
@@ -17839,7 +17855,7 @@
         <v>9</v>
       </c>
       <c r="F845" s="1">
-        <v>332941261</v>
+        <v>332945141</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.3">
@@ -17899,7 +17915,7 @@
         <v>9</v>
       </c>
       <c r="F848" s="1">
-        <v>26151115</v>
+        <v>26148134</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.3">
@@ -17919,7 +17935,7 @@
         <v>10</v>
       </c>
       <c r="F849" s="1">
-        <v>2385616</v>
+        <v>2385286</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.3">
@@ -17999,7 +18015,7 @@
         <v>9</v>
       </c>
       <c r="F853" s="1">
-        <v>323949215</v>
+        <v>323952909</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.3">
@@ -18059,7 +18075,7 @@
         <v>9</v>
       </c>
       <c r="F856" s="1">
-        <v>25578950</v>
+        <v>25576370</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.3">
@@ -18079,7 +18095,7 @@
         <v>10</v>
       </c>
       <c r="F857" s="1">
-        <v>2477711</v>
+        <v>2477380</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.3">
@@ -18159,7 +18175,7 @@
         <v>9</v>
       </c>
       <c r="F861" s="1">
-        <v>329473372</v>
+        <v>329477083</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.3">
@@ -18219,7 +18235,7 @@
         <v>9</v>
       </c>
       <c r="F864" s="1">
-        <v>25940550</v>
+        <v>25939012</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.3">
@@ -18239,7 +18255,7 @@
         <v>10</v>
       </c>
       <c r="F865" s="1">
-        <v>2536443</v>
+        <v>2536411</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.3">
@@ -18319,7 +18335,7 @@
         <v>9</v>
       </c>
       <c r="F869" s="1">
-        <v>332747285</v>
+        <v>332755153</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.3">
@@ -18339,7 +18355,7 @@
         <v>10</v>
       </c>
       <c r="F870" s="1">
-        <v>10289324</v>
+        <v>10289481</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.3">
@@ -18379,7 +18395,7 @@
         <v>9</v>
       </c>
       <c r="F872" s="1">
-        <v>26447647</v>
+        <v>26446591</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.3">
@@ -18399,7 +18415,7 @@
         <v>10</v>
       </c>
       <c r="F873" s="1">
-        <v>2679293</v>
+        <v>2678660</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.3">
@@ -18479,7 +18495,7 @@
         <v>9</v>
       </c>
       <c r="F877" s="1">
-        <v>309189015</v>
+        <v>309196168</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.3">
@@ -18499,7 +18515,7 @@
         <v>10</v>
       </c>
       <c r="F878" s="1">
-        <v>9753977</v>
+        <v>9754111</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.3">
@@ -18539,7 +18555,7 @@
         <v>9</v>
       </c>
       <c r="F880" s="1">
-        <v>24909162</v>
+        <v>24907519</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.3">
@@ -18559,7 +18575,7 @@
         <v>10</v>
       </c>
       <c r="F881" s="1">
-        <v>2546721</v>
+        <v>2546092</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.3">
@@ -18639,7 +18655,7 @@
         <v>9</v>
       </c>
       <c r="F885" s="1">
-        <v>328739960</v>
+        <v>328746647</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.3">
@@ -18659,7 +18675,7 @@
         <v>10</v>
       </c>
       <c r="F886" s="1">
-        <v>10545279</v>
+        <v>10545379</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.3">
@@ -18699,7 +18715,7 @@
         <v>9</v>
       </c>
       <c r="F888" s="1">
-        <v>26480195</v>
+        <v>26477843</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.3">
@@ -18719,7 +18735,7 @@
         <v>10</v>
       </c>
       <c r="F889" s="1">
-        <v>2785868</v>
+        <v>2785344</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.3">
@@ -18799,7 +18815,7 @@
         <v>9</v>
       </c>
       <c r="F893" s="1">
-        <v>313820089</v>
+        <v>313825896</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
@@ -18819,7 +18835,7 @@
         <v>10</v>
       </c>
       <c r="F894" s="1">
-        <v>10041024</v>
+        <v>10041109</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
@@ -18859,7 +18875,7 @@
         <v>9</v>
       </c>
       <c r="F896" s="1">
-        <v>25579020</v>
+        <v>25576863</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.3">
@@ -18879,7 +18895,7 @@
         <v>10</v>
       </c>
       <c r="F897" s="1">
-        <v>2793185</v>
+        <v>2792733</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.3">
@@ -18959,7 +18975,7 @@
         <v>9</v>
       </c>
       <c r="F901" s="1">
-        <v>320231423</v>
+        <v>320237082</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.3">
@@ -18979,7 +18995,7 @@
         <v>10</v>
       </c>
       <c r="F902" s="1">
-        <v>10444565</v>
+        <v>10444641</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.3">
@@ -19019,7 +19035,7 @@
         <v>9</v>
       </c>
       <c r="F904" s="1">
-        <v>26419630</v>
+        <v>26417415</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.3">
@@ -19039,7 +19055,7 @@
         <v>10</v>
       </c>
       <c r="F905" s="1">
-        <v>2815787</v>
+        <v>2815483</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.3">
@@ -19119,7 +19135,7 @@
         <v>9</v>
       </c>
       <c r="F909" s="1">
-        <v>308127990</v>
+        <v>308134174</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.3">
@@ -19139,7 +19155,7 @@
         <v>10</v>
       </c>
       <c r="F910" s="1">
-        <v>10138618</v>
+        <v>10138706</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.3">
@@ -19179,7 +19195,7 @@
         <v>9</v>
       </c>
       <c r="F912" s="1">
-        <v>25310283</v>
+        <v>25308623</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.3">
@@ -19199,7 +19215,7 @@
         <v>10</v>
       </c>
       <c r="F913" s="1">
-        <v>2854649</v>
+        <v>2854357</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.3">
@@ -19279,7 +19295,7 @@
         <v>9</v>
       </c>
       <c r="F917" s="1">
-        <v>317509167</v>
+        <v>317515392</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.3">
@@ -19299,7 +19315,7 @@
         <v>10</v>
       </c>
       <c r="F918" s="1">
-        <v>10686560</v>
+        <v>10686645</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
@@ -19339,7 +19355,7 @@
         <v>9</v>
       </c>
       <c r="F920" s="1">
-        <v>26136611</v>
+        <v>26134826</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.3">
@@ -19359,7 +19375,7 @@
         <v>10</v>
       </c>
       <c r="F921" s="1">
-        <v>3071959</v>
+        <v>3071664</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.3">
@@ -19439,7 +19455,7 @@
         <v>9</v>
       </c>
       <c r="F925" s="1">
-        <v>311357919</v>
+        <v>311363745</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.3">
@@ -19459,7 +19475,7 @@
         <v>10</v>
       </c>
       <c r="F926" s="1">
-        <v>10785310</v>
+        <v>10785389</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.3">
@@ -19499,7 +19515,7 @@
         <v>9</v>
       </c>
       <c r="F928" s="1">
-        <v>26321757</v>
+        <v>26320368</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
@@ -19519,7 +19535,7 @@
         <v>10</v>
       </c>
       <c r="F929" s="1">
-        <v>3155264</v>
+        <v>3154827</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
@@ -19599,7 +19615,7 @@
         <v>9</v>
       </c>
       <c r="F933" s="1">
-        <v>300266758</v>
+        <v>300272794</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
@@ -19619,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="F934" s="1">
-        <v>10600955</v>
+        <v>10601048</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
@@ -19659,7 +19675,7 @@
         <v>9</v>
       </c>
       <c r="F936" s="1">
-        <v>25710805</v>
+        <v>25710219</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.3">
@@ -19679,7 +19695,7 @@
         <v>10</v>
       </c>
       <c r="F937" s="1">
-        <v>3269499</v>
+        <v>3269068</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
@@ -19759,7 +19775,7 @@
         <v>9</v>
       </c>
       <c r="F941" s="1">
-        <v>311255231</v>
+        <v>311262060</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
@@ -19779,7 +19795,7 @@
         <v>10</v>
       </c>
       <c r="F942" s="1">
-        <v>11217339</v>
+        <v>11218896</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
@@ -19819,7 +19835,7 @@
         <v>9</v>
       </c>
       <c r="F944" s="1">
-        <v>27019283</v>
+        <v>27017731</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -19839,7 +19855,7 @@
         <v>10</v>
       </c>
       <c r="F945" s="1">
-        <v>3739503</v>
+        <v>3739177</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
@@ -19919,7 +19935,7 @@
         <v>9</v>
       </c>
       <c r="F949" s="1">
-        <v>301194895</v>
+        <v>301202773</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
@@ -19939,7 +19955,7 @@
         <v>10</v>
       </c>
       <c r="F950" s="1">
-        <v>10890318</v>
+        <v>10891712</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">
@@ -19979,7 +19995,7 @@
         <v>9</v>
       </c>
       <c r="F952" s="1">
-        <v>25906240</v>
+        <v>25905449</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
@@ -19999,7 +20015,7 @@
         <v>10</v>
       </c>
       <c r="F953" s="1">
-        <v>3697187</v>
+        <v>3696718</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
@@ -20079,7 +20095,7 @@
         <v>9</v>
       </c>
       <c r="F957" s="1">
-        <v>304790979</v>
+        <v>304798484</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.3">
@@ -20099,7 +20115,7 @@
         <v>10</v>
       </c>
       <c r="F958" s="1">
-        <v>11229193</v>
+        <v>11230182</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
@@ -20139,7 +20155,7 @@
         <v>9</v>
       </c>
       <c r="F960" s="1">
-        <v>26208206</v>
+        <v>26207376</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.3">
@@ -20159,7 +20175,7 @@
         <v>10</v>
       </c>
       <c r="F961" s="1">
-        <v>3830636</v>
+        <v>3830333</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.3">
@@ -20239,7 +20255,7 @@
         <v>9</v>
       </c>
       <c r="F965" s="1">
-        <v>296404255</v>
+        <v>296411626</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
@@ -20259,7 +20275,7 @@
         <v>10</v>
       </c>
       <c r="F966" s="1">
-        <v>11014388</v>
+        <v>11015131</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
@@ -20299,7 +20315,7 @@
         <v>9</v>
       </c>
       <c r="F968" s="1">
-        <v>24740091</v>
+        <v>24739224</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
@@ -20319,7 +20335,7 @@
         <v>10</v>
       </c>
       <c r="F969" s="1">
-        <v>3562844</v>
+        <v>3562471</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.3">
@@ -20399,7 +20415,7 @@
         <v>9</v>
       </c>
       <c r="F973" s="1">
-        <v>273294070</v>
+        <v>273299200</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.3">
@@ -20419,7 +20435,7 @@
         <v>10</v>
       </c>
       <c r="F974" s="1">
-        <v>10153825</v>
+        <v>10153895</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.3">
@@ -20459,7 +20475,7 @@
         <v>9</v>
       </c>
       <c r="F976" s="1">
-        <v>23501182</v>
+        <v>23500442</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.3">
@@ -20479,7 +20495,7 @@
         <v>10</v>
       </c>
       <c r="F977" s="1">
-        <v>3508375</v>
+        <v>3508104</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.3">
@@ -20559,7 +20575,7 @@
         <v>9</v>
       </c>
       <c r="F981" s="1">
-        <v>302698882</v>
+        <v>302704949</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.3">
@@ -20579,7 +20595,7 @@
         <v>10</v>
       </c>
       <c r="F982" s="1">
-        <v>11502003</v>
+        <v>11502459</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.3">
@@ -20619,7 +20635,7 @@
         <v>9</v>
       </c>
       <c r="F984" s="1">
-        <v>26516947</v>
+        <v>26515866</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
@@ -20639,7 +20655,7 @@
         <v>10</v>
       </c>
       <c r="F985" s="1">
-        <v>4194443</v>
+        <v>4194357</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.3">
@@ -20719,7 +20735,7 @@
         <v>9</v>
       </c>
       <c r="F989" s="1">
-        <v>294459615</v>
+        <v>294466781</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.3">
@@ -20739,7 +20755,7 @@
         <v>10</v>
       </c>
       <c r="F990" s="1">
-        <v>11264086</v>
+        <v>11264828</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.3">
@@ -20779,7 +20795,7 @@
         <v>9</v>
       </c>
       <c r="F992" s="1">
-        <v>25981974</v>
+        <v>25980748</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.3">
@@ -20799,7 +20815,7 @@
         <v>10</v>
       </c>
       <c r="F993" s="1">
-        <v>4036117</v>
+        <v>4035769</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.3">
@@ -20879,7 +20895,7 @@
         <v>9</v>
       </c>
       <c r="F997" s="1">
-        <v>297611277</v>
+        <v>297618101</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.3">
@@ -20899,7 +20915,7 @@
         <v>10</v>
       </c>
       <c r="F998" s="1">
-        <v>11515380</v>
+        <v>11515970</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.3">
@@ -20939,7 +20955,7 @@
         <v>9</v>
       </c>
       <c r="F1000" s="1">
-        <v>26659820</v>
+        <v>26658840</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
@@ -20959,7 +20975,7 @@
         <v>10</v>
       </c>
       <c r="F1001" s="1">
-        <v>4243358</v>
+        <v>4242989</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
@@ -21039,7 +21055,7 @@
         <v>9</v>
       </c>
       <c r="F1005" s="1">
-        <v>289757535</v>
+        <v>289762968</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
@@ -21059,7 +21075,7 @@
         <v>10</v>
       </c>
       <c r="F1006" s="1">
-        <v>11254543</v>
+        <v>11254980</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
@@ -21099,7 +21115,7 @@
         <v>9</v>
       </c>
       <c r="F1008" s="1">
-        <v>26177909</v>
+        <v>26186221</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
@@ -21119,7 +21135,7 @@
         <v>10</v>
       </c>
       <c r="F1009" s="1">
-        <v>4165601</v>
+        <v>4177030</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
@@ -21199,7 +21215,7 @@
         <v>9</v>
       </c>
       <c r="F1013" s="1">
-        <v>298230970</v>
+        <v>298236389</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
@@ -21219,7 +21235,7 @@
         <v>10</v>
       </c>
       <c r="F1014" s="1">
-        <v>11737235</v>
+        <v>11738465</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
@@ -21259,7 +21275,7 @@
         <v>9</v>
       </c>
       <c r="F1016" s="1">
-        <v>27424097</v>
+        <v>27439547</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
@@ -21279,7 +21295,7 @@
         <v>10</v>
       </c>
       <c r="F1017" s="1">
-        <v>4616351</v>
+        <v>4623309</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
@@ -21359,7 +21375,7 @@
         <v>9</v>
       </c>
       <c r="F1021" s="1">
-        <v>298345898</v>
+        <v>298351602</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
@@ -21379,7 +21395,7 @@
         <v>10</v>
       </c>
       <c r="F1022" s="1">
-        <v>11795354</v>
+        <v>11796943</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
@@ -21419,7 +21435,7 @@
         <v>9</v>
       </c>
       <c r="F1024" s="1">
-        <v>27226570</v>
+        <v>27237410</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
@@ -21439,7 +21455,7 @@
         <v>10</v>
       </c>
       <c r="F1025" s="1">
-        <v>4905239</v>
+        <v>4909200</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
@@ -21519,7 +21535,7 @@
         <v>9</v>
       </c>
       <c r="F1029" s="1">
-        <v>276822860</v>
+        <v>276828375</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
@@ -21539,7 +21555,7 @@
         <v>10</v>
       </c>
       <c r="F1030" s="1">
-        <v>11531593</v>
+        <v>11531851</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
@@ -21579,7 +21595,7 @@
         <v>9</v>
       </c>
       <c r="F1032" s="1">
-        <v>26312611</v>
+        <v>26311642</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
@@ -21599,7 +21615,7 @@
         <v>10</v>
       </c>
       <c r="F1033" s="1">
-        <v>4737188</v>
+        <v>4739611</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.3">
@@ -21679,7 +21695,7 @@
         <v>9</v>
       </c>
       <c r="F1037" s="1">
-        <v>304193203</v>
+        <v>304201289</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
@@ -21699,7 +21715,7 @@
         <v>10</v>
       </c>
       <c r="F1038" s="1">
-        <v>11980645</v>
+        <v>11981140</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
@@ -21739,7 +21755,7 @@
         <v>9</v>
       </c>
       <c r="F1040" s="1">
-        <v>27542210</v>
+        <v>27545408</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
@@ -21759,7 +21775,7 @@
         <v>10</v>
       </c>
       <c r="F1041" s="1">
-        <v>4963503</v>
+        <v>4964603</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
@@ -21839,7 +21855,7 @@
         <v>9</v>
       </c>
       <c r="F1045" s="1">
-        <v>293323408</v>
+        <v>293331803</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
@@ -21859,7 +21875,7 @@
         <v>10</v>
       </c>
       <c r="F1046" s="1">
-        <v>11541121</v>
+        <v>11541556</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.3">
@@ -21899,7 +21915,7 @@
         <v>9</v>
       </c>
       <c r="F1048" s="1">
-        <v>26330163</v>
+        <v>26334155</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
@@ -21919,7 +21935,7 @@
         <v>10</v>
       </c>
       <c r="F1049" s="1">
-        <v>4753812</v>
+        <v>4755680</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.3">
@@ -21999,7 +22015,7 @@
         <v>9</v>
       </c>
       <c r="F1053" s="1">
-        <v>293506561</v>
+        <v>293511614</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
@@ -22019,7 +22035,7 @@
         <v>10</v>
       </c>
       <c r="F1054" s="1">
-        <v>11815816</v>
+        <v>11816159</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
@@ -22059,7 +22075,7 @@
         <v>9</v>
       </c>
       <c r="F1056" s="1">
-        <v>26009896</v>
+        <v>26014827</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
@@ -22079,7 +22095,7 @@
         <v>10</v>
       </c>
       <c r="F1057" s="1">
-        <v>4686701</v>
+        <v>4688066</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.3">
@@ -22159,7 +22175,7 @@
         <v>9</v>
       </c>
       <c r="F1061" s="1">
-        <v>296074268</v>
+        <v>296079542</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
@@ -22179,7 +22195,7 @@
         <v>10</v>
       </c>
       <c r="F1062" s="1">
-        <v>12193628</v>
+        <v>12193955</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
@@ -22219,7 +22235,7 @@
         <v>9</v>
       </c>
       <c r="F1064" s="1">
-        <v>26552952</v>
+        <v>26560589</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
@@ -22239,7 +22255,7 @@
         <v>10</v>
       </c>
       <c r="F1065" s="1">
-        <v>4675116</v>
+        <v>4677543</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.3">
@@ -22279,7 +22295,7 @@
         <v>10</v>
       </c>
       <c r="F1067" s="1">
-        <v>38741321</v>
+        <v>38741289</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
@@ -22319,7 +22335,7 @@
         <v>9</v>
       </c>
       <c r="F1069" s="1">
-        <v>268951433</v>
+        <v>268957482</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.3">
@@ -22339,7 +22355,7 @@
         <v>10</v>
       </c>
       <c r="F1070" s="1">
-        <v>11279143</v>
+        <v>11279485</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
@@ -22379,7 +22395,7 @@
         <v>9</v>
       </c>
       <c r="F1072" s="1">
-        <v>24595776</v>
+        <v>24602188</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
@@ -22399,7 +22415,7 @@
         <v>10</v>
       </c>
       <c r="F1073" s="1">
-        <v>4397658</v>
+        <v>4399713</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
@@ -22479,7 +22495,7 @@
         <v>9</v>
       </c>
       <c r="F1077" s="1">
-        <v>299917104</v>
+        <v>299923254</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
@@ -22499,7 +22515,7 @@
         <v>10</v>
       </c>
       <c r="F1078" s="1">
-        <v>12848090</v>
+        <v>12848380</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
@@ -22539,7 +22555,7 @@
         <v>9</v>
       </c>
       <c r="F1080" s="1">
-        <v>27388881</v>
+        <v>27393834</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
@@ -22559,7 +22575,7 @@
         <v>10</v>
       </c>
       <c r="F1081" s="1">
-        <v>4861975</v>
+        <v>4863720</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
@@ -22639,7 +22655,7 @@
         <v>9</v>
       </c>
       <c r="F1085" s="1">
-        <v>288573667</v>
+        <v>288580739</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
@@ -22659,7 +22675,7 @@
         <v>10</v>
       </c>
       <c r="F1086" s="1">
-        <v>12613131</v>
+        <v>12613431</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
@@ -22699,7 +22715,7 @@
         <v>9</v>
       </c>
       <c r="F1088" s="1">
-        <v>27030833</v>
+        <v>27029887</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
@@ -22719,7 +22735,7 @@
         <v>10</v>
       </c>
       <c r="F1089" s="1">
-        <v>4877531</v>
+        <v>4878883</v>
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
@@ -22799,7 +22815,7 @@
         <v>9</v>
       </c>
       <c r="F1093" s="1">
-        <v>294922038</v>
+        <v>294928380</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.3">
@@ -22819,7 +22835,7 @@
         <v>10</v>
       </c>
       <c r="F1094" s="1">
-        <v>13011499</v>
+        <v>13011816</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
@@ -22859,7 +22875,7 @@
         <v>9</v>
       </c>
       <c r="F1096" s="1">
-        <v>27592508</v>
+        <v>27594236</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
@@ -22879,7 +22895,7 @@
         <v>10</v>
       </c>
       <c r="F1097" s="1">
-        <v>5147200</v>
+        <v>5148872</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
@@ -22959,7 +22975,7 @@
         <v>9</v>
       </c>
       <c r="F1101" s="1">
-        <v>286021735</v>
+        <v>286028245</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
@@ -22979,7 +22995,7 @@
         <v>10</v>
       </c>
       <c r="F1102" s="1">
-        <v>12773774</v>
+        <v>12774034</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
@@ -23019,7 +23035,7 @@
         <v>9</v>
       </c>
       <c r="F1104" s="1">
-        <v>26711091</v>
+        <v>26714867</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
@@ -23039,7 +23055,7 @@
         <v>10</v>
       </c>
       <c r="F1105" s="1">
-        <v>5229271</v>
+        <v>5230629</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
@@ -23119,7 +23135,7 @@
         <v>9</v>
       </c>
       <c r="F1109" s="1">
-        <v>293336422</v>
+        <v>293341621</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
@@ -23139,7 +23155,7 @@
         <v>10</v>
       </c>
       <c r="F1110" s="1">
-        <v>13497349</v>
+        <v>13497732</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
@@ -23179,7 +23195,7 @@
         <v>9</v>
       </c>
       <c r="F1112" s="1">
-        <v>27639755</v>
+        <v>27643393</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
@@ -23199,7 +23215,7 @@
         <v>10</v>
       </c>
       <c r="F1113" s="1">
-        <v>5249033</v>
+        <v>5250556</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
@@ -23279,7 +23295,7 @@
         <v>9</v>
       </c>
       <c r="F1117" s="1">
-        <v>288389875</v>
+        <v>288398969</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
@@ -23299,7 +23315,7 @@
         <v>10</v>
       </c>
       <c r="F1118" s="1">
-        <v>13353895</v>
+        <v>13354258</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
@@ -23339,7 +23355,7 @@
         <v>9</v>
       </c>
       <c r="F1120" s="1">
-        <v>28315065</v>
+        <v>28315335</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
@@ -23359,7 +23375,7 @@
         <v>10</v>
       </c>
       <c r="F1121" s="1">
-        <v>5532533</v>
+        <v>5533503</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
@@ -23439,7 +23455,7 @@
         <v>9</v>
       </c>
       <c r="F1125" s="1">
-        <v>283824526</v>
+        <v>283832419</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
@@ -23459,7 +23475,7 @@
         <v>10</v>
       </c>
       <c r="F1126" s="1">
-        <v>12968996</v>
+        <v>12969307</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
@@ -23499,7 +23515,7 @@
         <v>9</v>
       </c>
       <c r="F1128" s="1">
-        <v>26964673</v>
+        <v>26967030</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.3">
@@ -23519,7 +23535,7 @@
         <v>10</v>
       </c>
       <c r="F1129" s="1">
-        <v>5374634</v>
+        <v>5376238</v>
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
@@ -23599,7 +23615,7 @@
         <v>9</v>
       </c>
       <c r="F1133" s="1">
-        <v>292907536</v>
+        <v>292915892</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
@@ -23619,7 +23635,7 @@
         <v>10</v>
       </c>
       <c r="F1134" s="1">
-        <v>14161779</v>
+        <v>14162144</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
@@ -23659,7 +23675,7 @@
         <v>9</v>
       </c>
       <c r="F1136" s="1">
-        <v>27161810</v>
+        <v>27165209</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
@@ -23679,7 +23695,7 @@
         <v>10</v>
       </c>
       <c r="F1137" s="1">
-        <v>5428488</v>
+        <v>5430004</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
@@ -23759,7 +23775,7 @@
         <v>9</v>
       </c>
       <c r="F1141" s="1">
-        <v>286049103</v>
+        <v>286056121</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
@@ -23779,7 +23795,7 @@
         <v>10</v>
       </c>
       <c r="F1142" s="1">
-        <v>13790603</v>
+        <v>13790972</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
@@ -23819,7 +23835,7 @@
         <v>9</v>
       </c>
       <c r="F1144" s="1">
-        <v>26282363</v>
+        <v>26284887</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
@@ -23839,7 +23855,7 @@
         <v>10</v>
       </c>
       <c r="F1145" s="1">
-        <v>5309750</v>
+        <v>5310886</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
@@ -23919,7 +23935,7 @@
         <v>9</v>
       </c>
       <c r="F1149" s="1">
-        <v>293370082</v>
+        <v>293378524</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
@@ -23939,7 +23955,7 @@
         <v>10</v>
       </c>
       <c r="F1150" s="1">
-        <v>14793643</v>
+        <v>14793971</v>
       </c>
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
@@ -23979,7 +23995,7 @@
         <v>9</v>
       </c>
       <c r="F1152" s="1">
-        <v>27031561</v>
+        <v>27034351</v>
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
@@ -23999,7 +24015,7 @@
         <v>10</v>
       </c>
       <c r="F1153" s="1">
-        <v>5369084</v>
+        <v>5370347</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
@@ -24079,7 +24095,7 @@
         <v>9</v>
       </c>
       <c r="F1157" s="1">
-        <v>288833385</v>
+        <v>288840342</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
@@ -24099,7 +24115,7 @@
         <v>10</v>
       </c>
       <c r="F1158" s="1">
-        <v>14738196</v>
+        <v>14738557</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
@@ -24139,7 +24155,7 @@
         <v>9</v>
       </c>
       <c r="F1160" s="1">
-        <v>26691404</v>
+        <v>26694059</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
@@ -24159,7 +24175,7 @@
         <v>10</v>
       </c>
       <c r="F1161" s="1">
-        <v>5415791</v>
+        <v>5416865</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
@@ -24239,7 +24255,7 @@
         <v>9</v>
       </c>
       <c r="F1165" s="1">
-        <v>263070888</v>
+        <v>263076741</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
@@ -24259,7 +24275,7 @@
         <v>10</v>
       </c>
       <c r="F1166" s="1">
-        <v>13670872</v>
+        <v>13671138</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
@@ -24299,7 +24315,7 @@
         <v>9</v>
       </c>
       <c r="F1168" s="1">
-        <v>24050654</v>
+        <v>24052658</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
@@ -24319,7 +24335,7 @@
         <v>10</v>
       </c>
       <c r="F1169" s="1">
-        <v>5045945</v>
+        <v>5047126</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
@@ -24399,7 +24415,7 @@
         <v>9</v>
       </c>
       <c r="F1173" s="1">
-        <v>294850523</v>
+        <v>294858786</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
@@ -24419,7 +24435,7 @@
         <v>10</v>
       </c>
       <c r="F1174" s="1">
-        <v>15815578</v>
+        <v>15815939</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
@@ -24459,7 +24475,7 @@
         <v>9</v>
       </c>
       <c r="F1176" s="1">
-        <v>27006598</v>
+        <v>27007768</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
@@ -24479,7 +24495,7 @@
         <v>10</v>
       </c>
       <c r="F1177" s="1">
-        <v>5587905</v>
+        <v>5589258</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
@@ -24559,7 +24575,7 @@
         <v>9</v>
       </c>
       <c r="F1181" s="1">
-        <v>287767958</v>
+        <v>287774390</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
@@ -24579,7 +24595,7 @@
         <v>10</v>
       </c>
       <c r="F1182" s="1">
-        <v>15386232</v>
+        <v>15386557</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
@@ -24619,7 +24635,7 @@
         <v>9</v>
       </c>
       <c r="F1184" s="1">
-        <v>25720766</v>
+        <v>25721492</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
@@ -24639,7 +24655,7 @@
         <v>10</v>
       </c>
       <c r="F1185" s="1">
-        <v>5036952</v>
+        <v>5038021</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
@@ -24719,7 +24735,7 @@
         <v>9</v>
       </c>
       <c r="F1189" s="1">
-        <v>292462881</v>
+        <v>292469783</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
@@ -24739,7 +24755,7 @@
         <v>10</v>
       </c>
       <c r="F1190" s="1">
-        <v>15604939</v>
+        <v>15605262</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
@@ -24779,7 +24795,7 @@
         <v>9</v>
       </c>
       <c r="F1192" s="1">
-        <v>26379415</v>
+        <v>26380523</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
@@ -24799,7 +24815,7 @@
         <v>10</v>
       </c>
       <c r="F1193" s="1">
-        <v>5087598</v>
+        <v>5089111</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
@@ -24879,7 +24895,7 @@
         <v>9</v>
       </c>
       <c r="F1197" s="1">
-        <v>283385924</v>
+        <v>283392829</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.3">
@@ -24899,7 +24915,7 @@
         <v>10</v>
       </c>
       <c r="F1198" s="1">
-        <v>15191531</v>
+        <v>15191816</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
@@ -24939,7 +24955,7 @@
         <v>9</v>
       </c>
       <c r="F1200" s="1">
-        <v>25193781</v>
+        <v>25194765</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.3">
@@ -24959,7 +24975,7 @@
         <v>10</v>
       </c>
       <c r="F1201" s="1">
-        <v>5117883</v>
+        <v>5119329</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.3">
@@ -25039,7 +25055,7 @@
         <v>9</v>
       </c>
       <c r="F1205" s="1">
-        <v>289770974</v>
+        <v>289778810</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.3">
@@ -25059,7 +25075,7 @@
         <v>10</v>
       </c>
       <c r="F1206" s="1">
-        <v>15214907</v>
+        <v>15215215</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.3">
@@ -25099,7 +25115,7 @@
         <v>9</v>
       </c>
       <c r="F1208" s="1">
-        <v>27155518</v>
+        <v>27156710</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.3">
@@ -25119,7 +25135,7 @@
         <v>10</v>
       </c>
       <c r="F1209" s="1">
-        <v>5555671</v>
+        <v>5556630</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
@@ -25199,7 +25215,7 @@
         <v>9</v>
       </c>
       <c r="F1213" s="1">
-        <v>289658076</v>
+        <v>289660310</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
@@ -25219,7 +25235,7 @@
         <v>10</v>
       </c>
       <c r="F1214" s="1">
-        <v>15061061</v>
+        <v>15062121</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
@@ -25259,7 +25275,7 @@
         <v>9</v>
       </c>
       <c r="F1216" s="1">
-        <v>27148716</v>
+        <v>27149964</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.3">
@@ -25279,7 +25295,7 @@
         <v>10</v>
       </c>
       <c r="F1217" s="1">
-        <v>5528301</v>
+        <v>5529991</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
@@ -25359,7 +25375,7 @@
         <v>9</v>
       </c>
       <c r="F1221" s="1">
-        <v>281467153</v>
+        <v>281476931</v>
       </c>
     </row>
     <row r="1222" spans="1:6" x14ac:dyDescent="0.3">
@@ -25379,7 +25395,7 @@
         <v>10</v>
       </c>
       <c r="F1222" s="1">
-        <v>14440991</v>
+        <v>14443481</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.3">
@@ -25419,7 +25435,7 @@
         <v>9</v>
       </c>
       <c r="F1224" s="1">
-        <v>26160565</v>
+        <v>26161387</v>
       </c>
     </row>
     <row r="1225" spans="1:6" x14ac:dyDescent="0.3">
@@ -25439,7 +25455,7 @@
         <v>10</v>
       </c>
       <c r="F1225" s="1">
-        <v>5226011</v>
+        <v>5227161</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.3">
@@ -25519,7 +25535,7 @@
         <v>9</v>
       </c>
       <c r="F1229" s="1">
-        <v>289595905</v>
+        <v>289606085</v>
       </c>
     </row>
     <row r="1230" spans="1:6" x14ac:dyDescent="0.3">
@@ -25539,7 +25555,7 @@
         <v>10</v>
       </c>
       <c r="F1230" s="1">
-        <v>14695299</v>
+        <v>14697695</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.3">
@@ -25579,7 +25595,7 @@
         <v>9</v>
       </c>
       <c r="F1232" s="1">
-        <v>27768378</v>
+        <v>27769065</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.3">
@@ -25599,7 +25615,7 @@
         <v>10</v>
       </c>
       <c r="F1233" s="1">
-        <v>5424968</v>
+        <v>5426056</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.3">
@@ -25679,7 +25695,7 @@
         <v>9</v>
       </c>
       <c r="F1237" s="1">
-        <v>281672541</v>
+        <v>281687708</v>
       </c>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.3">
@@ -25699,7 +25715,7 @@
         <v>10</v>
       </c>
       <c r="F1238" s="1">
-        <v>14447044</v>
+        <v>14451807</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.3">
@@ -25739,7 +25755,7 @@
         <v>9</v>
       </c>
       <c r="F1240" s="1">
-        <v>27115233</v>
+        <v>27113727</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.3">
@@ -25759,7 +25775,7 @@
         <v>10</v>
       </c>
       <c r="F1241" s="1">
-        <v>5343347</v>
+        <v>5344873</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.3">
@@ -25839,7 +25855,7 @@
         <v>9</v>
       </c>
       <c r="F1245" s="1">
-        <v>283370496</v>
+        <v>283380915</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.3">
@@ -25859,7 +25875,7 @@
         <v>10</v>
       </c>
       <c r="F1246" s="1">
-        <v>13970822</v>
+        <v>13974510</v>
       </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.3">
@@ -25899,7 +25915,7 @@
         <v>9</v>
       </c>
       <c r="F1248" s="1">
-        <v>27596800</v>
+        <v>27589627</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.3">
@@ -25919,7 +25935,7 @@
         <v>10</v>
       </c>
       <c r="F1249" s="1">
-        <v>5357059</v>
+        <v>5357980</v>
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.3">
@@ -25999,7 +26015,7 @@
         <v>9</v>
       </c>
       <c r="F1253" s="1">
-        <v>277577578</v>
+        <v>277559343</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.3">
@@ -26019,7 +26035,7 @@
         <v>10</v>
       </c>
       <c r="F1254" s="1">
-        <v>13992797</v>
+        <v>13996237</v>
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.3">
@@ -26059,7 +26075,7 @@
         <v>9</v>
       </c>
       <c r="F1256" s="1">
-        <v>27512462</v>
+        <v>27503649</v>
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.3">
@@ -26079,7 +26095,7 @@
         <v>10</v>
       </c>
       <c r="F1257" s="1">
-        <v>5237976</v>
+        <v>5239986</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.3">
@@ -26159,7 +26175,7 @@
         <v>9</v>
       </c>
       <c r="F1261" s="1">
-        <v>261592680</v>
+        <v>261554893</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.3">
@@ -26179,7 +26195,7 @@
         <v>10</v>
       </c>
       <c r="F1262" s="1">
-        <v>13494588</v>
+        <v>13497716</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.3">
@@ -26219,7 +26235,7 @@
         <v>9</v>
       </c>
       <c r="F1264" s="1">
-        <v>25809634</v>
+        <v>25801160</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.3">
@@ -26239,7 +26255,7 @@
         <v>10</v>
       </c>
       <c r="F1265" s="1">
-        <v>4809068</v>
+        <v>4810527</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.3">
@@ -26319,7 +26335,7 @@
         <v>9</v>
       </c>
       <c r="F1269" s="1">
-        <v>282703949</v>
+        <v>282696397</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.3">
@@ -26339,7 +26355,7 @@
         <v>10</v>
       </c>
       <c r="F1270" s="1">
-        <v>14425553</v>
+        <v>14428004</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.3">
@@ -26379,7 +26395,7 @@
         <v>9</v>
       </c>
       <c r="F1272" s="1">
-        <v>27758788</v>
+        <v>27747266</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.3">
@@ -26399,7 +26415,7 @@
         <v>10</v>
       </c>
       <c r="F1273" s="1">
-        <v>5355675</v>
+        <v>5356750</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.3">
@@ -26479,7 +26495,7 @@
         <v>9</v>
       </c>
       <c r="F1277" s="1">
-        <v>270035153</v>
+        <v>270047373</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.3">
@@ -26499,7 +26515,7 @@
         <v>10</v>
       </c>
       <c r="F1278" s="1">
-        <v>13632186</v>
+        <v>13634229</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.3">
@@ -26539,7 +26555,7 @@
         <v>9</v>
       </c>
       <c r="F1280" s="1">
-        <v>26475007</v>
+        <v>26461276</v>
       </c>
     </row>
     <row r="1281" spans="1:6" x14ac:dyDescent="0.3">
@@ -26559,7 +26575,7 @@
         <v>10</v>
       </c>
       <c r="F1281" s="1">
-        <v>4928884</v>
+        <v>4930433</v>
       </c>
     </row>
     <row r="1282" spans="1:6" x14ac:dyDescent="0.3">
@@ -26639,7 +26655,7 @@
         <v>9</v>
       </c>
       <c r="F1285" s="1">
-        <v>271739382</v>
+        <v>271757910</v>
       </c>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.3">
@@ -26659,7 +26675,7 @@
         <v>10</v>
       </c>
       <c r="F1286" s="1">
-        <v>13679749</v>
+        <v>13681894</v>
       </c>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.3">
@@ -26699,7 +26715,7 @@
         <v>9</v>
       </c>
       <c r="F1288" s="1">
-        <v>27024650</v>
+        <v>27009826</v>
       </c>
     </row>
     <row r="1289" spans="1:6" x14ac:dyDescent="0.3">
@@ -26719,7 +26735,7 @@
         <v>10</v>
       </c>
       <c r="F1289" s="1">
-        <v>4903227</v>
+        <v>4904392</v>
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.3">
@@ -26739,7 +26755,7 @@
         <v>9</v>
       </c>
       <c r="F1290" s="1">
-        <v>97956950</v>
+        <v>97957790</v>
       </c>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.3">
@@ -26799,7 +26815,7 @@
         <v>9</v>
       </c>
       <c r="F1293" s="1">
-        <v>266091935</v>
+        <v>266101750</v>
       </c>
     </row>
     <row r="1294" spans="1:6" x14ac:dyDescent="0.3">
@@ -26819,7 +26835,7 @@
         <v>10</v>
       </c>
       <c r="F1294" s="1">
-        <v>13106489</v>
+        <v>13108030</v>
       </c>
     </row>
     <row r="1295" spans="1:6" x14ac:dyDescent="0.3">
@@ -26859,7 +26875,7 @@
         <v>9</v>
       </c>
       <c r="F1296" s="1">
-        <v>25652859</v>
+        <v>25625588</v>
       </c>
     </row>
     <row r="1297" spans="1:6" x14ac:dyDescent="0.3">
@@ -26879,7 +26895,7 @@
         <v>10</v>
       </c>
       <c r="F1297" s="1">
-        <v>4691935</v>
+        <v>4692794</v>
       </c>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.3">
@@ -26959,7 +26975,7 @@
         <v>9</v>
       </c>
       <c r="F1301" s="1">
-        <v>260694068</v>
+        <v>260692972</v>
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.3">
@@ -26979,7 +26995,7 @@
         <v>10</v>
       </c>
       <c r="F1302" s="1">
-        <v>13642537</v>
+        <v>13644277</v>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.3">
@@ -27019,7 +27035,7 @@
         <v>9</v>
       </c>
       <c r="F1304" s="1">
-        <v>26231918</v>
+        <v>26220947</v>
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.3">
@@ -27039,7 +27055,7 @@
         <v>10</v>
       </c>
       <c r="F1305" s="1">
-        <v>4947504</v>
+        <v>4948755</v>
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.3">
@@ -27119,7 +27135,7 @@
         <v>9</v>
       </c>
       <c r="F1309" s="1">
-        <v>263538413</v>
+        <v>263534234</v>
       </c>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.3">
@@ -27139,7 +27155,7 @@
         <v>10</v>
       </c>
       <c r="F1310" s="1">
-        <v>13443166</v>
+        <v>13444540</v>
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.3">
@@ -27179,7 +27195,7 @@
         <v>9</v>
       </c>
       <c r="F1312" s="1">
-        <v>26742169</v>
+        <v>26730685</v>
       </c>
     </row>
     <row r="1313" spans="1:6" x14ac:dyDescent="0.3">
@@ -27199,7 +27215,7 @@
         <v>10</v>
       </c>
       <c r="F1313" s="1">
-        <v>4811972</v>
+        <v>4812766</v>
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.3">
@@ -27279,7 +27295,7 @@
         <v>9</v>
       </c>
       <c r="F1317" s="1">
-        <v>267816537</v>
+        <v>267819493</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.3">
@@ -27299,7 +27315,7 @@
         <v>10</v>
       </c>
       <c r="F1318" s="1">
-        <v>12960109</v>
+        <v>12960555</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.3">
@@ -27339,7 +27355,7 @@
         <v>9</v>
       </c>
       <c r="F1320" s="1">
-        <v>26237870</v>
+        <v>26210884</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.3">
@@ -27359,7 +27375,7 @@
         <v>10</v>
       </c>
       <c r="F1321" s="1">
-        <v>4735439</v>
+        <v>4736177</v>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.3">
@@ -27439,7 +27455,7 @@
         <v>9</v>
       </c>
       <c r="F1325" s="1">
-        <v>280332912</v>
+        <v>280344582</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.3">
@@ -27459,7 +27475,7 @@
         <v>10</v>
       </c>
       <c r="F1326" s="1">
-        <v>14067251</v>
+        <v>14067456</v>
       </c>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.3">
@@ -27499,7 +27515,7 @@
         <v>9</v>
       </c>
       <c r="F1328" s="1">
-        <v>27199125</v>
+        <v>27173398</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.3">
@@ -27519,7 +27535,7 @@
         <v>10</v>
       </c>
       <c r="F1329" s="1">
-        <v>5463960</v>
+        <v>5464735</v>
       </c>
     </row>
     <row r="1330" spans="1:6" x14ac:dyDescent="0.3">
@@ -27599,7 +27615,7 @@
         <v>9</v>
       </c>
       <c r="F1333" s="1">
-        <v>268608373</v>
+        <v>268591943</v>
       </c>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.3">
@@ -27619,7 +27635,7 @@
         <v>10</v>
       </c>
       <c r="F1334" s="1">
-        <v>13516856</v>
+        <v>13515102</v>
       </c>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.3">
@@ -27659,7 +27675,7 @@
         <v>9</v>
       </c>
       <c r="F1336" s="1">
-        <v>25862917</v>
+        <v>25841666</v>
       </c>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.3">
@@ -27679,7 +27695,7 @@
         <v>10</v>
       </c>
       <c r="F1337" s="1">
-        <v>5066716</v>
+        <v>5067607</v>
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.3">
@@ -27759,7 +27775,7 @@
         <v>9</v>
       </c>
       <c r="F1341" s="1">
-        <v>272703860</v>
+        <v>272703671</v>
       </c>
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.3">
@@ -27779,7 +27795,7 @@
         <v>10</v>
       </c>
       <c r="F1342" s="1">
-        <v>13589860</v>
+        <v>13587844</v>
       </c>
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.3">
@@ -27819,7 +27835,7 @@
         <v>9</v>
       </c>
       <c r="F1344" s="1">
-        <v>26256657</v>
+        <v>26235919</v>
       </c>
     </row>
     <row r="1345" spans="1:6" x14ac:dyDescent="0.3">
@@ -27839,7 +27855,7 @@
         <v>10</v>
       </c>
       <c r="F1345" s="1">
-        <v>5252090</v>
+        <v>5252866</v>
       </c>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.3">
@@ -27919,7 +27935,7 @@
         <v>9</v>
       </c>
       <c r="F1349" s="1">
-        <v>267464011</v>
+        <v>267447234</v>
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.3">
@@ -27939,7 +27955,7 @@
         <v>10</v>
       </c>
       <c r="F1350" s="1">
-        <v>13679603</v>
+        <v>13676290</v>
       </c>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.3">
@@ -27979,7 +27995,7 @@
         <v>9</v>
       </c>
       <c r="F1352" s="1">
-        <v>25675372</v>
+        <v>25668146</v>
       </c>
     </row>
     <row r="1353" spans="1:6" x14ac:dyDescent="0.3">
@@ -27999,7 +28015,7 @@
         <v>10</v>
       </c>
       <c r="F1353" s="1">
-        <v>5429770</v>
+        <v>5430003</v>
       </c>
     </row>
     <row r="1354" spans="1:6" x14ac:dyDescent="0.3">
@@ -28079,7 +28095,7 @@
         <v>9</v>
       </c>
       <c r="F1357" s="1">
-        <v>243796122</v>
+        <v>243842315</v>
       </c>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.3">
@@ -28099,7 +28115,7 @@
         <v>10</v>
       </c>
       <c r="F1358" s="1">
-        <v>13016311</v>
+        <v>13015846</v>
       </c>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.3">
@@ -28139,7 +28155,7 @@
         <v>9</v>
       </c>
       <c r="F1360" s="1">
-        <v>23421024</v>
+        <v>23412529</v>
       </c>
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.3">
@@ -28159,7 +28175,7 @@
         <v>10</v>
       </c>
       <c r="F1361" s="1">
-        <v>5037925</v>
+        <v>5038904</v>
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.3">
@@ -28239,7 +28255,7 @@
         <v>9</v>
       </c>
       <c r="F1365" s="1">
-        <v>274249222</v>
+        <v>274183613</v>
       </c>
     </row>
     <row r="1366" spans="1:6" x14ac:dyDescent="0.3">
@@ -28259,7 +28275,7 @@
         <v>10</v>
       </c>
       <c r="F1366" s="1">
-        <v>14855019</v>
+        <v>14852196</v>
       </c>
     </row>
     <row r="1367" spans="1:6" x14ac:dyDescent="0.3">
@@ -28299,7 +28315,7 @@
         <v>9</v>
       </c>
       <c r="F1368" s="1">
-        <v>26233825</v>
+        <v>26229032</v>
       </c>
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.3">
@@ -28319,7 +28335,7 @@
         <v>10</v>
       </c>
       <c r="F1369" s="1">
-        <v>5687293</v>
+        <v>5688229</v>
       </c>
     </row>
     <row r="1370" spans="1:6" x14ac:dyDescent="0.3">
@@ -28399,7 +28415,7 @@
         <v>9</v>
       </c>
       <c r="F1373" s="1">
-        <v>266754029</v>
+        <v>266798927</v>
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.3">
@@ -28419,7 +28435,7 @@
         <v>10</v>
       </c>
       <c r="F1374" s="1">
-        <v>14457999</v>
+        <v>14460562</v>
       </c>
     </row>
     <row r="1375" spans="1:6" x14ac:dyDescent="0.3">
@@ -28459,7 +28475,7 @@
         <v>9</v>
       </c>
       <c r="F1376" s="1">
-        <v>25569021</v>
+        <v>25563930</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.3">
@@ -28479,7 +28495,7 @@
         <v>10</v>
       </c>
       <c r="F1377" s="1">
-        <v>5561599</v>
+        <v>5562276</v>
       </c>
     </row>
     <row r="1378" spans="1:6" x14ac:dyDescent="0.3">
@@ -28559,7 +28575,7 @@
         <v>9</v>
       </c>
       <c r="F1381" s="1">
-        <v>269446643</v>
+        <v>269507212</v>
       </c>
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.3">
@@ -28579,7 +28595,7 @@
         <v>10</v>
       </c>
       <c r="F1382" s="1">
-        <v>15362867</v>
+        <v>15364703</v>
       </c>
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.3">
@@ -28619,7 +28635,7 @@
         <v>9</v>
       </c>
       <c r="F1384" s="1">
-        <v>27244034</v>
+        <v>27240528</v>
       </c>
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.3">
@@ -28639,7 +28655,7 @@
         <v>10</v>
       </c>
       <c r="F1385" s="1">
-        <v>5798458</v>
+        <v>5799427</v>
       </c>
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.3">
@@ -28719,7 +28735,7 @@
         <v>9</v>
       </c>
       <c r="F1389" s="1">
-        <v>262956130</v>
+        <v>263107409</v>
       </c>
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.3">
@@ -28739,7 +28755,7 @@
         <v>10</v>
       </c>
       <c r="F1390" s="1">
-        <v>14212881</v>
+        <v>14214351</v>
       </c>
     </row>
     <row r="1391" spans="1:6" x14ac:dyDescent="0.3">
@@ -28779,7 +28795,7 @@
         <v>9</v>
       </c>
       <c r="F1392" s="1">
-        <v>26999775</v>
+        <v>26997983</v>
       </c>
     </row>
     <row r="1393" spans="1:6" x14ac:dyDescent="0.3">
@@ -28799,7 +28815,7 @@
         <v>10</v>
       </c>
       <c r="F1393" s="1">
-        <v>5893429</v>
+        <v>5894453</v>
       </c>
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.3">
@@ -28879,7 +28895,7 @@
         <v>9</v>
       </c>
       <c r="F1397" s="1">
-        <v>270819249</v>
+        <v>270870170</v>
       </c>
     </row>
     <row r="1398" spans="1:6" x14ac:dyDescent="0.3">
@@ -28899,7 +28915,7 @@
         <v>10</v>
       </c>
       <c r="F1398" s="1">
-        <v>15020033</v>
+        <v>15019490</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
@@ -28939,7 +28955,7 @@
         <v>9</v>
       </c>
       <c r="F1400" s="1">
-        <v>27973396</v>
+        <v>27970309</v>
       </c>
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.3">
@@ -28959,7 +28975,7 @@
         <v>10</v>
       </c>
       <c r="F1401" s="1">
-        <v>6110939</v>
+        <v>6111813</v>
       </c>
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.3">
@@ -29039,7 +29055,7 @@
         <v>9</v>
       </c>
       <c r="F1405" s="1">
-        <v>270876037</v>
+        <v>270900047</v>
       </c>
     </row>
     <row r="1406" spans="1:6" x14ac:dyDescent="0.3">
@@ -29059,7 +29075,7 @@
         <v>10</v>
       </c>
       <c r="F1406" s="1">
-        <v>15593205</v>
+        <v>15591712</v>
       </c>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.3">
@@ -29099,7 +29115,7 @@
         <v>9</v>
       </c>
       <c r="F1408" s="1">
-        <v>28851661</v>
+        <v>28849450</v>
       </c>
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.3">
@@ -29119,7 +29135,7 @@
         <v>10</v>
       </c>
       <c r="F1409" s="1">
-        <v>6503998</v>
+        <v>6505064</v>
       </c>
     </row>
     <row r="1410" spans="1:6" x14ac:dyDescent="0.3">
@@ -29139,7 +29155,7 @@
         <v>9</v>
       </c>
       <c r="F1410" s="1">
-        <v>88477392</v>
+        <v>88478499</v>
       </c>
     </row>
     <row r="1411" spans="1:6" x14ac:dyDescent="0.3">
@@ -29159,7 +29175,7 @@
         <v>10</v>
       </c>
       <c r="F1411" s="1">
-        <v>51298594</v>
+        <v>51299085</v>
       </c>
     </row>
     <row r="1412" spans="1:6" x14ac:dyDescent="0.3">
@@ -29199,7 +29215,7 @@
         <v>9</v>
       </c>
       <c r="F1413" s="1">
-        <v>266900286</v>
+        <v>266926099</v>
       </c>
     </row>
     <row r="1414" spans="1:6" x14ac:dyDescent="0.3">
@@ -29219,7 +29235,7 @@
         <v>10</v>
       </c>
       <c r="F1414" s="1">
-        <v>15925089</v>
+        <v>15924707</v>
       </c>
     </row>
     <row r="1415" spans="1:6" x14ac:dyDescent="0.3">
@@ -29259,7 +29275,7 @@
         <v>9</v>
       </c>
       <c r="F1416" s="1">
-        <v>27952509</v>
+        <v>27952403</v>
       </c>
     </row>
     <row r="1417" spans="1:6" x14ac:dyDescent="0.3">
@@ -29279,7 +29295,7 @@
         <v>10</v>
       </c>
       <c r="F1417" s="1">
-        <v>6268627</v>
+        <v>6271362</v>
       </c>
     </row>
     <row r="1418" spans="1:6" x14ac:dyDescent="0.3">
@@ -29359,7 +29375,7 @@
         <v>9</v>
       </c>
       <c r="F1421" s="1">
-        <v>275896237</v>
+        <v>275908509</v>
       </c>
     </row>
     <row r="1422" spans="1:6" x14ac:dyDescent="0.3">
@@ -29379,7 +29395,7 @@
         <v>10</v>
       </c>
       <c r="F1422" s="1">
-        <v>16880179</v>
+        <v>16867554</v>
       </c>
     </row>
     <row r="1423" spans="1:6" x14ac:dyDescent="0.3">
@@ -29419,7 +29435,7 @@
         <v>9</v>
       </c>
       <c r="F1424" s="1">
-        <v>29427349</v>
+        <v>29434915</v>
       </c>
     </row>
     <row r="1425" spans="1:6" x14ac:dyDescent="0.3">
@@ -29439,7 +29455,7 @@
         <v>10</v>
       </c>
       <c r="F1425" s="1">
-        <v>6618566</v>
+        <v>6621725</v>
       </c>
     </row>
     <row r="1426" spans="1:6" x14ac:dyDescent="0.3">
@@ -29519,7 +29535,7 @@
         <v>9</v>
       </c>
       <c r="F1429" s="1">
-        <v>270370437</v>
+        <v>270390437</v>
       </c>
     </row>
     <row r="1430" spans="1:6" x14ac:dyDescent="0.3">
@@ -29539,7 +29555,7 @@
         <v>10</v>
       </c>
       <c r="F1430" s="1">
-        <v>16728387</v>
+        <v>16718120</v>
       </c>
     </row>
     <row r="1431" spans="1:6" x14ac:dyDescent="0.3">
@@ -29579,7 +29595,7 @@
         <v>9</v>
       </c>
       <c r="F1432" s="1">
-        <v>29317105</v>
+        <v>29317723</v>
       </c>
     </row>
     <row r="1433" spans="1:6" x14ac:dyDescent="0.3">
@@ -29599,7 +29615,7 @@
         <v>10</v>
       </c>
       <c r="F1433" s="1">
-        <v>6602923</v>
+        <v>6604044</v>
       </c>
     </row>
     <row r="1434" spans="1:6" x14ac:dyDescent="0.3">
@@ -29679,7 +29695,7 @@
         <v>9</v>
       </c>
       <c r="F1437" s="1">
-        <v>282188063</v>
+        <v>282217903</v>
       </c>
     </row>
     <row r="1438" spans="1:6" x14ac:dyDescent="0.3">
@@ -29699,7 +29715,7 @@
         <v>10</v>
       </c>
       <c r="F1438" s="1">
-        <v>17819643</v>
+        <v>17812846</v>
       </c>
     </row>
     <row r="1439" spans="1:6" x14ac:dyDescent="0.3">
@@ -29739,7 +29755,7 @@
         <v>9</v>
       </c>
       <c r="F1440" s="1">
-        <v>31148298</v>
+        <v>31147679</v>
       </c>
     </row>
     <row r="1441" spans="1:6" x14ac:dyDescent="0.3">
@@ -29759,7 +29775,7 @@
         <v>10</v>
       </c>
       <c r="F1441" s="1">
-        <v>6818134</v>
+        <v>6819152</v>
       </c>
     </row>
     <row r="1442" spans="1:6" x14ac:dyDescent="0.3">
@@ -29779,7 +29795,7 @@
         <v>9</v>
       </c>
       <c r="F1442" s="1">
-        <v>78976223</v>
+        <v>79015356</v>
       </c>
     </row>
     <row r="1443" spans="1:6" x14ac:dyDescent="0.3">
@@ -29839,7 +29855,7 @@
         <v>9</v>
       </c>
       <c r="F1445" s="1">
-        <v>280126363</v>
+        <v>280151202</v>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.3">
@@ -29859,7 +29875,7 @@
         <v>10</v>
       </c>
       <c r="F1446" s="1">
-        <v>17374228</v>
+        <v>17366667</v>
       </c>
     </row>
     <row r="1447" spans="1:6" x14ac:dyDescent="0.3">
@@ -29899,7 +29915,7 @@
         <v>9</v>
       </c>
       <c r="F1448" s="1">
-        <v>31512814</v>
+        <v>31511423</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.3">
@@ -29919,7 +29935,7 @@
         <v>10</v>
       </c>
       <c r="F1449" s="1">
-        <v>6728637</v>
+        <v>6730222</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.3">
@@ -29999,7 +30015,7 @@
         <v>9</v>
       </c>
       <c r="F1453" s="1">
-        <v>254096001</v>
+        <v>254121085</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.3">
@@ -30019,7 +30035,7 @@
         <v>10</v>
       </c>
       <c r="F1454" s="1">
-        <v>16430233</v>
+        <v>16420983</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.3">
@@ -30059,7 +30075,7 @@
         <v>9</v>
       </c>
       <c r="F1456" s="1">
-        <v>28517052</v>
+        <v>28515916</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.3">
@@ -30079,7 +30095,7 @@
         <v>10</v>
       </c>
       <c r="F1457" s="1">
-        <v>5919921</v>
+        <v>5921277</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.3">
@@ -30099,7 +30115,7 @@
         <v>9</v>
       </c>
       <c r="F1458" s="1">
-        <v>84083045</v>
+        <v>84069548</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.3">
@@ -30159,7 +30175,7 @@
         <v>9</v>
       </c>
       <c r="F1461" s="1">
-        <v>283355602</v>
+        <v>283455942</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.3">
@@ -30179,7 +30195,7 @@
         <v>10</v>
       </c>
       <c r="F1462" s="1">
-        <v>18490518</v>
+        <v>18498083</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.3">
@@ -30219,7 +30235,7 @@
         <v>9</v>
       </c>
       <c r="F1464" s="1">
-        <v>32899052</v>
+        <v>32900116</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.3">
@@ -30239,7 +30255,7 @@
         <v>10</v>
       </c>
       <c r="F1465" s="1">
-        <v>6998944</v>
+        <v>7000331</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.3">
@@ -30319,7 +30335,7 @@
         <v>9</v>
       </c>
       <c r="F1469" s="1">
-        <v>273596793</v>
+        <v>273651692</v>
       </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.3">
@@ -30339,7 +30355,7 @@
         <v>10</v>
       </c>
       <c r="F1470" s="1">
-        <v>18622507</v>
+        <v>18632555</v>
       </c>
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.3">
@@ -30379,7 +30395,7 @@
         <v>9</v>
       </c>
       <c r="F1472" s="1">
-        <v>32840320</v>
+        <v>32840874</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.3">
@@ -30399,7 +30415,7 @@
         <v>10</v>
       </c>
       <c r="F1473" s="1">
-        <v>7458965</v>
+        <v>7460162</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.3">
@@ -30419,7 +30435,7 @@
         <v>9</v>
       </c>
       <c r="F1474" s="1">
-        <v>78906602</v>
+        <v>78906652</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.3">
@@ -30479,7 +30495,7 @@
         <v>9</v>
       </c>
       <c r="F1477" s="1">
-        <v>279625669</v>
+        <v>279747645</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.3">
@@ -30499,7 +30515,7 @@
         <v>10</v>
       </c>
       <c r="F1478" s="1">
-        <v>19028788</v>
+        <v>19048705</v>
       </c>
     </row>
     <row r="1479" spans="1:6" x14ac:dyDescent="0.3">
@@ -30539,7 +30555,7 @@
         <v>9</v>
       </c>
       <c r="F1480" s="1">
-        <v>33640671</v>
+        <v>33587188</v>
       </c>
     </row>
     <row r="1481" spans="1:6" x14ac:dyDescent="0.3">
@@ -30559,7 +30575,7 @@
         <v>10</v>
       </c>
       <c r="F1481" s="1">
-        <v>7695488</v>
+        <v>7650322</v>
       </c>
     </row>
     <row r="1482" spans="1:6" x14ac:dyDescent="0.3">
@@ -30639,7 +30655,7 @@
         <v>9</v>
       </c>
       <c r="F1485" s="1">
-        <v>267429057</v>
+        <v>267558374</v>
       </c>
     </row>
     <row r="1486" spans="1:6" x14ac:dyDescent="0.3">
@@ -30659,7 +30675,7 @@
         <v>10</v>
       </c>
       <c r="F1486" s="1">
-        <v>18064842</v>
+        <v>18099819</v>
       </c>
     </row>
     <row r="1487" spans="1:6" x14ac:dyDescent="0.3">
@@ -30699,7 +30715,7 @@
         <v>9</v>
       </c>
       <c r="F1488" s="1">
-        <v>32559177</v>
+        <v>32518561</v>
       </c>
     </row>
     <row r="1489" spans="1:6" x14ac:dyDescent="0.3">
@@ -30719,7 +30735,7 @@
         <v>10</v>
       </c>
       <c r="F1489" s="1">
-        <v>7230178</v>
+        <v>7196298</v>
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.3">
@@ -30799,7 +30815,7 @@
         <v>9</v>
       </c>
       <c r="F1493" s="1">
-        <v>279511295</v>
+        <v>279639111</v>
       </c>
     </row>
     <row r="1494" spans="1:6" x14ac:dyDescent="0.3">
@@ -30819,7 +30835,7 @@
         <v>10</v>
       </c>
       <c r="F1494" s="1">
-        <v>19419075</v>
+        <v>19457853</v>
       </c>
     </row>
     <row r="1495" spans="1:6" x14ac:dyDescent="0.3">
@@ -30859,7 +30875,7 @@
         <v>9</v>
       </c>
       <c r="F1496" s="1">
-        <v>32966983</v>
+        <v>32936096</v>
       </c>
     </row>
     <row r="1497" spans="1:6" x14ac:dyDescent="0.3">
@@ -30879,7 +30895,7 @@
         <v>10</v>
       </c>
       <c r="F1497" s="1">
-        <v>7250607</v>
+        <v>7219235</v>
       </c>
     </row>
     <row r="1498" spans="1:6" x14ac:dyDescent="0.3">
@@ -30959,7 +30975,7 @@
         <v>9</v>
       </c>
       <c r="F1501" s="1">
-        <v>282826582</v>
+        <v>282956670</v>
       </c>
     </row>
     <row r="1502" spans="1:6" x14ac:dyDescent="0.3">
@@ -30979,7 +30995,7 @@
         <v>10</v>
       </c>
       <c r="F1502" s="1">
-        <v>20829589</v>
+        <v>20882602</v>
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.3">
@@ -31019,7 +31035,7 @@
         <v>9</v>
       </c>
       <c r="F1504" s="1">
-        <v>33408835</v>
+        <v>33385027</v>
       </c>
     </row>
     <row r="1505" spans="1:6" x14ac:dyDescent="0.3">
@@ -31039,7 +31055,7 @@
         <v>10</v>
       </c>
       <c r="F1505" s="1">
-        <v>7425931</v>
+        <v>7405561</v>
       </c>
     </row>
     <row r="1506" spans="1:6" x14ac:dyDescent="0.3">
@@ -31119,7 +31135,7 @@
         <v>9</v>
       </c>
       <c r="F1509" s="1">
-        <v>275175212</v>
+        <v>274887095</v>
       </c>
     </row>
     <row r="1510" spans="1:6" x14ac:dyDescent="0.3">
@@ -31139,7 +31155,7 @@
         <v>10</v>
       </c>
       <c r="F1510" s="1">
-        <v>21098911</v>
+        <v>21137687</v>
       </c>
     </row>
     <row r="1511" spans="1:6" x14ac:dyDescent="0.3">
@@ -31179,7 +31195,7 @@
         <v>9</v>
       </c>
       <c r="F1512" s="1">
-        <v>32979560</v>
+        <v>32945957</v>
       </c>
     </row>
     <row r="1513" spans="1:6" x14ac:dyDescent="0.3">
@@ -31199,7 +31215,7 @@
         <v>10</v>
       </c>
       <c r="F1513" s="1">
-        <v>7559822</v>
+        <v>7533020</v>
       </c>
     </row>
     <row r="1514" spans="1:6" x14ac:dyDescent="0.3">
@@ -31279,7 +31295,7 @@
         <v>9</v>
       </c>
       <c r="F1517" s="1">
-        <v>288369197</v>
+        <v>288518422</v>
       </c>
     </row>
     <row r="1518" spans="1:6" x14ac:dyDescent="0.3">
@@ -31299,7 +31315,7 @@
         <v>10</v>
       </c>
       <c r="F1518" s="1">
-        <v>22795524</v>
+        <v>22838560</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.3">
@@ -31339,7 +31355,7 @@
         <v>9</v>
       </c>
       <c r="F1520" s="1">
-        <v>33884252</v>
+        <v>33862776</v>
       </c>
     </row>
     <row r="1521" spans="1:6" x14ac:dyDescent="0.3">
@@ -31359,7 +31375,7 @@
         <v>10</v>
       </c>
       <c r="F1521" s="1">
-        <v>7819948</v>
+        <v>7800602</v>
       </c>
     </row>
     <row r="1522" spans="1:6" x14ac:dyDescent="0.3">
@@ -31439,7 +31455,7 @@
         <v>9</v>
       </c>
       <c r="F1525" s="1">
-        <v>275996283</v>
+        <v>276153346</v>
       </c>
     </row>
     <row r="1526" spans="1:6" x14ac:dyDescent="0.3">
@@ -31459,7 +31475,7 @@
         <v>10</v>
       </c>
       <c r="F1526" s="1">
-        <v>21866253</v>
+        <v>21907157</v>
       </c>
     </row>
     <row r="1527" spans="1:6" x14ac:dyDescent="0.3">
@@ -31499,7 +31515,7 @@
         <v>9</v>
       </c>
       <c r="F1528" s="1">
-        <v>32851919</v>
+        <v>32834443</v>
       </c>
     </row>
     <row r="1529" spans="1:6" x14ac:dyDescent="0.3">
@@ -31519,7 +31535,7 @@
         <v>10</v>
       </c>
       <c r="F1529" s="1">
-        <v>7954602</v>
+        <v>7938702</v>
       </c>
     </row>
     <row r="1530" spans="1:6" x14ac:dyDescent="0.3">
@@ -31599,7 +31615,7 @@
         <v>9</v>
       </c>
       <c r="F1533" s="1">
-        <v>287433782</v>
+        <v>287659550</v>
       </c>
     </row>
     <row r="1534" spans="1:6" x14ac:dyDescent="0.3">
@@ -31619,7 +31635,7 @@
         <v>10</v>
       </c>
       <c r="F1534" s="1">
-        <v>23216201</v>
+        <v>23264464</v>
       </c>
     </row>
     <row r="1535" spans="1:6" x14ac:dyDescent="0.3">
@@ -31659,7 +31675,7 @@
         <v>9</v>
       </c>
       <c r="F1536" s="1">
-        <v>33748442</v>
+        <v>33725753</v>
       </c>
     </row>
     <row r="1537" spans="1:6" x14ac:dyDescent="0.3">
@@ -31679,7 +31695,7 @@
         <v>10</v>
       </c>
       <c r="F1537" s="1">
-        <v>7987383</v>
+        <v>7972811</v>
       </c>
     </row>
     <row r="1538" spans="1:6" x14ac:dyDescent="0.3">
@@ -31759,7 +31775,7 @@
         <v>9</v>
       </c>
       <c r="F1541" s="1">
-        <v>281082477</v>
+        <v>281176952</v>
       </c>
     </row>
     <row r="1542" spans="1:6" x14ac:dyDescent="0.3">
@@ -31779,7 +31795,7 @@
         <v>10</v>
       </c>
       <c r="F1542" s="1">
-        <v>23586164</v>
+        <v>23623519</v>
       </c>
     </row>
     <row r="1543" spans="1:6" x14ac:dyDescent="0.3">
@@ -31819,7 +31835,7 @@
         <v>9</v>
       </c>
       <c r="F1544" s="1">
-        <v>33323647</v>
+        <v>33313290</v>
       </c>
     </row>
     <row r="1545" spans="1:6" x14ac:dyDescent="0.3">
@@ -31839,7 +31855,7 @@
         <v>10</v>
       </c>
       <c r="F1545" s="1">
-        <v>8076827</v>
+        <v>8067699</v>
       </c>
     </row>
     <row r="1546" spans="1:6" x14ac:dyDescent="0.3">
@@ -31919,7 +31935,7 @@
         <v>9</v>
       </c>
       <c r="F1549" s="1">
-        <v>256494176</v>
+        <v>256580868</v>
       </c>
     </row>
     <row r="1550" spans="1:6" x14ac:dyDescent="0.3">
@@ -31939,7 +31955,7 @@
         <v>10</v>
       </c>
       <c r="F1550" s="1">
-        <v>21845156</v>
+        <v>21878138</v>
       </c>
     </row>
     <row r="1551" spans="1:6" x14ac:dyDescent="0.3">
@@ -31979,7 +31995,7 @@
         <v>9</v>
       </c>
       <c r="F1552" s="1">
-        <v>29376216</v>
+        <v>29368016</v>
       </c>
     </row>
     <row r="1553" spans="1:6" x14ac:dyDescent="0.3">
@@ -31999,7 +32015,7 @@
         <v>10</v>
       </c>
       <c r="F1553" s="1">
-        <v>7161395</v>
+        <v>7154616</v>
       </c>
     </row>
     <row r="1554" spans="1:6" x14ac:dyDescent="0.3">
@@ -32019,7 +32035,7 @@
         <v>9</v>
       </c>
       <c r="F1554" s="1">
-        <v>96086736</v>
+        <v>96099424</v>
       </c>
     </row>
     <row r="1555" spans="1:6" x14ac:dyDescent="0.3">
@@ -32079,7 +32095,7 @@
         <v>9</v>
       </c>
       <c r="F1557" s="1">
-        <v>287090334</v>
+        <v>287231470</v>
       </c>
     </row>
     <row r="1558" spans="1:6" x14ac:dyDescent="0.3">
@@ -32099,7 +32115,7 @@
         <v>10</v>
       </c>
       <c r="F1558" s="1">
-        <v>24953191</v>
+        <v>25015550</v>
       </c>
     </row>
     <row r="1559" spans="1:6" x14ac:dyDescent="0.3">
@@ -32139,7 +32155,7 @@
         <v>9</v>
       </c>
       <c r="F1560" s="1">
-        <v>33768461</v>
+        <v>33757913</v>
       </c>
     </row>
     <row r="1561" spans="1:6" x14ac:dyDescent="0.3">
@@ -32159,7 +32175,7 @@
         <v>10</v>
       </c>
       <c r="F1561" s="1">
-        <v>8401238</v>
+        <v>8395121</v>
       </c>
     </row>
     <row r="1562" spans="1:6" x14ac:dyDescent="0.3">
@@ -32239,7 +32255,7 @@
         <v>9</v>
       </c>
       <c r="F1565" s="1">
-        <v>278245939</v>
+        <v>278707828</v>
       </c>
     </row>
     <row r="1566" spans="1:6" x14ac:dyDescent="0.3">
@@ -32259,7 +32275,7 @@
         <v>10</v>
       </c>
       <c r="F1566" s="1">
-        <v>23731886</v>
+        <v>24001961</v>
       </c>
     </row>
     <row r="1567" spans="1:6" x14ac:dyDescent="0.3">
@@ -32299,7 +32315,7 @@
         <v>9</v>
       </c>
       <c r="F1568" s="1">
-        <v>33772391</v>
+        <v>33760369</v>
       </c>
     </row>
     <row r="1569" spans="1:6" x14ac:dyDescent="0.3">
@@ -32319,7 +32335,7 @@
         <v>10</v>
       </c>
       <c r="F1569" s="1">
-        <v>8240772</v>
+        <v>8235191</v>
       </c>
     </row>
     <row r="1570" spans="1:6" x14ac:dyDescent="0.3">
@@ -32339,7 +32355,7 @@
         <v>9</v>
       </c>
       <c r="F1570" s="1">
-        <v>91697948</v>
+        <v>91697949</v>
       </c>
     </row>
     <row r="1571" spans="1:6" x14ac:dyDescent="0.3">
@@ -32399,7 +32415,7 @@
         <v>9</v>
       </c>
       <c r="F1573" s="1">
-        <v>288748136</v>
+        <v>289196301</v>
       </c>
     </row>
     <row r="1574" spans="1:6" x14ac:dyDescent="0.3">
@@ -32419,7 +32435,7 @@
         <v>10</v>
       </c>
       <c r="F1574" s="1">
-        <v>24778038</v>
+        <v>25014582</v>
       </c>
     </row>
     <row r="1575" spans="1:6" x14ac:dyDescent="0.3">
@@ -32459,7 +32475,7 @@
         <v>9</v>
       </c>
       <c r="F1576" s="1">
-        <v>34437190</v>
+        <v>34427129</v>
       </c>
     </row>
     <row r="1577" spans="1:6" x14ac:dyDescent="0.3">
@@ -32479,7 +32495,7 @@
         <v>10</v>
       </c>
       <c r="F1577" s="1">
-        <v>8523633</v>
+        <v>8518498</v>
       </c>
     </row>
     <row r="1578" spans="1:6" x14ac:dyDescent="0.3">
@@ -32499,7 +32515,7 @@
         <v>9</v>
       </c>
       <c r="F1578" s="1">
-        <v>85327891</v>
+        <v>85329453</v>
       </c>
     </row>
     <row r="1579" spans="1:6" x14ac:dyDescent="0.3">
@@ -32559,7 +32575,7 @@
         <v>9</v>
       </c>
       <c r="F1581" s="1">
-        <v>279752557</v>
+        <v>280311712</v>
       </c>
     </row>
     <row r="1582" spans="1:6" x14ac:dyDescent="0.3">
@@ -32579,7 +32595,7 @@
         <v>10</v>
       </c>
       <c r="F1582" s="1">
-        <v>23741506</v>
+        <v>23935397</v>
       </c>
     </row>
     <row r="1583" spans="1:6" x14ac:dyDescent="0.3">
@@ -32619,7 +32635,7 @@
         <v>9</v>
       </c>
       <c r="F1584" s="1">
-        <v>34323790</v>
+        <v>34322111</v>
       </c>
     </row>
     <row r="1585" spans="1:6" x14ac:dyDescent="0.3">
@@ -32639,7 +32655,7 @@
         <v>10</v>
       </c>
       <c r="F1585" s="1">
-        <v>8751226</v>
+        <v>8761581</v>
       </c>
     </row>
     <row r="1586" spans="1:6" x14ac:dyDescent="0.3">
@@ -32719,7 +32735,7 @@
         <v>9</v>
       </c>
       <c r="F1589" s="1">
-        <v>271125933</v>
+        <v>271670085</v>
       </c>
     </row>
     <row r="1590" spans="1:6" x14ac:dyDescent="0.3">
@@ -32739,7 +32755,7 @@
         <v>10</v>
       </c>
       <c r="F1590" s="1">
-        <v>23524999</v>
+        <v>23704243</v>
       </c>
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.3">
@@ -32779,7 +32795,7 @@
         <v>9</v>
       </c>
       <c r="F1592" s="1">
-        <v>35802113</v>
+        <v>35851418</v>
       </c>
     </row>
     <row r="1593" spans="1:6" x14ac:dyDescent="0.3">
@@ -32799,7 +32815,7 @@
         <v>10</v>
       </c>
       <c r="F1593" s="1">
-        <v>9136215</v>
+        <v>9215731</v>
       </c>
     </row>
     <row r="1594" spans="1:6" x14ac:dyDescent="0.3">
@@ -32879,7 +32895,7 @@
         <v>9</v>
       </c>
       <c r="F1597" s="1">
-        <v>276479287</v>
+        <v>277113403</v>
       </c>
     </row>
     <row r="1598" spans="1:6" x14ac:dyDescent="0.3">
@@ -32899,7 +32915,7 @@
         <v>10</v>
       </c>
       <c r="F1598" s="1">
-        <v>24211390</v>
+        <v>24336727</v>
       </c>
     </row>
     <row r="1599" spans="1:6" x14ac:dyDescent="0.3">
@@ -32939,7 +32955,7 @@
         <v>9</v>
       </c>
       <c r="F1600" s="1">
-        <v>36190036</v>
+        <v>36188605</v>
       </c>
     </row>
     <row r="1601" spans="1:6" x14ac:dyDescent="0.3">
@@ -32959,7 +32975,7 @@
         <v>10</v>
       </c>
       <c r="F1601" s="1">
-        <v>9217737</v>
+        <v>9254837</v>
       </c>
     </row>
     <row r="1602" spans="1:6" x14ac:dyDescent="0.3">
@@ -33039,7 +33055,7 @@
         <v>9</v>
       </c>
       <c r="F1605" s="1">
-        <v>277937537</v>
+        <v>278756444</v>
       </c>
     </row>
     <row r="1606" spans="1:6" x14ac:dyDescent="0.3">
@@ -33059,7 +33075,7 @@
         <v>10</v>
       </c>
       <c r="F1606" s="1">
-        <v>23745689</v>
+        <v>24297927</v>
       </c>
     </row>
     <row r="1607" spans="1:6" x14ac:dyDescent="0.3">
@@ -33099,7 +33115,7 @@
         <v>9</v>
       </c>
       <c r="F1608" s="1">
-        <v>35255718</v>
+        <v>35921224</v>
       </c>
     </row>
     <row r="1609" spans="1:6" x14ac:dyDescent="0.3">
@@ -33119,7 +33135,7 @@
         <v>10</v>
       </c>
       <c r="F1609" s="1">
-        <v>8847038</v>
+        <v>9337996</v>
       </c>
     </row>
     <row r="1610" spans="1:6" x14ac:dyDescent="0.3">
@@ -33199,7 +33215,7 @@
         <v>9</v>
       </c>
       <c r="F1613" s="1">
-        <v>287959552</v>
+        <v>288108886</v>
       </c>
     </row>
     <row r="1614" spans="1:6" x14ac:dyDescent="0.3">
@@ -33219,7 +33235,7 @@
         <v>10</v>
       </c>
       <c r="F1614" s="1">
-        <v>24492073</v>
+        <v>24959378</v>
       </c>
     </row>
     <row r="1615" spans="1:6" x14ac:dyDescent="0.3">
@@ -33259,7 +33275,7 @@
         <v>9</v>
       </c>
       <c r="F1616" s="1">
-        <v>36555146</v>
+        <v>37337991</v>
       </c>
     </row>
     <row r="1617" spans="1:6" x14ac:dyDescent="0.3">
@@ -33279,7 +33295,7 @@
         <v>10</v>
       </c>
       <c r="F1617" s="1">
-        <v>9434050</v>
+        <v>9884794</v>
       </c>
     </row>
     <row r="1618" spans="1:6" x14ac:dyDescent="0.3">
@@ -33299,7 +33315,7 @@
         <v>9</v>
       </c>
       <c r="F1618" s="1">
-        <v>87032825</v>
+        <v>87463846</v>
       </c>
     </row>
     <row r="1619" spans="1:6" x14ac:dyDescent="0.3">
@@ -33319,7 +33335,7 @@
         <v>10</v>
       </c>
       <c r="F1619" s="1">
-        <v>60358300</v>
+        <v>60404421</v>
       </c>
     </row>
     <row r="1620" spans="1:6" x14ac:dyDescent="0.3">
@@ -33359,7 +33375,7 @@
         <v>9</v>
       </c>
       <c r="F1621" s="1">
-        <v>278771153</v>
+        <v>279221244</v>
       </c>
     </row>
     <row r="1622" spans="1:6" x14ac:dyDescent="0.3">
@@ -33379,7 +33395,7 @@
         <v>10</v>
       </c>
       <c r="F1622" s="1">
-        <v>24596353</v>
+        <v>25151370</v>
       </c>
     </row>
     <row r="1623" spans="1:6" x14ac:dyDescent="0.3">
@@ -33419,7 +33435,7 @@
         <v>9</v>
       </c>
       <c r="F1624" s="1">
-        <v>35459801</v>
+        <v>36312774</v>
       </c>
     </row>
     <row r="1625" spans="1:6" x14ac:dyDescent="0.3">
@@ -33439,7 +33455,7 @@
         <v>10</v>
       </c>
       <c r="F1625" s="1">
-        <v>9436991</v>
+        <v>9836136</v>
       </c>
     </row>
     <row r="1626" spans="1:6" x14ac:dyDescent="0.3">
@@ -33459,7 +33475,7 @@
         <v>9</v>
       </c>
       <c r="F1626" s="1">
-        <v>90902305</v>
+        <v>91502116</v>
       </c>
     </row>
     <row r="1627" spans="1:6" x14ac:dyDescent="0.3">
@@ -33479,7 +33495,7 @@
         <v>10</v>
       </c>
       <c r="F1627" s="1">
-        <v>61763722</v>
+        <v>61826013</v>
       </c>
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.3">
@@ -33519,7 +33535,7 @@
         <v>9</v>
       </c>
       <c r="F1629" s="1">
-        <v>283921545</v>
+        <v>286378378</v>
       </c>
     </row>
     <row r="1630" spans="1:6" x14ac:dyDescent="0.3">
@@ -33539,7 +33555,7 @@
         <v>10</v>
       </c>
       <c r="F1630" s="1">
-        <v>25023972</v>
+        <v>26302489</v>
       </c>
     </row>
     <row r="1631" spans="1:6" x14ac:dyDescent="0.3">
@@ -33579,7 +33595,7 @@
         <v>9</v>
       </c>
       <c r="F1632" s="1">
-        <v>35488300</v>
+        <v>36420206</v>
       </c>
     </row>
     <row r="1633" spans="1:6" x14ac:dyDescent="0.3">
@@ -33599,7 +33615,7 @@
         <v>10</v>
       </c>
       <c r="F1633" s="1">
-        <v>9565782</v>
+        <v>9934752</v>
       </c>
     </row>
     <row r="1634" spans="1:6" x14ac:dyDescent="0.3">
@@ -33619,7 +33635,7 @@
         <v>9</v>
       </c>
       <c r="F1634" s="1">
-        <v>89083290</v>
+        <v>89713836</v>
       </c>
     </row>
     <row r="1635" spans="1:6" x14ac:dyDescent="0.3">
@@ -33639,7 +33655,7 @@
         <v>10</v>
       </c>
       <c r="F1635" s="1">
-        <v>61686604</v>
+        <v>61749859</v>
       </c>
     </row>
     <row r="1636" spans="1:6" x14ac:dyDescent="0.3">
@@ -33679,7 +33695,7 @@
         <v>9</v>
       </c>
       <c r="F1637" s="1">
-        <v>284134361</v>
+        <v>287124251</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.3">
@@ -33699,7 +33715,7 @@
         <v>10</v>
       </c>
       <c r="F1638" s="1">
-        <v>25089516</v>
+        <v>26445138</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.3">
@@ -33739,7 +33755,7 @@
         <v>9</v>
       </c>
       <c r="F1640" s="1">
-        <v>34019980</v>
+        <v>34806362</v>
       </c>
     </row>
     <row r="1641" spans="1:6" x14ac:dyDescent="0.3">
@@ -33759,7 +33775,7 @@
         <v>10</v>
       </c>
       <c r="F1641" s="1">
-        <v>8771955</v>
+        <v>9062837</v>
       </c>
     </row>
     <row r="1642" spans="1:6" x14ac:dyDescent="0.3">
@@ -33779,7 +33795,7 @@
         <v>9</v>
       </c>
       <c r="F1642" s="1">
-        <v>82077583</v>
+        <v>82612931</v>
       </c>
     </row>
     <row r="1643" spans="1:6" x14ac:dyDescent="0.3">
@@ -33799,7 +33815,7 @@
         <v>10</v>
       </c>
       <c r="F1643" s="1">
-        <v>57285677</v>
+        <v>57342469</v>
       </c>
     </row>
     <row r="1644" spans="1:6" x14ac:dyDescent="0.3">
@@ -33839,7 +33855,7 @@
         <v>9</v>
       </c>
       <c r="F1645" s="1">
-        <v>262399339</v>
+        <v>265768309</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.3">
@@ -33859,7 +33875,7 @@
         <v>10</v>
       </c>
       <c r="F1646" s="1">
-        <v>23687991</v>
+        <v>25166637</v>
       </c>
     </row>
     <row r="1647" spans="1:6" x14ac:dyDescent="0.3">
@@ -33899,7 +33915,7 @@
         <v>9</v>
       </c>
       <c r="F1648" s="1">
-        <v>32090603</v>
+        <v>32953775</v>
       </c>
     </row>
     <row r="1649" spans="1:6" x14ac:dyDescent="0.3">
@@ -33919,7 +33935,7 @@
         <v>10</v>
       </c>
       <c r="F1649" s="1">
-        <v>8275965</v>
+        <v>8561203</v>
       </c>
     </row>
     <row r="1650" spans="1:6" x14ac:dyDescent="0.3">
@@ -33939,7 +33955,7 @@
         <v>9</v>
       </c>
       <c r="F1650" s="1">
-        <v>88528262</v>
+        <v>89117019</v>
       </c>
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.3">
@@ -33959,7 +33975,7 @@
         <v>10</v>
       </c>
       <c r="F1651" s="1">
-        <v>59769489</v>
+        <v>59828503</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.3">
@@ -33999,7 +34015,7 @@
         <v>9</v>
       </c>
       <c r="F1653" s="1">
-        <v>276478776</v>
+        <v>282663258</v>
       </c>
     </row>
     <row r="1654" spans="1:6" x14ac:dyDescent="0.3">
@@ -34019,7 +34035,7 @@
         <v>10</v>
       </c>
       <c r="F1654" s="1">
-        <v>25397998</v>
+        <v>27823594</v>
       </c>
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.3">
@@ -34059,7 +34075,7 @@
         <v>9</v>
       </c>
       <c r="F1656" s="1">
-        <v>34073529</v>
+        <v>34888958</v>
       </c>
     </row>
     <row r="1657" spans="1:6" x14ac:dyDescent="0.3">
@@ -34079,7 +34095,7 @@
         <v>10</v>
       </c>
       <c r="F1657" s="1">
-        <v>8632409</v>
+        <v>8957299</v>
       </c>
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.3">
@@ -34099,7 +34115,7 @@
         <v>9</v>
       </c>
       <c r="F1658" s="1">
-        <v>80830856</v>
+        <v>81372719</v>
       </c>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.3">
@@ -34119,7 +34135,7 @@
         <v>10</v>
       </c>
       <c r="F1659" s="1">
-        <v>56016579</v>
+        <v>56077086</v>
       </c>
     </row>
     <row r="1660" spans="1:6" x14ac:dyDescent="0.3">
@@ -34159,7 +34175,7 @@
         <v>9</v>
       </c>
       <c r="F1661" s="1">
-        <v>249892289</v>
+        <v>256595204</v>
       </c>
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.3">
@@ -34179,7 +34195,7 @@
         <v>10</v>
       </c>
       <c r="F1662" s="1">
-        <v>21278526</v>
+        <v>23336385</v>
       </c>
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.3">
@@ -34219,7 +34235,7 @@
         <v>9</v>
       </c>
       <c r="F1664" s="1">
-        <v>30299789</v>
+        <v>31115173</v>
       </c>
     </row>
     <row r="1665" spans="1:6" x14ac:dyDescent="0.3">
@@ -34239,7 +34255,7 @@
         <v>10</v>
       </c>
       <c r="F1665" s="1">
-        <v>7100982</v>
+        <v>7529506</v>
       </c>
     </row>
     <row r="1666" spans="1:6" x14ac:dyDescent="0.3">
@@ -34259,7 +34275,7 @@
         <v>9</v>
       </c>
       <c r="F1666" s="1">
-        <v>64569844</v>
+        <v>64925695</v>
       </c>
     </row>
     <row r="1667" spans="1:6" x14ac:dyDescent="0.3">
@@ -34279,7 +34295,7 @@
         <v>10</v>
       </c>
       <c r="F1667" s="1">
-        <v>46496220</v>
+        <v>46464933</v>
       </c>
     </row>
     <row r="1668" spans="1:6" x14ac:dyDescent="0.3">
@@ -34319,7 +34335,7 @@
         <v>9</v>
       </c>
       <c r="F1669" s="1">
-        <v>240917124</v>
+        <v>247757329</v>
       </c>
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.3">
@@ -34339,7 +34355,7 @@
         <v>10</v>
       </c>
       <c r="F1670" s="1">
-        <v>17417093</v>
+        <v>19397206</v>
       </c>
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.3">
@@ -34379,7 +34395,7 @@
         <v>9</v>
       </c>
       <c r="F1672" s="1">
-        <v>25753423</v>
+        <v>27053275</v>
       </c>
     </row>
     <row r="1673" spans="1:6" x14ac:dyDescent="0.3">
@@ -34399,7 +34415,167 @@
         <v>10</v>
       </c>
       <c r="F1673" s="1">
-        <v>4943324</v>
+        <v>5271529</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1674">
+        <v>2020</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1674">
+        <v>62606543</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1675">
+        <v>2020</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1675">
+        <v>43573301</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1676">
+        <v>2020</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1676">
+        <v>17628063</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1677">
+        <v>2020</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1677">
+        <v>227203724</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1678">
+        <v>2020</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1678">
+        <v>19831273</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1679">
+        <v>2020</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1679">
+        <v>324627</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1680">
+        <v>2020</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1680">
+        <v>28419785</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1681">
+        <v>2020</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1681">
+        <v>6699448</v>
       </c>
     </row>
   </sheetData>

--- a/static/downloads/production/monthly_production.xlsx
+++ b/static/downloads/production/monthly_production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\nrrd\static\downloads\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E658CDB7-534B-46F4-9C83-BA503AA18D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A5FE9E-CC5D-461A-9847-FD5BBBD3B4BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_production" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6694" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6726" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,12 +935,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1673"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A468" workbookViewId="0">
+      <selection activeCell="I481" sqref="I481"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10639,7 +10645,7 @@
         <v>9</v>
       </c>
       <c r="F485" s="1">
-        <v>312652525</v>
+        <v>312657106</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10699,7 +10705,7 @@
         <v>9</v>
       </c>
       <c r="F488" s="1">
-        <v>24637343</v>
+        <v>24636755</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10719,7 +10725,7 @@
         <v>10</v>
       </c>
       <c r="F489" s="1">
-        <v>949715</v>
+        <v>949541</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10799,7 +10805,7 @@
         <v>9</v>
       </c>
       <c r="F493" s="1">
-        <v>295530200</v>
+        <v>295534497</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10859,7 +10865,7 @@
         <v>9</v>
       </c>
       <c r="F496" s="1">
-        <v>23269820</v>
+        <v>23269227</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10879,7 +10885,7 @@
         <v>10</v>
       </c>
       <c r="F497" s="1">
-        <v>889645</v>
+        <v>889473</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10959,7 +10965,7 @@
         <v>9</v>
       </c>
       <c r="F501" s="1">
-        <v>330398786</v>
+        <v>330403332</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11019,7 +11025,7 @@
         <v>9</v>
       </c>
       <c r="F504" s="1">
-        <v>25869740</v>
+        <v>25869263</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11039,7 +11045,7 @@
         <v>10</v>
       </c>
       <c r="F505" s="1">
-        <v>978390</v>
+        <v>978215</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -11119,7 +11125,7 @@
         <v>9</v>
       </c>
       <c r="F509" s="1">
-        <v>320365717</v>
+        <v>320370259</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -11179,7 +11185,7 @@
         <v>9</v>
       </c>
       <c r="F512" s="1">
-        <v>24926960</v>
+        <v>24926528</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -11199,7 +11205,7 @@
         <v>10</v>
       </c>
       <c r="F513" s="1">
-        <v>969500</v>
+        <v>969336</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -11279,7 +11285,7 @@
         <v>9</v>
       </c>
       <c r="F517" s="1">
-        <v>328688644</v>
+        <v>328693381</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11339,7 +11345,7 @@
         <v>9</v>
       </c>
       <c r="F520" s="1">
-        <v>25781996</v>
+        <v>25781437</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -11359,7 +11365,7 @@
         <v>10</v>
       </c>
       <c r="F521" s="1">
-        <v>988208</v>
+        <v>988061</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -11439,7 +11445,7 @@
         <v>9</v>
       </c>
       <c r="F525" s="1">
-        <v>318552068</v>
+        <v>318556598</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -11499,7 +11505,7 @@
         <v>9</v>
       </c>
       <c r="F528" s="1">
-        <v>24926462</v>
+        <v>24926001</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -11519,7 +11525,7 @@
         <v>10</v>
       </c>
       <c r="F529" s="1">
-        <v>931733</v>
+        <v>931556</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -11599,7 +11605,7 @@
         <v>9</v>
       </c>
       <c r="F533" s="1">
-        <v>333957467</v>
+        <v>333962119</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -11659,7 +11665,7 @@
         <v>9</v>
       </c>
       <c r="F536" s="1">
-        <v>26046628</v>
+        <v>26046174</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -11679,7 +11685,7 @@
         <v>10</v>
       </c>
       <c r="F537" s="1">
-        <v>982124</v>
+        <v>981950</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -11759,7 +11765,7 @@
         <v>9</v>
       </c>
       <c r="F541" s="1">
-        <v>333043838</v>
+        <v>333048435</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -11819,7 +11825,7 @@
         <v>9</v>
       </c>
       <c r="F544" s="1">
-        <v>25588407</v>
+        <v>25587930</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -11839,7 +11845,7 @@
         <v>10</v>
       </c>
       <c r="F545" s="1">
-        <v>995841</v>
+        <v>995713</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -11919,7 +11925,7 @@
         <v>9</v>
       </c>
       <c r="F549" s="1">
-        <v>307719750</v>
+        <v>307724283</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -11979,7 +11985,7 @@
         <v>9</v>
       </c>
       <c r="F552" s="1">
-        <v>24929171</v>
+        <v>24928821</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -11999,7 +12005,7 @@
         <v>10</v>
       </c>
       <c r="F553" s="1">
-        <v>982814</v>
+        <v>982638</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -12079,7 +12085,7 @@
         <v>9</v>
       </c>
       <c r="F557" s="1">
-        <v>335792142</v>
+        <v>335796842</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -12139,7 +12145,7 @@
         <v>9</v>
       </c>
       <c r="F560" s="1">
-        <v>25749116</v>
+        <v>25748668</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -12159,7 +12165,7 @@
         <v>10</v>
       </c>
       <c r="F561" s="1">
-        <v>1040889</v>
+        <v>1040707</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="F565" s="1">
-        <v>333836536</v>
+        <v>333841044</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
@@ -12299,7 +12305,7 @@
         <v>9</v>
       </c>
       <c r="F568" s="1">
-        <v>24890371</v>
+        <v>24890006</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
@@ -12319,7 +12325,7 @@
         <v>10</v>
       </c>
       <c r="F569" s="1">
-        <v>1006843</v>
+        <v>1006753</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -12399,7 +12405,7 @@
         <v>9</v>
       </c>
       <c r="F573" s="1">
-        <v>339549843</v>
+        <v>339554507</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
@@ -12459,7 +12465,7 @@
         <v>9</v>
       </c>
       <c r="F576" s="1">
-        <v>24914016</v>
+        <v>24913519</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
@@ -12479,7 +12485,7 @@
         <v>10</v>
       </c>
       <c r="F577" s="1">
-        <v>1008190</v>
+        <v>1008114</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,7 +12565,7 @@
         <v>9</v>
       </c>
       <c r="F581" s="1">
-        <v>344852466</v>
+        <v>344857078</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.3">
@@ -12619,7 +12625,7 @@
         <v>9</v>
       </c>
       <c r="F584" s="1">
-        <v>24814271</v>
+        <v>24813879</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
@@ -12639,7 +12645,7 @@
         <v>10</v>
       </c>
       <c r="F585" s="1">
-        <v>991089</v>
+        <v>990923</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
@@ -12719,7 +12725,7 @@
         <v>9</v>
       </c>
       <c r="F589" s="1">
-        <v>317366026</v>
+        <v>317370153</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
@@ -12779,7 +12785,7 @@
         <v>9</v>
       </c>
       <c r="F592" s="1">
-        <v>23261731</v>
+        <v>23261342</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
@@ -12879,7 +12885,7 @@
         <v>9</v>
       </c>
       <c r="F597" s="1">
-        <v>348484891</v>
+        <v>348489444</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.3">
@@ -12939,7 +12945,7 @@
         <v>9</v>
       </c>
       <c r="F600" s="1">
-        <v>25595499</v>
+        <v>25595095</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
@@ -13039,7 +13045,7 @@
         <v>9</v>
       </c>
       <c r="F605" s="1">
-        <v>331684586</v>
+        <v>331689029</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.3">
@@ -13099,7 +13105,7 @@
         <v>9</v>
       </c>
       <c r="F608" s="1">
-        <v>24527857</v>
+        <v>24527471</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
@@ -13119,7 +13125,7 @@
         <v>10</v>
       </c>
       <c r="F609" s="1">
-        <v>961670</v>
+        <v>961499</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
@@ -13199,7 +13205,7 @@
         <v>9</v>
       </c>
       <c r="F613" s="1">
-        <v>338825674</v>
+        <v>338830142</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
@@ -13259,7 +13265,7 @@
         <v>9</v>
       </c>
       <c r="F616" s="1">
-        <v>25113198</v>
+        <v>25112757</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
@@ -13279,7 +13285,7 @@
         <v>10</v>
       </c>
       <c r="F617" s="1">
-        <v>996805</v>
+        <v>996655</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
@@ -13359,7 +13365,7 @@
         <v>9</v>
       </c>
       <c r="F621" s="1">
-        <v>324431603</v>
+        <v>324435935</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.3">
@@ -13419,7 +13425,7 @@
         <v>9</v>
       </c>
       <c r="F624" s="1">
-        <v>23403576</v>
+        <v>23403326</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.3">
@@ -13519,7 +13525,7 @@
         <v>9</v>
       </c>
       <c r="F629" s="1">
-        <v>319844262</v>
+        <v>319848480</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.3">
@@ -13579,7 +13585,7 @@
         <v>9</v>
       </c>
       <c r="F632" s="1">
-        <v>25111507</v>
+        <v>25111183</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.3">
@@ -13599,7 +13605,7 @@
         <v>10</v>
       </c>
       <c r="F633" s="1">
-        <v>987884</v>
+        <v>987704</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.3">
@@ -13679,7 +13685,7 @@
         <v>9</v>
       </c>
       <c r="F637" s="1">
-        <v>331217475</v>
+        <v>331221987</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.3">
@@ -13739,7 +13745,7 @@
         <v>9</v>
       </c>
       <c r="F640" s="1">
-        <v>25136934</v>
+        <v>25136484</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.3">
@@ -13839,7 +13845,7 @@
         <v>9</v>
       </c>
       <c r="F645" s="1">
-        <v>309650388</v>
+        <v>309654702</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.3">
@@ -13899,7 +13905,7 @@
         <v>9</v>
       </c>
       <c r="F648" s="1">
-        <v>23774594</v>
+        <v>23774320</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.3">
@@ -13919,7 +13925,7 @@
         <v>10</v>
       </c>
       <c r="F649" s="1">
-        <v>1007109</v>
+        <v>1006931</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.3">
@@ -13999,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="F653" s="1">
-        <v>337865232</v>
+        <v>337869578</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.3">
@@ -14059,7 +14065,7 @@
         <v>9</v>
       </c>
       <c r="F656" s="1">
-        <v>24525915</v>
+        <v>24525458</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.3">
@@ -14079,7 +14085,7 @@
         <v>10</v>
       </c>
       <c r="F657" s="1">
-        <v>1091620</v>
+        <v>1091442</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.3">
@@ -14159,7 +14165,7 @@
         <v>9</v>
       </c>
       <c r="F661" s="1">
-        <v>333982783</v>
+        <v>333986951</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.3">
@@ -14219,7 +14225,7 @@
         <v>9</v>
       </c>
       <c r="F664" s="1">
-        <v>23547381</v>
+        <v>23547058</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.3">
@@ -14239,7 +14245,7 @@
         <v>10</v>
       </c>
       <c r="F665" s="1">
-        <v>1035658</v>
+        <v>1035487</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.3">
@@ -14319,7 +14325,7 @@
         <v>9</v>
       </c>
       <c r="F669" s="1">
-        <v>335525556</v>
+        <v>335529714</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.3">
@@ -14379,7 +14385,7 @@
         <v>9</v>
       </c>
       <c r="F672" s="1">
-        <v>23297647</v>
+        <v>23297230</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.3">
@@ -14399,7 +14405,7 @@
         <v>10</v>
       </c>
       <c r="F673" s="1">
-        <v>1034126</v>
+        <v>1033948</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.3">
@@ -14479,7 +14485,7 @@
         <v>9</v>
       </c>
       <c r="F677" s="1">
-        <v>335532623</v>
+        <v>335536760</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.3">
@@ -14539,7 +14545,7 @@
         <v>9</v>
       </c>
       <c r="F680" s="1">
-        <v>23516664</v>
+        <v>23516226</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.3">
@@ -14559,7 +14565,7 @@
         <v>10</v>
       </c>
       <c r="F681" s="1">
-        <v>1033758</v>
+        <v>1033582</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.3">
@@ -14639,7 +14645,7 @@
         <v>9</v>
       </c>
       <c r="F685" s="1">
-        <v>302937173</v>
+        <v>302940933</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.3">
@@ -14699,7 +14705,7 @@
         <v>9</v>
       </c>
       <c r="F688" s="1">
-        <v>21555004</v>
+        <v>21554618</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.3">
@@ -14799,7 +14805,7 @@
         <v>9</v>
       </c>
       <c r="F693" s="1">
-        <v>336243023</v>
+        <v>336247122</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.3">
@@ -14859,7 +14865,7 @@
         <v>9</v>
       </c>
       <c r="F696" s="1">
-        <v>24142747</v>
+        <v>24142311</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.3">
@@ -14879,7 +14885,7 @@
         <v>10</v>
       </c>
       <c r="F697" s="1">
-        <v>1215633</v>
+        <v>1215454</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.3">
@@ -14959,7 +14965,7 @@
         <v>9</v>
       </c>
       <c r="F701" s="1">
-        <v>327627975</v>
+        <v>327631884</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.3">
@@ -15019,7 +15025,7 @@
         <v>9</v>
       </c>
       <c r="F704" s="1">
-        <v>23737809</v>
+        <v>23737501</v>
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.3">
@@ -15039,7 +15045,7 @@
         <v>10</v>
       </c>
       <c r="F705" s="1">
-        <v>1221028</v>
+        <v>1220866</v>
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.3">
@@ -15119,7 +15125,7 @@
         <v>9</v>
       </c>
       <c r="F709" s="1">
-        <v>334606457</v>
+        <v>334610509</v>
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.3">
@@ -15179,7 +15185,7 @@
         <v>9</v>
       </c>
       <c r="F712" s="1">
-        <v>24989727</v>
+        <v>24989288</v>
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.3">
@@ -15199,7 +15205,7 @@
         <v>10</v>
       </c>
       <c r="F713" s="1">
-        <v>1268376</v>
+        <v>1268211</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.3">
@@ -15279,7 +15285,7 @@
         <v>9</v>
       </c>
       <c r="F717" s="1">
-        <v>311060179</v>
+        <v>311064033</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.3">
@@ -15339,7 +15345,7 @@
         <v>9</v>
       </c>
       <c r="F720" s="1">
-        <v>24320686</v>
+        <v>24322926</v>
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.3">
@@ -15359,7 +15365,7 @@
         <v>10</v>
       </c>
       <c r="F721" s="1">
-        <v>1327493</v>
+        <v>1326968</v>
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.3">
@@ -15439,7 +15445,7 @@
         <v>9</v>
       </c>
       <c r="F725" s="1">
-        <v>328560239</v>
+        <v>328564209</v>
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.3">
@@ -15499,7 +15505,7 @@
         <v>9</v>
       </c>
       <c r="F728" s="1">
-        <v>24885953</v>
+        <v>24879474</v>
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.3">
@@ -15519,7 +15525,7 @@
         <v>10</v>
       </c>
       <c r="F729" s="1">
-        <v>1435429</v>
+        <v>1435113</v>
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.3">
@@ -15599,7 +15605,7 @@
         <v>9</v>
       </c>
       <c r="F733" s="1">
-        <v>330788017</v>
+        <v>330792117</v>
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.3">
@@ -15659,7 +15665,7 @@
         <v>9</v>
       </c>
       <c r="F736" s="1">
-        <v>25423567</v>
+        <v>25422706</v>
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.3">
@@ -15679,7 +15685,7 @@
         <v>10</v>
       </c>
       <c r="F737" s="1">
-        <v>1545671</v>
+        <v>1545503</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.3">
@@ -15759,7 +15765,7 @@
         <v>9</v>
       </c>
       <c r="F741" s="1">
-        <v>319683681</v>
+        <v>319687610</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.3">
@@ -15819,7 +15825,7 @@
         <v>9</v>
       </c>
       <c r="F744" s="1">
-        <v>24880059</v>
+        <v>24880054</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.3">
@@ -15919,7 +15925,7 @@
         <v>9</v>
       </c>
       <c r="F749" s="1">
-        <v>328222371</v>
+        <v>328226363</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.3">
@@ -15979,7 +15985,7 @@
         <v>9</v>
       </c>
       <c r="F752" s="1">
-        <v>26010243</v>
+        <v>26009248</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.3">
@@ -15999,7 +16005,7 @@
         <v>10</v>
       </c>
       <c r="F753" s="1">
-        <v>1642408</v>
+        <v>1641747</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.3">
@@ -16079,7 +16085,7 @@
         <v>9</v>
       </c>
       <c r="F757" s="1">
-        <v>321865918</v>
+        <v>321869758</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.3">
@@ -16139,7 +16145,7 @@
         <v>9</v>
       </c>
       <c r="F760" s="1">
-        <v>25354938</v>
+        <v>25353166</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.3">
@@ -16159,7 +16165,7 @@
         <v>10</v>
       </c>
       <c r="F761" s="1">
-        <v>1589265</v>
+        <v>1588742</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.3">
@@ -16239,7 +16245,7 @@
         <v>9</v>
       </c>
       <c r="F765" s="1">
-        <v>332447738</v>
+        <v>332451680</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.3">
@@ -16299,7 +16305,7 @@
         <v>9</v>
       </c>
       <c r="F768" s="1">
-        <v>26114334</v>
+        <v>26111576</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.3">
@@ -16319,7 +16325,7 @@
         <v>10</v>
       </c>
       <c r="F769" s="1">
-        <v>1627108</v>
+        <v>1626770</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.3">
@@ -16399,7 +16405,7 @@
         <v>9</v>
       </c>
       <c r="F773" s="1">
-        <v>319224951</v>
+        <v>319228883</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.3">
@@ -16459,7 +16465,7 @@
         <v>9</v>
       </c>
       <c r="F776" s="1">
-        <v>24924279</v>
+        <v>24920033</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.3">
@@ -16479,7 +16485,7 @@
         <v>10</v>
       </c>
       <c r="F777" s="1">
-        <v>1636541</v>
+        <v>1636056</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.3">
@@ -16559,7 +16565,7 @@
         <v>9</v>
       </c>
       <c r="F781" s="1">
-        <v>287736330</v>
+        <v>287739768</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.3">
@@ -16619,7 +16625,7 @@
         <v>9</v>
       </c>
       <c r="F784" s="1">
-        <v>23117320</v>
+        <v>23113574</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.3">
@@ -16639,7 +16645,7 @@
         <v>10</v>
       </c>
       <c r="F785" s="1">
-        <v>1507988</v>
+        <v>1507901</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.3">
@@ -16719,7 +16725,7 @@
         <v>9</v>
       </c>
       <c r="F789" s="1">
-        <v>325398987</v>
+        <v>325402852</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.3">
@@ -16779,7 +16785,7 @@
         <v>9</v>
       </c>
       <c r="F792" s="1">
-        <v>26360677</v>
+        <v>26356874</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.3">
@@ -16799,7 +16805,7 @@
         <v>10</v>
       </c>
       <c r="F793" s="1">
-        <v>1744192</v>
+        <v>1743728</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.3">
@@ -16879,7 +16885,7 @@
         <v>9</v>
       </c>
       <c r="F797" s="1">
-        <v>318441194</v>
+        <v>318444950</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.3">
@@ -16939,7 +16945,7 @@
         <v>9</v>
       </c>
       <c r="F800" s="1">
-        <v>24716206</v>
+        <v>24712803</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.3">
@@ -16959,7 +16965,7 @@
         <v>10</v>
       </c>
       <c r="F801" s="1">
-        <v>1766382</v>
+        <v>1766072</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.3">
@@ -17039,7 +17045,7 @@
         <v>9</v>
       </c>
       <c r="F805" s="1">
-        <v>328067171</v>
+        <v>328071010</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.3">
@@ -17099,7 +17105,7 @@
         <v>9</v>
       </c>
       <c r="F808" s="1">
-        <v>25621725</v>
+        <v>25618062</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.3">
@@ -17119,7 +17125,7 @@
         <v>10</v>
       </c>
       <c r="F809" s="1">
-        <v>1887107</v>
+        <v>1886791</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.3">
@@ -17199,7 +17205,7 @@
         <v>9</v>
       </c>
       <c r="F813" s="1">
-        <v>315294283</v>
+        <v>315297980</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.3">
@@ -17259,7 +17265,7 @@
         <v>9</v>
       </c>
       <c r="F816" s="1">
-        <v>25324982</v>
+        <v>25321515</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.3">
@@ -17279,7 +17285,7 @@
         <v>10</v>
       </c>
       <c r="F817" s="1">
-        <v>1935055</v>
+        <v>1934919</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.3">
@@ -17359,7 +17365,7 @@
         <v>9</v>
       </c>
       <c r="F821" s="1">
-        <v>328461108</v>
+        <v>328464979</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.3">
@@ -17419,7 +17425,7 @@
         <v>9</v>
       </c>
       <c r="F824" s="1">
-        <v>26285512</v>
+        <v>26281949</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.3">
@@ -17439,7 +17445,7 @@
         <v>10</v>
       </c>
       <c r="F825" s="1">
-        <v>2047438</v>
+        <v>2047254</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.3">
@@ -17519,7 +17525,7 @@
         <v>9</v>
       </c>
       <c r="F829" s="1">
-        <v>310818049</v>
+        <v>310821863</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.3">
@@ -17579,7 +17585,7 @@
         <v>9</v>
       </c>
       <c r="F832" s="1">
-        <v>26251574</v>
+        <v>26248198</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.3">
@@ -17599,7 +17605,7 @@
         <v>10</v>
       </c>
       <c r="F833" s="1">
-        <v>2174608</v>
+        <v>2174490</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.3">
@@ -17679,7 +17685,7 @@
         <v>9</v>
       </c>
       <c r="F837" s="1">
-        <v>314865346</v>
+        <v>314869043</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.3">
@@ -17739,7 +17745,7 @@
         <v>9</v>
       </c>
       <c r="F840" s="1">
-        <v>25055352</v>
+        <v>25052254</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.3">
@@ -17759,7 +17765,7 @@
         <v>10</v>
       </c>
       <c r="F841" s="1">
-        <v>2083977</v>
+        <v>2083819</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.3">
@@ -17839,7 +17845,7 @@
         <v>9</v>
       </c>
       <c r="F845" s="1">
-        <v>332941261</v>
+        <v>332945141</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.3">
@@ -17899,7 +17905,7 @@
         <v>9</v>
       </c>
       <c r="F848" s="1">
-        <v>26151115</v>
+        <v>26148134</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.3">
@@ -17919,7 +17925,7 @@
         <v>10</v>
       </c>
       <c r="F849" s="1">
-        <v>2385616</v>
+        <v>2385286</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.3">
@@ -17999,7 +18005,7 @@
         <v>9</v>
       </c>
       <c r="F853" s="1">
-        <v>323949215</v>
+        <v>323952909</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.3">
@@ -18059,7 +18065,7 @@
         <v>9</v>
       </c>
       <c r="F856" s="1">
-        <v>25578950</v>
+        <v>25576370</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.3">
@@ -18079,7 +18085,7 @@
         <v>10</v>
       </c>
       <c r="F857" s="1">
-        <v>2477711</v>
+        <v>2477380</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.3">
@@ -18159,7 +18165,7 @@
         <v>9</v>
       </c>
       <c r="F861" s="1">
-        <v>329473372</v>
+        <v>329477083</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.3">
@@ -18219,7 +18225,7 @@
         <v>9</v>
       </c>
       <c r="F864" s="1">
-        <v>25940550</v>
+        <v>25939012</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.3">
@@ -18239,7 +18245,7 @@
         <v>10</v>
       </c>
       <c r="F865" s="1">
-        <v>2536443</v>
+        <v>2536411</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.3">
@@ -18319,7 +18325,7 @@
         <v>9</v>
       </c>
       <c r="F869" s="1">
-        <v>332747285</v>
+        <v>332755153</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.3">
@@ -18339,7 +18345,7 @@
         <v>10</v>
       </c>
       <c r="F870" s="1">
-        <v>10289324</v>
+        <v>10289481</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.3">
@@ -18379,7 +18385,7 @@
         <v>9</v>
       </c>
       <c r="F872" s="1">
-        <v>26447647</v>
+        <v>26446591</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.3">
@@ -18399,7 +18405,7 @@
         <v>10</v>
       </c>
       <c r="F873" s="1">
-        <v>2679293</v>
+        <v>2678660</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.3">
@@ -18479,7 +18485,7 @@
         <v>9</v>
       </c>
       <c r="F877" s="1">
-        <v>309189015</v>
+        <v>309196168</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.3">
@@ -18499,7 +18505,7 @@
         <v>10</v>
       </c>
       <c r="F878" s="1">
-        <v>9753977</v>
+        <v>9754111</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.3">
@@ -18539,7 +18545,7 @@
         <v>9</v>
       </c>
       <c r="F880" s="1">
-        <v>24909162</v>
+        <v>24907519</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.3">
@@ -18559,7 +18565,7 @@
         <v>10</v>
       </c>
       <c r="F881" s="1">
-        <v>2546721</v>
+        <v>2546092</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.3">
@@ -18639,7 +18645,7 @@
         <v>9</v>
       </c>
       <c r="F885" s="1">
-        <v>328739960</v>
+        <v>328746647</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.3">
@@ -18659,7 +18665,7 @@
         <v>10</v>
       </c>
       <c r="F886" s="1">
-        <v>10545279</v>
+        <v>10545379</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.3">
@@ -18699,7 +18705,7 @@
         <v>9</v>
       </c>
       <c r="F888" s="1">
-        <v>26480195</v>
+        <v>26477843</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.3">
@@ -18719,7 +18725,7 @@
         <v>10</v>
       </c>
       <c r="F889" s="1">
-        <v>2785868</v>
+        <v>2785344</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.3">
@@ -18799,7 +18805,7 @@
         <v>9</v>
       </c>
       <c r="F893" s="1">
-        <v>313820089</v>
+        <v>313825896</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.3">
@@ -18819,7 +18825,7 @@
         <v>10</v>
       </c>
       <c r="F894" s="1">
-        <v>10041024</v>
+        <v>10041109</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.3">
@@ -18859,7 +18865,7 @@
         <v>9</v>
       </c>
       <c r="F896" s="1">
-        <v>25579020</v>
+        <v>25576863</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.3">
@@ -18879,7 +18885,7 @@
         <v>10</v>
       </c>
       <c r="F897" s="1">
-        <v>2793185</v>
+        <v>2792733</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.3">
@@ -18959,7 +18965,7 @@
         <v>9</v>
       </c>
       <c r="F901" s="1">
-        <v>320231423</v>
+        <v>320237082</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.3">
@@ -18979,7 +18985,7 @@
         <v>10</v>
       </c>
       <c r="F902" s="1">
-        <v>10444565</v>
+        <v>10444641</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.3">
@@ -19019,7 +19025,7 @@
         <v>9</v>
       </c>
       <c r="F904" s="1">
-        <v>26419630</v>
+        <v>26417415</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.3">
@@ -19039,7 +19045,7 @@
         <v>10</v>
       </c>
       <c r="F905" s="1">
-        <v>2815787</v>
+        <v>2815483</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.3">
@@ -19119,7 +19125,7 @@
         <v>9</v>
       </c>
       <c r="F909" s="1">
-        <v>308127990</v>
+        <v>308134174</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.3">
@@ -19139,7 +19145,7 @@
         <v>10</v>
       </c>
       <c r="F910" s="1">
-        <v>10138618</v>
+        <v>10138706</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.3">
@@ -19179,7 +19185,7 @@
         <v>9</v>
       </c>
       <c r="F912" s="1">
-        <v>25310283</v>
+        <v>25308623</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.3">
@@ -19199,7 +19205,7 @@
         <v>10</v>
       </c>
       <c r="F913" s="1">
-        <v>2854649</v>
+        <v>2854357</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.3">
@@ -19279,7 +19285,7 @@
         <v>9</v>
       </c>
       <c r="F917" s="1">
-        <v>317509167</v>
+        <v>317515392</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.3">
@@ -19299,7 +19305,7 @@
         <v>10</v>
       </c>
       <c r="F918" s="1">
-        <v>10686560</v>
+        <v>10686645</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.3">
@@ -19339,7 +19345,7 @@
         <v>9</v>
       </c>
       <c r="F920" s="1">
-        <v>26136611</v>
+        <v>26134826</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.3">
@@ -19359,7 +19365,7 @@
         <v>10</v>
       </c>
       <c r="F921" s="1">
-        <v>3071959</v>
+        <v>3071664</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.3">
@@ -19439,7 +19445,7 @@
         <v>9</v>
       </c>
       <c r="F925" s="1">
-        <v>311357919</v>
+        <v>311363745</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.3">
@@ -19459,7 +19465,7 @@
         <v>10</v>
       </c>
       <c r="F926" s="1">
-        <v>10785310</v>
+        <v>10785389</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.3">
@@ -19499,7 +19505,7 @@
         <v>9</v>
       </c>
       <c r="F928" s="1">
-        <v>26321757</v>
+        <v>26320368</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.3">
@@ -19519,7 +19525,7 @@
         <v>10</v>
       </c>
       <c r="F929" s="1">
-        <v>3155264</v>
+        <v>3154827</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
@@ -19599,7 +19605,7 @@
         <v>9</v>
       </c>
       <c r="F933" s="1">
-        <v>300266758</v>
+        <v>300272794</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
@@ -19619,7 +19625,7 @@
         <v>10</v>
       </c>
       <c r="F934" s="1">
-        <v>10600955</v>
+        <v>10601048</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
@@ -19659,7 +19665,7 @@
         <v>9</v>
       </c>
       <c r="F936" s="1">
-        <v>25710805</v>
+        <v>25710219</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.3">
@@ -19679,7 +19685,7 @@
         <v>10</v>
       </c>
       <c r="F937" s="1">
-        <v>3269499</v>
+        <v>3269068</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
@@ -19759,7 +19765,7 @@
         <v>9</v>
       </c>
       <c r="F941" s="1">
-        <v>311255231</v>
+        <v>311262060</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
@@ -19779,7 +19785,7 @@
         <v>10</v>
       </c>
       <c r="F942" s="1">
-        <v>11217339</v>
+        <v>11218896</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
@@ -19819,7 +19825,7 @@
         <v>9</v>
       </c>
       <c r="F944" s="1">
-        <v>27019283</v>
+        <v>27017731</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -19839,7 +19845,7 @@
         <v>10</v>
       </c>
       <c r="F945" s="1">
-        <v>3739503</v>
+        <v>3739177</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
@@ -19919,7 +19925,7 @@
         <v>9</v>
       </c>
       <c r="F949" s="1">
-        <v>301194895</v>
+        <v>301202773</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
@@ -19939,7 +19945,7 @@
         <v>10</v>
       </c>
       <c r="F950" s="1">
-        <v>10890318</v>
+        <v>10891712</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">
@@ -19979,7 +19985,7 @@
         <v>9</v>
       </c>
       <c r="F952" s="1">
-        <v>25906240</v>
+        <v>25905449</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
@@ -19999,7 +20005,7 @@
         <v>10</v>
       </c>
       <c r="F953" s="1">
-        <v>3697187</v>
+        <v>3696718</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
@@ -20079,7 +20085,7 @@
         <v>9</v>
       </c>
       <c r="F957" s="1">
-        <v>304790979</v>
+        <v>304798484</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.3">
@@ -20099,7 +20105,7 @@
         <v>10</v>
       </c>
       <c r="F958" s="1">
-        <v>11229193</v>
+        <v>11230182</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
@@ -20139,7 +20145,7 @@
         <v>9</v>
       </c>
       <c r="F960" s="1">
-        <v>26208206</v>
+        <v>26207376</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.3">
@@ -20159,7 +20165,7 @@
         <v>10</v>
       </c>
       <c r="F961" s="1">
-        <v>3830636</v>
+        <v>3830333</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.3">
@@ -20239,7 +20245,7 @@
         <v>9</v>
       </c>
       <c r="F965" s="1">
-        <v>296404255</v>
+        <v>296411626</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
@@ -20259,7 +20265,7 @@
         <v>10</v>
       </c>
       <c r="F966" s="1">
-        <v>11014388</v>
+        <v>11015131</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
@@ -20299,7 +20305,7 @@
         <v>9</v>
       </c>
       <c r="F968" s="1">
-        <v>24740091</v>
+        <v>24739224</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
@@ -20319,7 +20325,7 @@
         <v>10</v>
       </c>
       <c r="F969" s="1">
-        <v>3562844</v>
+        <v>3562471</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.3">
@@ -20399,7 +20405,7 @@
         <v>9</v>
       </c>
       <c r="F973" s="1">
-        <v>273294070</v>
+        <v>273299200</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.3">
@@ -20419,7 +20425,7 @@
         <v>10</v>
       </c>
       <c r="F974" s="1">
-        <v>10153825</v>
+        <v>10153895</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.3">
@@ -20459,7 +20465,7 @@
         <v>9</v>
       </c>
       <c r="F976" s="1">
-        <v>23501182</v>
+        <v>23500442</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.3">
@@ -20479,7 +20485,7 @@
         <v>10</v>
       </c>
       <c r="F977" s="1">
-        <v>3508375</v>
+        <v>3508104</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.3">
@@ -20559,7 +20565,7 @@
         <v>9</v>
       </c>
       <c r="F981" s="1">
-        <v>302698882</v>
+        <v>302704949</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.3">
@@ -20579,7 +20585,7 @@
         <v>10</v>
       </c>
       <c r="F982" s="1">
-        <v>11502003</v>
+        <v>11502459</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.3">
@@ -20619,7 +20625,7 @@
         <v>9</v>
       </c>
       <c r="F984" s="1">
-        <v>26516947</v>
+        <v>26515866</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
@@ -20639,7 +20645,7 @@
         <v>10</v>
       </c>
       <c r="F985" s="1">
-        <v>4194443</v>
+        <v>4194357</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.3">
@@ -20719,7 +20725,7 @@
         <v>9</v>
       </c>
       <c r="F989" s="1">
-        <v>294459615</v>
+        <v>294466781</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.3">
@@ -20739,7 +20745,7 @@
         <v>10</v>
       </c>
       <c r="F990" s="1">
-        <v>11264086</v>
+        <v>11264828</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.3">
@@ -20779,7 +20785,7 @@
         <v>9</v>
       </c>
       <c r="F992" s="1">
-        <v>25981974</v>
+        <v>25980748</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.3">
@@ -20799,7 +20805,7 @@
         <v>10</v>
       </c>
       <c r="F993" s="1">
-        <v>4036117</v>
+        <v>4035769</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.3">
@@ -20879,7 +20885,7 @@
         <v>9</v>
       </c>
       <c r="F997" s="1">
-        <v>297611277</v>
+        <v>297618101</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.3">
@@ -20899,7 +20905,7 @@
         <v>10</v>
       </c>
       <c r="F998" s="1">
-        <v>11515380</v>
+        <v>11515970</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.3">
@@ -20939,7 +20945,7 @@
         <v>9</v>
       </c>
       <c r="F1000" s="1">
-        <v>26659820</v>
+        <v>26658840</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
@@ -20959,7 +20965,7 @@
         <v>10</v>
       </c>
       <c r="F1001" s="1">
-        <v>4243358</v>
+        <v>4242989</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
@@ -21039,7 +21045,7 @@
         <v>9</v>
       </c>
       <c r="F1005" s="1">
-        <v>289757535</v>
+        <v>289762968</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
@@ -21059,7 +21065,7 @@
         <v>10</v>
       </c>
       <c r="F1006" s="1">
-        <v>11254543</v>
+        <v>11254980</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
@@ -21099,7 +21105,7 @@
         <v>9</v>
       </c>
       <c r="F1008" s="1">
-        <v>26177909</v>
+        <v>26186221</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
@@ -21119,7 +21125,7 @@
         <v>10</v>
       </c>
       <c r="F1009" s="1">
-        <v>4165601</v>
+        <v>4177030</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
@@ -21199,7 +21205,7 @@
         <v>9</v>
       </c>
       <c r="F1013" s="1">
-        <v>298230970</v>
+        <v>298236389</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
@@ -21219,7 +21225,7 @@
         <v>10</v>
       </c>
       <c r="F1014" s="1">
-        <v>11737235</v>
+        <v>11738465</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
@@ -21259,7 +21265,7 @@
         <v>9</v>
       </c>
       <c r="F1016" s="1">
-        <v>27424097</v>
+        <v>27439547</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
@@ -21279,7 +21285,7 @@
         <v>10</v>
       </c>
       <c r="F1017" s="1">
-        <v>4616351</v>
+        <v>4623309</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
@@ -21359,7 +21365,7 @@
         <v>9</v>
       </c>
       <c r="F1021" s="1">
-        <v>298345898</v>
+        <v>298351602</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
@@ -21379,7 +21385,7 @@
         <v>10</v>
       </c>
       <c r="F1022" s="1">
-        <v>11795354</v>
+        <v>11796943</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
@@ -21419,7 +21425,7 @@
         <v>9</v>
       </c>
       <c r="F1024" s="1">
-        <v>27226570</v>
+        <v>27237410</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
@@ -21439,7 +21445,7 @@
         <v>10</v>
       </c>
       <c r="F1025" s="1">
-        <v>4905239</v>
+        <v>4909200</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
@@ -21519,7 +21525,7 @@
         <v>9</v>
       </c>
       <c r="F1029" s="1">
-        <v>276822860</v>
+        <v>276828375</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
@@ -21539,7 +21545,7 @@
         <v>10</v>
       </c>
       <c r="F1030" s="1">
-        <v>11531593</v>
+        <v>11531851</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
@@ -21579,7 +21585,7 @@
         <v>9</v>
       </c>
       <c r="F1032" s="1">
-        <v>26312611</v>
+        <v>26311642</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
@@ -21599,7 +21605,7 @@
         <v>10</v>
       </c>
       <c r="F1033" s="1">
-        <v>4737188</v>
+        <v>4739611</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.3">
@@ -21679,7 +21685,7 @@
         <v>9</v>
       </c>
       <c r="F1037" s="1">
-        <v>304193203</v>
+        <v>304201289</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
@@ -21699,7 +21705,7 @@
         <v>10</v>
       </c>
       <c r="F1038" s="1">
-        <v>11980645</v>
+        <v>11981140</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
@@ -21739,7 +21745,7 @@
         <v>9</v>
       </c>
       <c r="F1040" s="1">
-        <v>27542210</v>
+        <v>27545408</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
@@ -21759,7 +21765,7 @@
         <v>10</v>
       </c>
       <c r="F1041" s="1">
-        <v>4963503</v>
+        <v>4964603</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
@@ -21839,7 +21845,7 @@
         <v>9</v>
       </c>
       <c r="F1045" s="1">
-        <v>293323408</v>
+        <v>293331803</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
@@ -21859,7 +21865,7 @@
         <v>10</v>
       </c>
       <c r="F1046" s="1">
-        <v>11541121</v>
+        <v>11541556</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.3">
@@ -21899,7 +21905,7 @@
         <v>9</v>
       </c>
       <c r="F1048" s="1">
-        <v>26330163</v>
+        <v>26334155</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
@@ -21919,7 +21925,7 @@
         <v>10</v>
       </c>
       <c r="F1049" s="1">
-        <v>4753812</v>
+        <v>4755680</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.3">
@@ -21999,7 +22005,7 @@
         <v>9</v>
       </c>
       <c r="F1053" s="1">
-        <v>293506561</v>
+        <v>293511614</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
@@ -22019,7 +22025,7 @@
         <v>10</v>
       </c>
       <c r="F1054" s="1">
-        <v>11815816</v>
+        <v>11816159</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
@@ -22059,7 +22065,7 @@
         <v>9</v>
       </c>
       <c r="F1056" s="1">
-        <v>26009896</v>
+        <v>26014827</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
@@ -22079,7 +22085,7 @@
         <v>10</v>
       </c>
       <c r="F1057" s="1">
-        <v>4686701</v>
+        <v>4688066</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.3">
@@ -22159,7 +22165,7 @@
         <v>9</v>
       </c>
       <c r="F1061" s="1">
-        <v>296074268</v>
+        <v>296079542</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
@@ -22179,7 +22185,7 @@
         <v>10</v>
       </c>
       <c r="F1062" s="1">
-        <v>12193628</v>
+        <v>12193955</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
@@ -22219,7 +22225,7 @@
         <v>9</v>
       </c>
       <c r="F1064" s="1">
-        <v>26552952</v>
+        <v>26560589</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
@@ -22239,7 +22245,7 @@
         <v>10</v>
       </c>
       <c r="F1065" s="1">
-        <v>4675116</v>
+        <v>4677543</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.3">
@@ -22279,7 +22285,7 @@
         <v>10</v>
       </c>
       <c r="F1067" s="1">
-        <v>38741321</v>
+        <v>38741289</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
@@ -22319,7 +22325,7 @@
         <v>9</v>
       </c>
       <c r="F1069" s="1">
-        <v>268951433</v>
+        <v>268957482</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.3">
@@ -22339,7 +22345,7 @@
         <v>10</v>
       </c>
       <c r="F1070" s="1">
-        <v>11279143</v>
+        <v>11279485</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
@@ -22379,7 +22385,7 @@
         <v>9</v>
       </c>
       <c r="F1072" s="1">
-        <v>24595776</v>
+        <v>24602188</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
@@ -22399,7 +22405,7 @@
         <v>10</v>
       </c>
       <c r="F1073" s="1">
-        <v>4397658</v>
+        <v>4399713</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
@@ -22479,7 +22485,7 @@
         <v>9</v>
       </c>
       <c r="F1077" s="1">
-        <v>299917104</v>
+        <v>299923254</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
@@ -22499,7 +22505,7 @@
         <v>10</v>
       </c>
       <c r="F1078" s="1">
-        <v>12848090</v>
+        <v>12848380</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
@@ -22539,7 +22545,7 @@
         <v>9</v>
       </c>
       <c r="F1080" s="1">
-        <v>27388881</v>
+        <v>27393834</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
@@ -22559,7 +22565,7 @@
         <v>10</v>
       </c>
       <c r="F1081" s="1">
-        <v>4861975</v>
+        <v>4863720</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
@@ -22639,7 +22645,7 @@
         <v>9</v>
       </c>
       <c r="F1085" s="1">
-        <v>288573667</v>
+        <v>288580739</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
@@ -22659,7 +22665,7 @@
         <v>10</v>
       </c>
       <c r="F1086" s="1">
-        <v>12613131</v>
+        <v>12613431</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
@@ -22699,7 +22705,7 @@
         <v>9</v>
       </c>
       <c r="F1088" s="1">
-        <v>27030833</v>
+        <v>27029887</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
@@ -22719,7 +22725,7 @@
         <v>10</v>
       </c>
       <c r="F1089" s="1">
-        <v>4877531</v>
+        <v>4878883</v>
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
@@ -22799,7 +22805,7 @@
         <v>9</v>
       </c>
       <c r="F1093" s="1">
-        <v>294922038</v>
+        <v>294928380</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.3">
@@ -22819,7 +22825,7 @@
         <v>10</v>
       </c>
       <c r="F1094" s="1">
-        <v>13011499</v>
+        <v>13011816</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
@@ -22859,7 +22865,7 @@
         <v>9</v>
       </c>
       <c r="F1096" s="1">
-        <v>27592508</v>
+        <v>27594236</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
@@ -22879,7 +22885,7 @@
         <v>10</v>
       </c>
       <c r="F1097" s="1">
-        <v>5147200</v>
+        <v>5148872</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
@@ -22959,7 +22965,7 @@
         <v>9</v>
       </c>
       <c r="F1101" s="1">
-        <v>286021735</v>
+        <v>286028245</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
@@ -22979,7 +22985,7 @@
         <v>10</v>
       </c>
       <c r="F1102" s="1">
-        <v>12773774</v>
+        <v>12774034</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
@@ -23019,7 +23025,7 @@
         <v>9</v>
       </c>
       <c r="F1104" s="1">
-        <v>26711091</v>
+        <v>26714867</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
@@ -23039,7 +23045,7 @@
         <v>10</v>
       </c>
       <c r="F1105" s="1">
-        <v>5229271</v>
+        <v>5230629</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
@@ -23119,7 +23125,7 @@
         <v>9</v>
       </c>
       <c r="F1109" s="1">
-        <v>293336422</v>
+        <v>293341621</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
@@ -23139,7 +23145,7 @@
         <v>10</v>
       </c>
       <c r="F1110" s="1">
-        <v>13497349</v>
+        <v>13497732</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
@@ -23179,7 +23185,7 @@
         <v>9</v>
       </c>
       <c r="F1112" s="1">
-        <v>27639755</v>
+        <v>27643393</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
@@ -23199,7 +23205,7 @@
         <v>10</v>
       </c>
       <c r="F1113" s="1">
-        <v>5249033</v>
+        <v>5250556</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
@@ -23279,7 +23285,7 @@
         <v>9</v>
       </c>
       <c r="F1117" s="1">
-        <v>288389875</v>
+        <v>288398969</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
@@ -23299,7 +23305,7 @@
         <v>10</v>
       </c>
       <c r="F1118" s="1">
-        <v>13353895</v>
+        <v>13354258</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
@@ -23339,7 +23345,7 @@
         <v>9</v>
       </c>
       <c r="F1120" s="1">
-        <v>28315065</v>
+        <v>28315335</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
@@ -23359,7 +23365,7 @@
         <v>10</v>
       </c>
       <c r="F1121" s="1">
-        <v>5532533</v>
+        <v>5533503</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
@@ -23439,7 +23445,7 @@
         <v>9</v>
       </c>
       <c r="F1125" s="1">
-        <v>283824526</v>
+        <v>283832419</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
@@ -23459,7 +23465,7 @@
         <v>10</v>
       </c>
       <c r="F1126" s="1">
-        <v>12968996</v>
+        <v>12969307</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
@@ -23499,7 +23505,7 @@
         <v>9</v>
       </c>
       <c r="F1128" s="1">
-        <v>26964673</v>
+        <v>26967030</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.3">
@@ -23519,7 +23525,7 @@
         <v>10</v>
       </c>
       <c r="F1129" s="1">
-        <v>5374634</v>
+        <v>5376238</v>
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
@@ -23599,7 +23605,7 @@
         <v>9</v>
       </c>
       <c r="F1133" s="1">
-        <v>292907536</v>
+        <v>292915892</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
@@ -23619,7 +23625,7 @@
         <v>10</v>
       </c>
       <c r="F1134" s="1">
-        <v>14161779</v>
+        <v>14162144</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
@@ -23659,7 +23665,7 @@
         <v>9</v>
       </c>
       <c r="F1136" s="1">
-        <v>27161810</v>
+        <v>27165209</v>
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
@@ -23679,7 +23685,7 @@
         <v>10</v>
       </c>
       <c r="F1137" s="1">
-        <v>5428488</v>
+        <v>5430004</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
@@ -23759,7 +23765,7 @@
         <v>9</v>
       </c>
       <c r="F1141" s="1">
-        <v>286049103</v>
+        <v>286056121</v>
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
@@ -23779,7 +23785,7 @@
         <v>10</v>
       </c>
       <c r="F1142" s="1">
-        <v>13790603</v>
+        <v>13790972</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
@@ -23819,7 +23825,7 @@
         <v>9</v>
       </c>
       <c r="F1144" s="1">
-        <v>26282363</v>
+        <v>26284887</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
@@ -23839,7 +23845,7 @@
         <v>10</v>
       </c>
       <c r="F1145" s="1">
-        <v>5309750</v>
+        <v>5310886</v>
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
@@ -23919,7 +23925,7 @@
         <v>9</v>
       </c>
       <c r="F1149" s="1">
-        <v>293370082</v>
+        <v>293378524</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
@@ -23939,7 +23945,7 @@
         <v>10</v>
       </c>
       <c r="F1150" s="1">
-        <v>14793643</v>
+        <v>14793971</v>
       </c>
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
@@ -23979,7 +23985,7 @@
         <v>9</v>
       </c>
       <c r="F1152" s="1">
-        <v>27031561</v>
+        <v>27034351</v>
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
@@ -23999,7 +24005,7 @@
         <v>10</v>
       </c>
       <c r="F1153" s="1">
-        <v>5369084</v>
+        <v>5370347</v>
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
@@ -24079,7 +24085,7 @@
         <v>9</v>
       </c>
       <c r="F1157" s="1">
-        <v>288833385</v>
+        <v>288840342</v>
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
@@ -24099,7 +24105,7 @@
         <v>10</v>
       </c>
       <c r="F1158" s="1">
-        <v>14738196</v>
+        <v>14738557</v>
       </c>
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
@@ -24139,7 +24145,7 @@
         <v>9</v>
       </c>
       <c r="F1160" s="1">
-        <v>26691404</v>
+        <v>26694059</v>
       </c>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
@@ -24159,7 +24165,7 @@
         <v>10</v>
       </c>
       <c r="F1161" s="1">
-        <v>5415791</v>
+        <v>5416865</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
@@ -24239,7 +24245,7 @@
         <v>9</v>
       </c>
       <c r="F1165" s="1">
-        <v>263070888</v>
+        <v>263076741</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
@@ -24259,7 +24265,7 @@
         <v>10</v>
       </c>
       <c r="F1166" s="1">
-        <v>13670872</v>
+        <v>13671138</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
@@ -24299,7 +24305,7 @@
         <v>9</v>
       </c>
       <c r="F1168" s="1">
-        <v>24050654</v>
+        <v>24052658</v>
       </c>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
@@ -24319,7 +24325,7 @@
         <v>10</v>
       </c>
       <c r="F1169" s="1">
-        <v>5045945</v>
+        <v>5047126</v>
       </c>
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
@@ -24399,7 +24405,7 @@
         <v>9</v>
       </c>
       <c r="F1173" s="1">
-        <v>294850523</v>
+        <v>294858786</v>
       </c>
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
@@ -24419,7 +24425,7 @@
         <v>10</v>
       </c>
       <c r="F1174" s="1">
-        <v>15815578</v>
+        <v>15815939</v>
       </c>
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
@@ -24459,7 +24465,7 @@
         <v>9</v>
       </c>
       <c r="F1176" s="1">
-        <v>27006598</v>
+        <v>27007768</v>
       </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
@@ -24479,7 +24485,7 @@
         <v>10</v>
       </c>
       <c r="F1177" s="1">
-        <v>5587905</v>
+        <v>5589258</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
@@ -24559,7 +24565,7 @@
         <v>9</v>
       </c>
       <c r="F1181" s="1">
-        <v>287767958</v>
+        <v>287774390</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
@@ -24579,7 +24585,7 @@
         <v>10</v>
       </c>
       <c r="F1182" s="1">
-        <v>15386232</v>
+        <v>15386557</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
@@ -24619,7 +24625,7 @@
         <v>9</v>
       </c>
       <c r="F1184" s="1">
-        <v>25720766</v>
+        <v>25721492</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
@@ -24639,7 +24645,7 @@
         <v>10</v>
       </c>
       <c r="F1185" s="1">
-        <v>5036952</v>
+        <v>5038021</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
@@ -24719,7 +24725,7 @@
         <v>9</v>
       </c>
       <c r="F1189" s="1">
-        <v>292462881</v>
+        <v>292469783</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
@@ -24739,7 +24745,7 @@
         <v>10</v>
       </c>
       <c r="F1190" s="1">
-        <v>15604939</v>
+        <v>15605262</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
@@ -24779,7 +24785,7 @@
         <v>9</v>
       </c>
       <c r="F1192" s="1">
-        <v>26379415</v>
+        <v>26380523</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
@@ -24799,7 +24805,7 @@
         <v>10</v>
       </c>
       <c r="F1193" s="1">
-        <v>5087598</v>
+        <v>5089111</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
@@ -24879,7 +24885,7 @@
         <v>9</v>
       </c>
       <c r="F1197" s="1">
-        <v>283385924</v>
+        <v>283392829</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.3">
@@ -24899,7 +24905,7 @@
         <v>10</v>
       </c>
       <c r="F1198" s="1">
-        <v>15191531</v>
+        <v>15191816</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
@@ -24939,7 +24945,7 @@
         <v>9</v>
       </c>
       <c r="F1200" s="1">
-        <v>25193781</v>
+        <v>25194765</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.3">
@@ -24959,7 +24965,7 @@
         <v>10</v>
       </c>
       <c r="F1201" s="1">
-        <v>5117883</v>
+        <v>5119329</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.3">
@@ -25039,7 +25045,7 @@
         <v>9</v>
       </c>
       <c r="F1205" s="1">
-        <v>289770974</v>
+        <v>289778810</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.3">
@@ -25059,7 +25065,7 @@
         <v>10</v>
       </c>
       <c r="F1206" s="1">
-        <v>15214907</v>
+        <v>15215215</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.3">
@@ -25099,7 +25105,7 @@
         <v>9</v>
       </c>
       <c r="F1208" s="1">
-        <v>27155518</v>
+        <v>27156710</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.3">
@@ -25119,7 +25125,7 @@
         <v>10</v>
       </c>
       <c r="F1209" s="1">
-        <v>5555671</v>
+        <v>5556630</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
@@ -25199,7 +25205,7 @@
         <v>9</v>
       </c>
       <c r="F1213" s="1">
-        <v>289658076</v>
+        <v>289660310</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
@@ -25219,7 +25225,7 @@
         <v>10</v>
       </c>
       <c r="F1214" s="1">
-        <v>15061061</v>
+        <v>15062121</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
@@ -25259,7 +25265,7 @@
         <v>9</v>
       </c>
       <c r="F1216" s="1">
-        <v>27148716</v>
+        <v>27149964</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.3">
@@ -25279,7 +25285,7 @@
         <v>10</v>
       </c>
       <c r="F1217" s="1">
-        <v>5528301</v>
+        <v>5529991</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
@@ -25359,7 +25365,7 @@
         <v>9</v>
       </c>
       <c r="F1221" s="1">
-        <v>281467153</v>
+        <v>281476931</v>
       </c>
     </row>
     <row r="1222" spans="1:6" x14ac:dyDescent="0.3">
@@ -25379,7 +25385,7 @@
         <v>10</v>
       </c>
       <c r="F1222" s="1">
-        <v>14440991</v>
+        <v>14443481</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.3">
@@ -25419,7 +25425,7 @@
         <v>9</v>
       </c>
       <c r="F1224" s="1">
-        <v>26160565</v>
+        <v>26161387</v>
       </c>
     </row>
     <row r="1225" spans="1:6" x14ac:dyDescent="0.3">
@@ -25439,7 +25445,7 @@
         <v>10</v>
       </c>
       <c r="F1225" s="1">
-        <v>5226011</v>
+        <v>5227161</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.3">
@@ -25519,7 +25525,7 @@
         <v>9</v>
       </c>
       <c r="F1229" s="1">
-        <v>289595905</v>
+        <v>289606085</v>
       </c>
     </row>
     <row r="1230" spans="1:6" x14ac:dyDescent="0.3">
@@ -25539,7 +25545,7 @@
         <v>10</v>
       </c>
       <c r="F1230" s="1">
-        <v>14695299</v>
+        <v>14697695</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.3">
@@ -25579,7 +25585,7 @@
         <v>9</v>
       </c>
       <c r="F1232" s="1">
-        <v>27768378</v>
+        <v>27769065</v>
       </c>
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.3">
@@ -25599,7 +25605,7 @@
         <v>10</v>
       </c>
       <c r="F1233" s="1">
-        <v>5424968</v>
+        <v>5426056</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.3">
@@ -25679,7 +25685,7 @@
         <v>9</v>
       </c>
       <c r="F1237" s="1">
-        <v>281672541</v>
+        <v>281687708</v>
       </c>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.3">
@@ -25699,7 +25705,7 @@
         <v>10</v>
       </c>
       <c r="F1238" s="1">
-        <v>14447044</v>
+        <v>14451807</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.3">
@@ -25739,7 +25745,7 @@
         <v>9</v>
       </c>
       <c r="F1240" s="1">
-        <v>27115233</v>
+        <v>27113727</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.3">
@@ -25759,7 +25765,7 @@
         <v>10</v>
       </c>
       <c r="F1241" s="1">
-        <v>5343347</v>
+        <v>5344873</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.3">
@@ -25839,7 +25845,7 @@
         <v>9</v>
       </c>
       <c r="F1245" s="1">
-        <v>283370496</v>
+        <v>283380915</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.3">
@@ -25859,7 +25865,7 @@
         <v>10</v>
       </c>
       <c r="F1246" s="1">
-        <v>13970822</v>
+        <v>13974510</v>
       </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.3">
@@ -25899,7 +25905,7 @@
         <v>9</v>
       </c>
       <c r="F1248" s="1">
-        <v>27596800</v>
+        <v>27589627</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.3">
@@ -25919,7 +25925,7 @@
         <v>10</v>
       </c>
       <c r="F1249" s="1">
-        <v>5357059</v>
+        <v>5357980</v>
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.3">
@@ -25999,7 +26005,7 @@
         <v>9</v>
       </c>
       <c r="F1253" s="1">
-        <v>277577578</v>
+        <v>277559343</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.3">
@@ -26019,7 +26025,7 @@
         <v>10</v>
       </c>
       <c r="F1254" s="1">
-        <v>13992797</v>
+        <v>13996237</v>
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.3">
@@ -26059,7 +26065,7 @@
         <v>9</v>
       </c>
       <c r="F1256" s="1">
-        <v>27512462</v>
+        <v>27503649</v>
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.3">
@@ -26079,7 +26085,7 @@
         <v>10</v>
       </c>
       <c r="F1257" s="1">
-        <v>5237976</v>
+        <v>5239986</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.3">
@@ -26159,7 +26165,7 @@
         <v>9</v>
       </c>
       <c r="F1261" s="1">
-        <v>261592680</v>
+        <v>261554893</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.3">
@@ -26179,7 +26185,7 @@
         <v>10</v>
       </c>
       <c r="F1262" s="1">
-        <v>13494588</v>
+        <v>13497716</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.3">
@@ -26219,7 +26225,7 @@
         <v>9</v>
       </c>
       <c r="F1264" s="1">
-        <v>25809634</v>
+        <v>25801160</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.3">
@@ -26239,7 +26245,7 @@
         <v>10</v>
       </c>
       <c r="F1265" s="1">
-        <v>4809068</v>
+        <v>4810527</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.3">
@@ -26319,7 +26325,7 @@
         <v>9</v>
       </c>
       <c r="F1269" s="1">
-        <v>282703949</v>
+        <v>282696397</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.3">
@@ -26339,7 +26345,7 @@
         <v>10</v>
       </c>
       <c r="F1270" s="1">
-        <v>14425553</v>
+        <v>14428004</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.3">
@@ -26379,7 +26385,7 @@
         <v>9</v>
       </c>
       <c r="F1272" s="1">
-        <v>27758788</v>
+        <v>27747266</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.3">
@@ -26399,7 +26405,7 @@
         <v>10</v>
       </c>
       <c r="F1273" s="1">
-        <v>5355675</v>
+        <v>5356750</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.3">
@@ -26479,7 +26485,7 @@
         <v>9</v>
       </c>
       <c r="F1277" s="1">
-        <v>270035153</v>
+        <v>270047373</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.3">
@@ -26499,7 +26505,7 @@
         <v>10</v>
       </c>
       <c r="F1278" s="1">
-        <v>13632186</v>
+        <v>13634229</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.3">
@@ -26539,7 +26545,7 @@
         <v>9</v>
       </c>
       <c r="F1280" s="1">
-        <v>26475007</v>
+        <v>26461276</v>
       </c>
     </row>
     <row r="1281" spans="1:6" x14ac:dyDescent="0.3">
@@ -26559,7 +26565,7 @@
         <v>10</v>
       </c>
       <c r="F1281" s="1">
-        <v>4928884</v>
+        <v>4930433</v>
       </c>
     </row>
     <row r="1282" spans="1:6" x14ac:dyDescent="0.3">
@@ -26639,7 +26645,7 @@
         <v>9</v>
       </c>
       <c r="F1285" s="1">
-        <v>271739382</v>
+        <v>271757910</v>
       </c>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.3">
@@ -26659,7 +26665,7 @@
         <v>10</v>
       </c>
       <c r="F1286" s="1">
-        <v>13679749</v>
+        <v>13681894</v>
       </c>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.3">
@@ -26699,7 +26705,7 @@
         <v>9</v>
       </c>
       <c r="F1288" s="1">
-        <v>27024650</v>
+        <v>27009826</v>
       </c>
     </row>
     <row r="1289" spans="1:6" x14ac:dyDescent="0.3">
@@ -26719,7 +26725,7 @@
         <v>10</v>
       </c>
       <c r="F1289" s="1">
-        <v>4903227</v>
+        <v>4904392</v>
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.3">
@@ -26739,7 +26745,7 @@
         <v>9</v>
       </c>
       <c r="F1290" s="1">
-        <v>97956950</v>
+        <v>97957790</v>
       </c>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.3">
@@ -26799,7 +26805,7 @@
         <v>9</v>
       </c>
       <c r="F1293" s="1">
-        <v>266091935</v>
+        <v>266101750</v>
       </c>
     </row>
     <row r="1294" spans="1:6" x14ac:dyDescent="0.3">
@@ -26819,7 +26825,7 @@
         <v>10</v>
       </c>
       <c r="F1294" s="1">
-        <v>13106489</v>
+        <v>13108030</v>
       </c>
     </row>
     <row r="1295" spans="1:6" x14ac:dyDescent="0.3">
@@ -26859,7 +26865,7 @@
         <v>9</v>
       </c>
       <c r="F1296" s="1">
-        <v>25652859</v>
+        <v>25625588</v>
       </c>
     </row>
     <row r="1297" spans="1:6" x14ac:dyDescent="0.3">
@@ -26879,7 +26885,7 @@
         <v>10</v>
       </c>
       <c r="F1297" s="1">
-        <v>4691935</v>
+        <v>4692794</v>
       </c>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.3">
@@ -26959,7 +26965,7 @@
         <v>9</v>
       </c>
       <c r="F1301" s="1">
-        <v>260694068</v>
+        <v>260692972</v>
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.3">
@@ -26979,7 +26985,7 @@
         <v>10</v>
       </c>
       <c r="F1302" s="1">
-        <v>13642537</v>
+        <v>13644277</v>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.3">
@@ -27019,7 +27025,7 @@
         <v>9</v>
       </c>
       <c r="F1304" s="1">
-        <v>26231918</v>
+        <v>26220947</v>
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.3">
@@ -27039,7 +27045,7 @@
         <v>10</v>
       </c>
       <c r="F1305" s="1">
-        <v>4947504</v>
+        <v>4948755</v>
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.3">
@@ -27119,7 +27125,7 @@
         <v>9</v>
       </c>
       <c r="F1309" s="1">
-        <v>263538413</v>
+        <v>263534234</v>
       </c>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.3">
@@ -27139,7 +27145,7 @@
         <v>10</v>
       </c>
       <c r="F1310" s="1">
-        <v>13443166</v>
+        <v>13444540</v>
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.3">
@@ -27179,7 +27185,7 @@
         <v>9</v>
       </c>
       <c r="F1312" s="1">
-        <v>26742169</v>
+        <v>26730685</v>
       </c>
     </row>
     <row r="1313" spans="1:6" x14ac:dyDescent="0.3">
@@ -27199,7 +27205,7 @@
         <v>10</v>
       </c>
       <c r="F1313" s="1">
-        <v>4811972</v>
+        <v>4812766</v>
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.3">
@@ -27279,7 +27285,7 @@
         <v>9</v>
       </c>
       <c r="F1317" s="1">
-        <v>267816537</v>
+        <v>267819493</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.3">
@@ -27299,7 +27305,7 @@
         <v>10</v>
       </c>
       <c r="F1318" s="1">
-        <v>12960109</v>
+        <v>12960555</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.3">
@@ -27339,7 +27345,7 @@
         <v>9</v>
       </c>
       <c r="F1320" s="1">
-        <v>26237870</v>
+        <v>26210884</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.3">
@@ -27359,7 +27365,7 @@
         <v>10</v>
       </c>
       <c r="F1321" s="1">
-        <v>4735439</v>
+        <v>4736177</v>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.3">
@@ -27439,7 +27445,7 @@
         <v>9</v>
       </c>
       <c r="F1325" s="1">
-        <v>280332912</v>
+        <v>280344582</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.3">
@@ -27459,7 +27465,7 @@
         <v>10</v>
       </c>
       <c r="F1326" s="1">
-        <v>14067251</v>
+        <v>14067456</v>
       </c>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.3">
@@ -27499,7 +27505,7 @@
         <v>9</v>
       </c>
       <c r="F1328" s="1">
-        <v>27199125</v>
+        <v>27173398</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.3">
@@ -27519,7 +27525,7 @@
         <v>10</v>
       </c>
       <c r="F1329" s="1">
-        <v>5463960</v>
+        <v>5464735</v>
       </c>
     </row>
     <row r="1330" spans="1:6" x14ac:dyDescent="0.3">
@@ -27599,7 +27605,7 @@
         <v>9</v>
       </c>
       <c r="F1333" s="1">
-        <v>268608373</v>
+        <v>268591943</v>
       </c>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.3">
@@ -27619,7 +27625,7 @@
         <v>10</v>
       </c>
       <c r="F1334" s="1">
-        <v>13516856</v>
+        <v>13515102</v>
       </c>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.3">
@@ -27659,7 +27665,7 @@
         <v>9</v>
       </c>
       <c r="F1336" s="1">
-        <v>25862917</v>
+        <v>25841666</v>
       </c>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.3">
@@ -27679,7 +27685,7 @@
         <v>10</v>
       </c>
       <c r="F1337" s="1">
-        <v>5066716</v>
+        <v>5067607</v>
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.3">
@@ -27759,7 +27765,7 @@
         <v>9</v>
       </c>
       <c r="F1341" s="1">
-        <v>272703860</v>
+        <v>272703671</v>
       </c>
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.3">
@@ -27779,7 +27785,7 @@
         <v>10</v>
       </c>
       <c r="F1342" s="1">
-        <v>13589860</v>
+        <v>13587844</v>
       </c>
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.3">
@@ -27819,7 +27825,7 @@
         <v>9</v>
       </c>
       <c r="F1344" s="1">
-        <v>26256657</v>
+        <v>26235919</v>
       </c>
     </row>
     <row r="1345" spans="1:6" x14ac:dyDescent="0.3">
@@ -27839,7 +27845,7 @@
         <v>10</v>
       </c>
       <c r="F1345" s="1">
-        <v>5252090</v>
+        <v>5252866</v>
       </c>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.3">
@@ -27919,7 +27925,7 @@
         <v>9</v>
       </c>
       <c r="F1349" s="1">
-        <v>267464011</v>
+        <v>267447234</v>
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.3">
@@ -27939,7 +27945,7 @@
         <v>10</v>
       </c>
       <c r="F1350" s="1">
-        <v>13679603</v>
+        <v>13676290</v>
       </c>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.3">
@@ -27979,7 +27985,7 @@
         <v>9</v>
       </c>
       <c r="F1352" s="1">
-        <v>25675372</v>
+        <v>25668146</v>
       </c>
     </row>
     <row r="1353" spans="1:6" x14ac:dyDescent="0.3">
@@ -27999,7 +28005,7 @@
         <v>10</v>
       </c>
       <c r="F1353" s="1">
-        <v>5429770</v>
+        <v>5430003</v>
       </c>
     </row>
     <row r="1354" spans="1:6" x14ac:dyDescent="0.3">
@@ -28079,7 +28085,7 @@
         <v>9</v>
       </c>
       <c r="F1357" s="1">
-        <v>243796122</v>
+        <v>243842315</v>
       </c>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.3">
@@ -28099,7 +28105,7 @@
         <v>10</v>
       </c>
       <c r="F1358" s="1">
-        <v>13016311</v>
+        <v>13015846</v>
       </c>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.3">
@@ -28139,7 +28145,7 @@
         <v>9</v>
       </c>
       <c r="F1360" s="1">
-        <v>23421024</v>
+        <v>23412529</v>
       </c>
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.3">
@@ -28159,7 +28165,7 @@
         <v>10</v>
       </c>
       <c r="F1361" s="1">
-        <v>5037925</v>
+        <v>5038904</v>
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.3">
@@ -28239,7 +28245,7 @@
         <v>9</v>
       </c>
       <c r="F1365" s="1">
-        <v>274249222</v>
+        <v>274183613</v>
       </c>
     </row>
     <row r="1366" spans="1:6" x14ac:dyDescent="0.3">
@@ -28259,7 +28265,7 @@
         <v>10</v>
       </c>
       <c r="F1366" s="1">
-        <v>14855019</v>
+        <v>14852196</v>
       </c>
     </row>
     <row r="1367" spans="1:6" x14ac:dyDescent="0.3">
@@ -28299,7 +28305,7 @@
         <v>9</v>
       </c>
       <c r="F1368" s="1">
-        <v>26233825</v>
+        <v>26229032</v>
       </c>
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.3">
@@ -28319,7 +28325,7 @@
         <v>10</v>
       </c>
       <c r="F1369" s="1">
-        <v>5687293</v>
+        <v>5688229</v>
       </c>
     </row>
     <row r="1370" spans="1:6" x14ac:dyDescent="0.3">
@@ -28399,7 +28405,7 @@
         <v>9</v>
       </c>
       <c r="F1373" s="1">
-        <v>266754029</v>
+        <v>266798927</v>
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.3">
@@ -28419,7 +28425,7 @@
         <v>10</v>
       </c>
       <c r="F1374" s="1">
-        <v>14457999</v>
+        <v>14460562</v>
       </c>
     </row>
     <row r="1375" spans="1:6" x14ac:dyDescent="0.3">
@@ -28459,7 +28465,7 @@
         <v>9</v>
       </c>
       <c r="F1376" s="1">
-        <v>25569021</v>
+        <v>25563930</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.3">
@@ -28479,7 +28485,7 @@
         <v>10</v>
       </c>
       <c r="F1377" s="1">
-        <v>5561599</v>
+        <v>5562276</v>
       </c>
     </row>
     <row r="1378" spans="1:6" x14ac:dyDescent="0.3">
@@ -28559,7 +28565,7 @@
         <v>9</v>
       </c>
       <c r="F1381" s="1">
-        <v>269446643</v>
+        <v>269507212</v>
       </c>
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.3">
@@ -28579,7 +28585,7 @@
         <v>10</v>
       </c>
       <c r="F1382" s="1">
-        <v>15362867</v>
+        <v>15364703</v>
       </c>
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.3">
@@ -28619,7 +28625,7 @@
         <v>9</v>
       </c>
       <c r="F1384" s="1">
-        <v>27244034</v>
+        <v>27240528</v>
       </c>
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.3">
@@ -28639,7 +28645,7 @@
         <v>10</v>
       </c>
       <c r="F1385" s="1">
-        <v>5798458</v>
+        <v>5799427</v>
       </c>
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.3">
@@ -28719,7 +28725,7 @@
         <v>9</v>
       </c>
       <c r="F1389" s="1">
-        <v>262956130</v>
+        <v>263107409</v>
       </c>
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.3">
@@ -28739,7 +28745,7 @@
         <v>10</v>
       </c>
       <c r="F1390" s="1">
-        <v>14212881</v>
+        <v>14214351</v>
       </c>
     </row>
     <row r="1391" spans="1:6" x14ac:dyDescent="0.3">
@@ -28779,7 +28785,7 @@
         <v>9</v>
       </c>
       <c r="F1392" s="1">
-        <v>26999775</v>
+        <v>26997983</v>
       </c>
     </row>
     <row r="1393" spans="1:6" x14ac:dyDescent="0.3">
@@ -28799,7 +28805,7 @@
         <v>10</v>
       </c>
       <c r="F1393" s="1">
-        <v>5893429</v>
+        <v>5894453</v>
       </c>
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.3">
@@ -28879,7 +28885,7 @@
         <v>9</v>
       </c>
       <c r="F1397" s="1">
-        <v>270819249</v>
+        <v>270870170</v>
       </c>
     </row>
     <row r="1398" spans="1:6" x14ac:dyDescent="0.3">
@@ -28899,7 +28905,7 @@
         <v>10</v>
       </c>
       <c r="F1398" s="1">
-        <v>15020033</v>
+        <v>15019490</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
@@ -28939,7 +28945,7 @@
         <v>9</v>
       </c>
       <c r="F1400" s="1">
-        <v>27973396</v>
+        <v>27970309</v>
       </c>
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.3">
@@ -28959,7 +28965,7 @@
         <v>10</v>
       </c>
       <c r="F1401" s="1">
-        <v>6110939</v>
+        <v>6111813</v>
       </c>
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.3">
@@ -29039,7 +29045,7 @@
         <v>9</v>
       </c>
       <c r="F1405" s="1">
-        <v>270876037</v>
+        <v>270900047</v>
       </c>
     </row>
     <row r="1406" spans="1:6" x14ac:dyDescent="0.3">
@@ -29059,7 +29065,7 @@
         <v>10</v>
       </c>
       <c r="F1406" s="1">
-        <v>15593205</v>
+        <v>15591712</v>
       </c>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.3">
@@ -29099,7 +29105,7 @@
         <v>9</v>
       </c>
       <c r="F1408" s="1">
-        <v>28851661</v>
+        <v>28849450</v>
       </c>
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.3">
@@ -29119,7 +29125,7 @@
         <v>10</v>
       </c>
       <c r="F1409" s="1">
-        <v>6503998</v>
+        <v>6505064</v>
       </c>
     </row>
     <row r="1410" spans="1:6" x14ac:dyDescent="0.3">
@@ -29139,7 +29145,7 @@
         <v>9</v>
       </c>
       <c r="F1410" s="1">
-        <v>88477392</v>
+        <v>88478499</v>
       </c>
     </row>
     <row r="1411" spans="1:6" x14ac:dyDescent="0.3">
@@ -29159,7 +29165,7 @@
         <v>10</v>
       </c>
       <c r="F1411" s="1">
-        <v>51298594</v>
+        <v>51299085</v>
       </c>
     </row>
     <row r="1412" spans="1:6" x14ac:dyDescent="0.3">
@@ -29199,7 +29205,7 @@
         <v>9</v>
       </c>
       <c r="F1413" s="1">
-        <v>266900286</v>
+        <v>266926099</v>
       </c>
     </row>
     <row r="1414" spans="1:6" x14ac:dyDescent="0.3">
@@ -29219,7 +29225,7 @@
         <v>10</v>
       </c>
       <c r="F1414" s="1">
-        <v>15925089</v>
+        <v>15924707</v>
       </c>
     </row>
     <row r="1415" spans="1:6" x14ac:dyDescent="0.3">
@@ -29259,7 +29265,7 @@
         <v>9</v>
       </c>
       <c r="F1416" s="1">
-        <v>27952509</v>
+        <v>27952403</v>
       </c>
     </row>
     <row r="1417" spans="1:6" x14ac:dyDescent="0.3">
@@ -29279,7 +29285,7 @@
         <v>10</v>
       </c>
       <c r="F1417" s="1">
-        <v>6268627</v>
+        <v>6271362</v>
       </c>
     </row>
     <row r="1418" spans="1:6" x14ac:dyDescent="0.3">
@@ -29359,7 +29365,7 @@
         <v>9</v>
       </c>
       <c r="F1421" s="1">
-        <v>275896237</v>
+        <v>275908509</v>
       </c>
     </row>
     <row r="1422" spans="1:6" x14ac:dyDescent="0.3">
@@ -29379,7 +29385,7 @@
         <v>10</v>
       </c>
       <c r="F1422" s="1">
-        <v>16880179</v>
+        <v>16867554</v>
       </c>
     </row>
     <row r="1423" spans="1:6" x14ac:dyDescent="0.3">
@@ -29419,7 +29425,7 @@
         <v>9</v>
       </c>
       <c r="F1424" s="1">
-        <v>29427349</v>
+        <v>29434915</v>
       </c>
     </row>
     <row r="1425" spans="1:6" x14ac:dyDescent="0.3">
@@ -29439,7 +29445,7 @@
         <v>10</v>
       </c>
       <c r="F1425" s="1">
-        <v>6618566</v>
+        <v>6621725</v>
       </c>
     </row>
     <row r="1426" spans="1:6" x14ac:dyDescent="0.3">
@@ -29519,7 +29525,7 @@
         <v>9</v>
       </c>
       <c r="F1429" s="1">
-        <v>270370437</v>
+        <v>270390437</v>
       </c>
     </row>
     <row r="1430" spans="1:6" x14ac:dyDescent="0.3">
@@ -29539,7 +29545,7 @@
         <v>10</v>
       </c>
       <c r="F1430" s="1">
-        <v>16728387</v>
+        <v>16718120</v>
       </c>
     </row>
     <row r="1431" spans="1:6" x14ac:dyDescent="0.3">
@@ -29579,7 +29585,7 @@
         <v>9</v>
       </c>
       <c r="F1432" s="1">
-        <v>29317105</v>
+        <v>29317723</v>
       </c>
     </row>
     <row r="1433" spans="1:6" x14ac:dyDescent="0.3">
@@ -29599,7 +29605,7 @@
         <v>10</v>
       </c>
       <c r="F1433" s="1">
-        <v>6602923</v>
+        <v>6604044</v>
       </c>
     </row>
     <row r="1434" spans="1:6" x14ac:dyDescent="0.3">
@@ -29679,7 +29685,7 @@
         <v>9</v>
       </c>
       <c r="F1437" s="1">
-        <v>282188063</v>
+        <v>282217903</v>
       </c>
     </row>
     <row r="1438" spans="1:6" x14ac:dyDescent="0.3">
@@ -29699,7 +29705,7 @@
         <v>10</v>
       </c>
       <c r="F1438" s="1">
-        <v>17819643</v>
+        <v>17812846</v>
       </c>
     </row>
     <row r="1439" spans="1:6" x14ac:dyDescent="0.3">
@@ -29739,7 +29745,7 @@
         <v>9</v>
       </c>
       <c r="F1440" s="1">
-        <v>31148298</v>
+        <v>31147679</v>
       </c>
     </row>
     <row r="1441" spans="1:6" x14ac:dyDescent="0.3">
@@ -29759,7 +29765,7 @@
         <v>10</v>
       </c>
       <c r="F1441" s="1">
-        <v>6818134</v>
+        <v>6819152</v>
       </c>
     </row>
     <row r="1442" spans="1:6" x14ac:dyDescent="0.3">
@@ -29779,7 +29785,7 @@
         <v>9</v>
       </c>
       <c r="F1442" s="1">
-        <v>78976223</v>
+        <v>79015356</v>
       </c>
     </row>
     <row r="1443" spans="1:6" x14ac:dyDescent="0.3">
@@ -29839,7 +29845,7 @@
         <v>9</v>
       </c>
       <c r="F1445" s="1">
-        <v>280126363</v>
+        <v>280151202</v>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.3">
@@ -29859,7 +29865,7 @@
         <v>10</v>
       </c>
       <c r="F1446" s="1">
-        <v>17374228</v>
+        <v>17366667</v>
       </c>
     </row>
     <row r="1447" spans="1:6" x14ac:dyDescent="0.3">
@@ -29899,7 +29905,7 @@
         <v>9</v>
       </c>
       <c r="F1448" s="1">
-        <v>31512814</v>
+        <v>31511423</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.3">
@@ -29919,7 +29925,7 @@
         <v>10</v>
       </c>
       <c r="F1449" s="1">
-        <v>6728637</v>
+        <v>6730222</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.3">
@@ -29999,7 +30005,7 @@
         <v>9</v>
       </c>
       <c r="F1453" s="1">
-        <v>254096001</v>
+        <v>254121085</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.3">
@@ -30019,7 +30025,7 @@
         <v>10</v>
       </c>
       <c r="F1454" s="1">
-        <v>16430233</v>
+        <v>16420983</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.3">
@@ -30059,7 +30065,7 @@
         <v>9</v>
       </c>
       <c r="F1456" s="1">
-        <v>28517052</v>
+        <v>28515916</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.3">
@@ -30079,7 +30085,7 @@
         <v>10</v>
       </c>
       <c r="F1457" s="1">
-        <v>5919921</v>
+        <v>5921277</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.3">
@@ -30099,7 +30105,7 @@
         <v>9</v>
       </c>
       <c r="F1458" s="1">
-        <v>84083045</v>
+        <v>84069548</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.3">
@@ -30159,7 +30165,7 @@
         <v>9</v>
       </c>
       <c r="F1461" s="1">
-        <v>283355602</v>
+        <v>283455942</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.3">
@@ -30179,7 +30185,7 @@
         <v>10</v>
       </c>
       <c r="F1462" s="1">
-        <v>18490518</v>
+        <v>18498083</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.3">
@@ -30219,7 +30225,7 @@
         <v>9</v>
       </c>
       <c r="F1464" s="1">
-        <v>32899052</v>
+        <v>32900116</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.3">
@@ -30239,7 +30245,7 @@
         <v>10</v>
       </c>
       <c r="F1465" s="1">
-        <v>6998944</v>
+        <v>7000331</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.3">
@@ -30319,7 +30325,7 @@
         <v>9</v>
       </c>
       <c r="F1469" s="1">
-        <v>273596793</v>
+        <v>273651692</v>
       </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.3">
@@ -30339,7 +30345,7 @@
         <v>10</v>
       </c>
       <c r="F1470" s="1">
-        <v>18622507</v>
+        <v>18632555</v>
       </c>
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.3">
@@ -30379,7 +30385,7 @@
         <v>9</v>
       </c>
       <c r="F1472" s="1">
-        <v>32840320</v>
+        <v>32840874</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.3">
@@ -30399,7 +30405,7 @@
         <v>10</v>
       </c>
       <c r="F1473" s="1">
-        <v>7458965</v>
+        <v>7460162</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.3">
@@ -30419,7 +30425,7 @@
         <v>9</v>
       </c>
       <c r="F1474" s="1">
-        <v>78906602</v>
+        <v>78906652</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.3">
@@ -30479,7 +30485,7 @@
         <v>9</v>
       </c>
       <c r="F1477" s="1">
-        <v>279625669</v>
+        <v>279747645</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.3">
@@ -30499,7 +30505,7 @@
         <v>10</v>
       </c>
       <c r="F1478" s="1">
-        <v>19028788</v>
+        <v>19048705</v>
       </c>
     </row>
     <row r="1479" spans="1:6" x14ac:dyDescent="0.3">
@@ -30539,7 +30545,7 @@
         <v>9</v>
       </c>
       <c r="F1480" s="1">
-        <v>33640671</v>
+        <v>33587188</v>
       </c>
     </row>
     <row r="1481" spans="1:6" x14ac:dyDescent="0.3">
@@ -30559,7 +30565,7 @@
         <v>10</v>
       </c>
       <c r="F1481" s="1">
-        <v>7695488</v>
+        <v>7650322</v>
       </c>
     </row>
     <row r="1482" spans="1:6" x14ac:dyDescent="0.3">
@@ -30639,7 +30645,7 @@
         <v>9</v>
       </c>
       <c r="F1485" s="1">
-        <v>267429057</v>
+        <v>267558374</v>
       </c>
     </row>
     <row r="1486" spans="1:6" x14ac:dyDescent="0.3">
@@ -30659,7 +30665,7 @@
         <v>10</v>
       </c>
       <c r="F1486" s="1">
-        <v>18064842</v>
+        <v>18099819</v>
       </c>
     </row>
     <row r="1487" spans="1:6" x14ac:dyDescent="0.3">
@@ -30699,7 +30705,7 @@
         <v>9</v>
       </c>
       <c r="F1488" s="1">
-        <v>32559177</v>
+        <v>32518561</v>
       </c>
     </row>
     <row r="1489" spans="1:6" x14ac:dyDescent="0.3">
@@ -30719,7 +30725,7 @@
         <v>10</v>
       </c>
       <c r="F1489" s="1">
-        <v>7230178</v>
+        <v>7196298</v>
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.3">
@@ -30799,7 +30805,7 @@
         <v>9</v>
       </c>
       <c r="F1493" s="1">
-        <v>279511295</v>
+        <v>279639111</v>
       </c>
     </row>
     <row r="1494" spans="1:6" x14ac:dyDescent="0.3">
@@ -30819,7 +30825,7 @@
         <v>10</v>
       </c>
       <c r="F1494" s="1">
-        <v>19419075</v>
+        <v>19457853</v>
       </c>
     </row>
     <row r="1495" spans="1:6" x14ac:dyDescent="0.3">
@@ -30859,7 +30865,7 @@
         <v>9</v>
       </c>
       <c r="F1496" s="1">
-        <v>32966983</v>
+        <v>32936096</v>
       </c>
     </row>
     <row r="1497" spans="1:6" x14ac:dyDescent="0.3">
@@ -30879,7 +30885,7 @@
         <v>10</v>
       </c>
       <c r="F1497" s="1">
-        <v>7250607</v>
+        <v>7219235</v>
       </c>
     </row>
     <row r="1498" spans="1:6" x14ac:dyDescent="0.3">
@@ -30959,7 +30965,7 @@
         <v>9</v>
       </c>
       <c r="F1501" s="1">
-        <v>282826582</v>
+        <v>282956670</v>
       </c>
     </row>
     <row r="1502" spans="1:6" x14ac:dyDescent="0.3">
@@ -30979,7 +30985,7 @@
         <v>10</v>
       </c>
       <c r="F1502" s="1">
-        <v>20829589</v>
+        <v>20882602</v>
       </c>
     </row>
     <row r="1503" spans="1:6" x14ac:dyDescent="0.3">
@@ -31019,7 +31025,7 @@
         <v>9</v>
       </c>
       <c r="F1504" s="1">
-        <v>33408835</v>
+        <v>33385027</v>
       </c>
     </row>
     <row r="1505" spans="1:6" x14ac:dyDescent="0.3">
@@ -31039,7 +31045,7 @@
         <v>10</v>
       </c>
       <c r="F1505" s="1">
-        <v>7425931</v>
+        <v>7405561</v>
       </c>
     </row>
     <row r="1506" spans="1:6" x14ac:dyDescent="0.3">
@@ -31119,7 +31125,7 @@
         <v>9</v>
       </c>
       <c r="F1509" s="1">
-        <v>275175212</v>
+        <v>274887095</v>
       </c>
     </row>
     <row r="1510" spans="1:6" x14ac:dyDescent="0.3">
@@ -31139,7 +31145,7 @@
         <v>10</v>
       </c>
       <c r="F1510" s="1">
-        <v>21098911</v>
+        <v>21137687</v>
       </c>
     </row>
     <row r="1511" spans="1:6" x14ac:dyDescent="0.3">
@@ -31179,7 +31185,7 @@
         <v>9</v>
       </c>
       <c r="F1512" s="1">
-        <v>32979560</v>
+        <v>32945957</v>
       </c>
     </row>
     <row r="1513" spans="1:6" x14ac:dyDescent="0.3">
@@ -31199,7 +31205,7 @@
         <v>10</v>
       </c>
       <c r="F1513" s="1">
-        <v>7559822</v>
+        <v>7533020</v>
       </c>
     </row>
     <row r="1514" spans="1:6" x14ac:dyDescent="0.3">
@@ -31279,7 +31285,7 @@
         <v>9</v>
       </c>
       <c r="F1517" s="1">
-        <v>288369197</v>
+        <v>288518422</v>
       </c>
     </row>
     <row r="1518" spans="1:6" x14ac:dyDescent="0.3">
@@ -31299,7 +31305,7 @@
         <v>10</v>
       </c>
       <c r="F1518" s="1">
-        <v>22795524</v>
+        <v>22838560</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.3">
@@ -31339,7 +31345,7 @@
         <v>9</v>
       </c>
       <c r="F1520" s="1">
-        <v>33884252</v>
+        <v>33862776</v>
       </c>
     </row>
     <row r="1521" spans="1:6" x14ac:dyDescent="0.3">
@@ -31359,7 +31365,7 @@
         <v>10</v>
       </c>
       <c r="F1521" s="1">
-        <v>7819948</v>
+        <v>7800602</v>
       </c>
     </row>
     <row r="1522" spans="1:6" x14ac:dyDescent="0.3">
@@ -31439,7 +31445,7 @@
         <v>9</v>
       </c>
       <c r="F1525" s="1">
-        <v>275996283</v>
+        <v>276153346</v>
       </c>
     </row>
     <row r="1526" spans="1:6" x14ac:dyDescent="0.3">
@@ -31459,7 +31465,7 @@
         <v>10</v>
       </c>
       <c r="F1526" s="1">
-        <v>21866253</v>
+        <v>21907157</v>
       </c>
     </row>
     <row r="1527" spans="1:6" x14ac:dyDescent="0.3">
@@ -31499,7 +31505,7 @@
         <v>9</v>
       </c>
       <c r="F1528" s="1">
-        <v>32851919</v>
+        <v>32834443</v>
       </c>
     </row>
     <row r="1529" spans="1:6" x14ac:dyDescent="0.3">
@@ -31519,7 +31525,7 @@
         <v>10</v>
       </c>
       <c r="F1529" s="1">
-        <v>7954602</v>
+        <v>7938702</v>
       </c>
     </row>
     <row r="1530" spans="1:6" x14ac:dyDescent="0.3">
@@ -31599,7 +31605,7 @@
         <v>9</v>
       </c>
       <c r="F1533" s="1">
-        <v>287433782</v>
+        <v>287659550</v>
       </c>
     </row>
     <row r="1534" spans="1:6" x14ac:dyDescent="0.3">
@@ -31619,7 +31625,7 @@
         <v>10</v>
       </c>
       <c r="F1534" s="1">
-        <v>23216201</v>
+        <v>23264464</v>
       </c>
     </row>
     <row r="1535" spans="1:6" x14ac:dyDescent="0.3">
@@ -31659,7 +31665,7 @@
         <v>9</v>
       </c>
       <c r="F1536" s="1">
-        <v>33748442</v>
+        <v>33725753</v>
       </c>
     </row>
     <row r="1537" spans="1:6" x14ac:dyDescent="0.3">
@@ -31679,7 +31685,7 @@
         <v>10</v>
       </c>
       <c r="F1537" s="1">
-        <v>7987383</v>
+        <v>7972811</v>
       </c>
     </row>
     <row r="1538" spans="1:6" x14ac:dyDescent="0.3">
@@ -31759,7 +31765,7 @@
         <v>9</v>
       </c>
       <c r="F1541" s="1">
-        <v>281082477</v>
+        <v>281176952</v>
       </c>
     </row>
     <row r="1542" spans="1:6" x14ac:dyDescent="0.3">
@@ -31779,7 +31785,7 @@
         <v>10</v>
       </c>
       <c r="F1542" s="1">
-        <v>23586164</v>
+        <v>23623519</v>
       </c>
     </row>
     <row r="1543" spans="1:6" x14ac:dyDescent="0.3">
@@ -31819,7 +31825,7 @@
         <v>9</v>
       </c>
       <c r="F1544" s="1">
-        <v>33323647</v>
+        <v>33313290</v>
       </c>
     </row>
     <row r="1545" spans="1:6" x14ac:dyDescent="0.3">
@@ -31839,7 +31845,7 @@
         <v>10</v>
       </c>
       <c r="F1545" s="1">
-        <v>8076827</v>
+        <v>8067699</v>
       </c>
     </row>
     <row r="1546" spans="1:6" x14ac:dyDescent="0.3">
@@ -31919,7 +31925,7 @@
         <v>9</v>
       </c>
       <c r="F1549" s="1">
-        <v>256494176</v>
+        <v>256580868</v>
       </c>
     </row>
     <row r="1550" spans="1:6" x14ac:dyDescent="0.3">
@@ -31939,7 +31945,7 @@
         <v>10</v>
       </c>
       <c r="F1550" s="1">
-        <v>21845156</v>
+        <v>21878138</v>
       </c>
     </row>
     <row r="1551" spans="1:6" x14ac:dyDescent="0.3">
@@ -31979,7 +31985,7 @@
         <v>9</v>
       </c>
       <c r="F1552" s="1">
-        <v>29376216</v>
+        <v>29368016</v>
       </c>
     </row>
     <row r="1553" spans="1:6" x14ac:dyDescent="0.3">
@@ -31999,7 +32005,7 @@
         <v>10</v>
       </c>
       <c r="F1553" s="1">
-        <v>7161395</v>
+        <v>7154616</v>
       </c>
     </row>
     <row r="1554" spans="1:6" x14ac:dyDescent="0.3">
@@ -32019,7 +32025,7 @@
         <v>9</v>
       </c>
       <c r="F1554" s="1">
-        <v>96086736</v>
+        <v>96099424</v>
       </c>
     </row>
     <row r="1555" spans="1:6" x14ac:dyDescent="0.3">
@@ -32079,7 +32085,7 @@
         <v>9</v>
       </c>
       <c r="F1557" s="1">
-        <v>287090334</v>
+        <v>287231470</v>
       </c>
     </row>
     <row r="1558" spans="1:6" x14ac:dyDescent="0.3">
@@ -32099,7 +32105,7 @@
         <v>10</v>
       </c>
       <c r="F1558" s="1">
-        <v>24953191</v>
+        <v>25015550</v>
       </c>
     </row>
     <row r="1559" spans="1:6" x14ac:dyDescent="0.3">
@@ -32139,7 +32145,7 @@
         <v>9</v>
       </c>
       <c r="F1560" s="1">
-        <v>33768461</v>
+        <v>33757913</v>
       </c>
     </row>
     <row r="1561" spans="1:6" x14ac:dyDescent="0.3">
@@ -32159,7 +32165,7 @@
         <v>10</v>
       </c>
       <c r="F1561" s="1">
-        <v>8401238</v>
+        <v>8395121</v>
       </c>
     </row>
     <row r="1562" spans="1:6" x14ac:dyDescent="0.3">
@@ -32239,7 +32245,7 @@
         <v>9</v>
       </c>
       <c r="F1565" s="1">
-        <v>278245939</v>
+        <v>278707828</v>
       </c>
     </row>
     <row r="1566" spans="1:6" x14ac:dyDescent="0.3">
@@ -32259,7 +32265,7 @@
         <v>10</v>
       </c>
       <c r="F1566" s="1">
-        <v>23731886</v>
+        <v>24001961</v>
       </c>
     </row>
     <row r="1567" spans="1:6" x14ac:dyDescent="0.3">
@@ -32299,7 +32305,7 @@
         <v>9</v>
       </c>
       <c r="F1568" s="1">
-        <v>33772391</v>
+        <v>33760369</v>
       </c>
     </row>
     <row r="1569" spans="1:6" x14ac:dyDescent="0.3">
@@ -32319,7 +32325,7 @@
         <v>10</v>
       </c>
       <c r="F1569" s="1">
-        <v>8240772</v>
+        <v>8235191</v>
       </c>
     </row>
     <row r="1570" spans="1:6" x14ac:dyDescent="0.3">
@@ -32339,7 +32345,7 @@
         <v>9</v>
       </c>
       <c r="F1570" s="1">
-        <v>91697948</v>
+        <v>91697949</v>
       </c>
     </row>
     <row r="1571" spans="1:6" x14ac:dyDescent="0.3">
@@ -32399,7 +32405,7 @@
         <v>9</v>
       </c>
       <c r="F1573" s="1">
-        <v>288748136</v>
+        <v>289196301</v>
       </c>
     </row>
     <row r="1574" spans="1:6" x14ac:dyDescent="0.3">
@@ -32419,7 +32425,7 @@
         <v>10</v>
       </c>
       <c r="F1574" s="1">
-        <v>24778038</v>
+        <v>25014582</v>
       </c>
     </row>
     <row r="1575" spans="1:6" x14ac:dyDescent="0.3">
@@ -32459,7 +32465,7 @@
         <v>9</v>
       </c>
       <c r="F1576" s="1">
-        <v>34437190</v>
+        <v>34427129</v>
       </c>
     </row>
     <row r="1577" spans="1:6" x14ac:dyDescent="0.3">
@@ -32479,7 +32485,7 @@
         <v>10</v>
       </c>
       <c r="F1577" s="1">
-        <v>8523633</v>
+        <v>8518498</v>
       </c>
     </row>
     <row r="1578" spans="1:6" x14ac:dyDescent="0.3">
@@ -32499,7 +32505,7 @@
         <v>9</v>
       </c>
       <c r="F1578" s="1">
-        <v>85327891</v>
+        <v>85329453</v>
       </c>
     </row>
     <row r="1579" spans="1:6" x14ac:dyDescent="0.3">
@@ -32559,7 +32565,7 @@
         <v>9</v>
       </c>
       <c r="F1581" s="1">
-        <v>279752557</v>
+        <v>280311712</v>
       </c>
     </row>
     <row r="1582" spans="1:6" x14ac:dyDescent="0.3">
@@ -32579,7 +32585,7 @@
         <v>10</v>
       </c>
       <c r="F1582" s="1">
-        <v>23741506</v>
+        <v>23935397</v>
       </c>
     </row>
     <row r="1583" spans="1:6" x14ac:dyDescent="0.3">
@@ -32619,7 +32625,7 @@
         <v>9</v>
       </c>
       <c r="F1584" s="1">
-        <v>34323790</v>
+        <v>34322111</v>
       </c>
     </row>
     <row r="1585" spans="1:6" x14ac:dyDescent="0.3">
@@ -32639,7 +32645,7 @@
         <v>10</v>
       </c>
       <c r="F1585" s="1">
-        <v>8751226</v>
+        <v>8761581</v>
       </c>
     </row>
     <row r="1586" spans="1:6" x14ac:dyDescent="0.3">
@@ -32719,7 +32725,7 @@
         <v>9</v>
       </c>
       <c r="F1589" s="1">
-        <v>271125933</v>
+        <v>271670085</v>
       </c>
     </row>
     <row r="1590" spans="1:6" x14ac:dyDescent="0.3">
@@ -32739,7 +32745,7 @@
         <v>10</v>
       </c>
       <c r="F1590" s="1">
-        <v>23524999</v>
+        <v>23704243</v>
       </c>
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.3">
@@ -32779,7 +32785,7 @@
         <v>9</v>
       </c>
       <c r="F1592" s="1">
-        <v>35802113</v>
+        <v>35851418</v>
       </c>
     </row>
     <row r="1593" spans="1:6" x14ac:dyDescent="0.3">
@@ -32799,7 +32805,7 @@
         <v>10</v>
       </c>
       <c r="F1593" s="1">
-        <v>9136215</v>
+        <v>9215731</v>
       </c>
     </row>
     <row r="1594" spans="1:6" x14ac:dyDescent="0.3">
@@ -32879,7 +32885,7 @@
         <v>9</v>
       </c>
       <c r="F1597" s="1">
-        <v>276479287</v>
+        <v>277113403</v>
       </c>
     </row>
     <row r="1598" spans="1:6" x14ac:dyDescent="0.3">
@@ -32899,7 +32905,7 @@
         <v>10</v>
       </c>
       <c r="F1598" s="1">
-        <v>24211390</v>
+        <v>24336727</v>
       </c>
     </row>
     <row r="1599" spans="1:6" x14ac:dyDescent="0.3">
@@ -32939,7 +32945,7 @@
         <v>9</v>
       </c>
       <c r="F1600" s="1">
-        <v>36190036</v>
+        <v>36188605</v>
       </c>
     </row>
     <row r="1601" spans="1:6" x14ac:dyDescent="0.3">
@@ -32959,7 +32965,7 @@
         <v>10</v>
       </c>
       <c r="F1601" s="1">
-        <v>9217737</v>
+        <v>9254837</v>
       </c>
     </row>
     <row r="1602" spans="1:6" x14ac:dyDescent="0.3">
@@ -33039,7 +33045,7 @@
         <v>9</v>
       </c>
       <c r="F1605" s="1">
-        <v>277937537</v>
+        <v>278756444</v>
       </c>
     </row>
     <row r="1606" spans="1:6" x14ac:dyDescent="0.3">
@@ -33059,7 +33065,7 @@
         <v>10</v>
       </c>
       <c r="F1606" s="1">
-        <v>23745689</v>
+        <v>24297927</v>
       </c>
     </row>
     <row r="1607" spans="1:6" x14ac:dyDescent="0.3">
@@ -33099,7 +33105,7 @@
         <v>9</v>
       </c>
       <c r="F1608" s="1">
-        <v>35255718</v>
+        <v>35921224</v>
       </c>
     </row>
     <row r="1609" spans="1:6" x14ac:dyDescent="0.3">
@@ -33119,7 +33125,7 @@
         <v>10</v>
       </c>
       <c r="F1609" s="1">
-        <v>8847038</v>
+        <v>9337996</v>
       </c>
     </row>
     <row r="1610" spans="1:6" x14ac:dyDescent="0.3">
@@ -33199,7 +33205,7 @@
         <v>9</v>
       </c>
       <c r="F1613" s="1">
-        <v>287959552</v>
+        <v>288108886</v>
       </c>
     </row>
     <row r="1614" spans="1:6" x14ac:dyDescent="0.3">
@@ -33219,7 +33225,7 @@
         <v>10</v>
       </c>
       <c r="F1614" s="1">
-        <v>24492073</v>
+        <v>24959378</v>
       </c>
     </row>
     <row r="1615" spans="1:6" x14ac:dyDescent="0.3">
@@ -33259,7 +33265,7 @@
         <v>9</v>
       </c>
       <c r="F1616" s="1">
-        <v>36555146</v>
+        <v>37337991</v>
       </c>
     </row>
     <row r="1617" spans="1:6" x14ac:dyDescent="0.3">
@@ -33279,7 +33285,7 @@
         <v>10</v>
       </c>
       <c r="F1617" s="1">
-        <v>9434050</v>
+        <v>9884794</v>
       </c>
     </row>
     <row r="1618" spans="1:6" x14ac:dyDescent="0.3">
@@ -33299,7 +33305,7 @@
         <v>9</v>
       </c>
       <c r="F1618" s="1">
-        <v>87032825</v>
+        <v>87463846</v>
       </c>
     </row>
     <row r="1619" spans="1:6" x14ac:dyDescent="0.3">
@@ -33319,7 +33325,7 @@
         <v>10</v>
       </c>
       <c r="F1619" s="1">
-        <v>60358300</v>
+        <v>60404421</v>
       </c>
     </row>
     <row r="1620" spans="1:6" x14ac:dyDescent="0.3">
@@ -33359,7 +33365,7 @@
         <v>9</v>
       </c>
       <c r="F1621" s="1">
-        <v>278771153</v>
+        <v>279221244</v>
       </c>
     </row>
     <row r="1622" spans="1:6" x14ac:dyDescent="0.3">
@@ -33379,7 +33385,7 @@
         <v>10</v>
       </c>
       <c r="F1622" s="1">
-        <v>24596353</v>
+        <v>25151370</v>
       </c>
     </row>
     <row r="1623" spans="1:6" x14ac:dyDescent="0.3">
@@ -33419,7 +33425,7 @@
         <v>9</v>
       </c>
       <c r="F1624" s="1">
-        <v>35459801</v>
+        <v>36312774</v>
       </c>
     </row>
     <row r="1625" spans="1:6" x14ac:dyDescent="0.3">
@@ -33439,7 +33445,7 @@
         <v>10</v>
       </c>
       <c r="F1625" s="1">
-        <v>9436991</v>
+        <v>9836136</v>
       </c>
     </row>
     <row r="1626" spans="1:6" x14ac:dyDescent="0.3">
@@ -33459,7 +33465,7 @@
         <v>9</v>
       </c>
       <c r="F1626" s="1">
-        <v>90902305</v>
+        <v>91502116</v>
       </c>
     </row>
     <row r="1627" spans="1:6" x14ac:dyDescent="0.3">
@@ -33479,7 +33485,7 @@
         <v>10</v>
       </c>
       <c r="F1627" s="1">
-        <v>61763722</v>
+        <v>61826013</v>
       </c>
     </row>
     <row r="1628" spans="1:6" x14ac:dyDescent="0.3">
@@ -33519,7 +33525,7 @@
         <v>9</v>
       </c>
       <c r="F1629" s="1">
-        <v>283921545</v>
+        <v>286378378</v>
       </c>
     </row>
     <row r="1630" spans="1:6" x14ac:dyDescent="0.3">
@@ -33539,7 +33545,7 @@
         <v>10</v>
       </c>
       <c r="F1630" s="1">
-        <v>25023972</v>
+        <v>26302489</v>
       </c>
     </row>
     <row r="1631" spans="1:6" x14ac:dyDescent="0.3">
@@ -33579,7 +33585,7 @@
         <v>9</v>
       </c>
       <c r="F1632" s="1">
-        <v>35488300</v>
+        <v>36420206</v>
       </c>
     </row>
     <row r="1633" spans="1:6" x14ac:dyDescent="0.3">
@@ -33599,7 +33605,7 @@
         <v>10</v>
       </c>
       <c r="F1633" s="1">
-        <v>9565782</v>
+        <v>9934752</v>
       </c>
     </row>
     <row r="1634" spans="1:6" x14ac:dyDescent="0.3">
@@ -33619,7 +33625,7 @@
         <v>9</v>
       </c>
       <c r="F1634" s="1">
-        <v>89083290</v>
+        <v>89713836</v>
       </c>
     </row>
     <row r="1635" spans="1:6" x14ac:dyDescent="0.3">
@@ -33639,7 +33645,7 @@
         <v>10</v>
       </c>
       <c r="F1635" s="1">
-        <v>61686604</v>
+        <v>61749859</v>
       </c>
     </row>
     <row r="1636" spans="1:6" x14ac:dyDescent="0.3">
@@ -33679,7 +33685,7 @@
         <v>9</v>
       </c>
       <c r="F1637" s="1">
-        <v>284134361</v>
+        <v>287124251</v>
       </c>
     </row>
     <row r="1638" spans="1:6" x14ac:dyDescent="0.3">
@@ -33699,7 +33705,7 @@
         <v>10</v>
       </c>
       <c r="F1638" s="1">
-        <v>25089516</v>
+        <v>26445138</v>
       </c>
     </row>
     <row r="1639" spans="1:6" x14ac:dyDescent="0.3">
@@ -33739,7 +33745,7 @@
         <v>9</v>
       </c>
       <c r="F1640" s="1">
-        <v>34019980</v>
+        <v>34806362</v>
       </c>
     </row>
     <row r="1641" spans="1:6" x14ac:dyDescent="0.3">
@@ -33759,7 +33765,7 @@
         <v>10</v>
       </c>
       <c r="F1641" s="1">
-        <v>8771955</v>
+        <v>9062837</v>
       </c>
     </row>
     <row r="1642" spans="1:6" x14ac:dyDescent="0.3">
@@ -33779,7 +33785,7 @@
         <v>9</v>
       </c>
       <c r="F1642" s="1">
-        <v>82077583</v>
+        <v>82612931</v>
       </c>
     </row>
     <row r="1643" spans="1:6" x14ac:dyDescent="0.3">
@@ -33799,7 +33805,7 @@
         <v>10</v>
       </c>
       <c r="F1643" s="1">
-        <v>57285677</v>
+        <v>57342469</v>
       </c>
     </row>
     <row r="1644" spans="1:6" x14ac:dyDescent="0.3">
@@ -33839,7 +33845,7 @@
         <v>9</v>
       </c>
       <c r="F1645" s="1">
-        <v>262399339</v>
+        <v>265768309</v>
       </c>
     </row>
     <row r="1646" spans="1:6" x14ac:dyDescent="0.3">
@@ -33859,7 +33865,7 @@
         <v>10</v>
       </c>
       <c r="F1646" s="1">
-        <v>23687991</v>
+        <v>25166637</v>
       </c>
     </row>
     <row r="1647" spans="1:6" x14ac:dyDescent="0.3">
@@ -33899,7 +33905,7 @@
         <v>9</v>
       </c>
       <c r="F1648" s="1">
-        <v>32090603</v>
+        <v>32953775</v>
       </c>
     </row>
     <row r="1649" spans="1:6" x14ac:dyDescent="0.3">
@@ -33919,7 +33925,7 @@
         <v>10</v>
       </c>
       <c r="F1649" s="1">
-        <v>8275965</v>
+        <v>8561203</v>
       </c>
     </row>
     <row r="1650" spans="1:6" x14ac:dyDescent="0.3">
@@ -33939,7 +33945,7 @@
         <v>9</v>
       </c>
       <c r="F1650" s="1">
-        <v>88528262</v>
+        <v>89117019</v>
       </c>
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.3">
@@ -33959,7 +33965,7 @@
         <v>10</v>
       </c>
       <c r="F1651" s="1">
-        <v>59769489</v>
+        <v>59828503</v>
       </c>
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.3">
@@ -33999,7 +34005,7 @@
         <v>9</v>
       </c>
       <c r="F1653" s="1">
-        <v>276478776</v>
+        <v>282663258</v>
       </c>
     </row>
     <row r="1654" spans="1:6" x14ac:dyDescent="0.3">
@@ -34019,7 +34025,7 @@
         <v>10</v>
       </c>
       <c r="F1654" s="1">
-        <v>25397998</v>
+        <v>27823594</v>
       </c>
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.3">
@@ -34059,7 +34065,7 @@
         <v>9</v>
       </c>
       <c r="F1656" s="1">
-        <v>34073529</v>
+        <v>34888958</v>
       </c>
     </row>
     <row r="1657" spans="1:6" x14ac:dyDescent="0.3">
@@ -34079,7 +34085,7 @@
         <v>10</v>
       </c>
       <c r="F1657" s="1">
-        <v>8632409</v>
+        <v>8957299</v>
       </c>
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.3">
@@ -34099,7 +34105,7 @@
         <v>9</v>
       </c>
       <c r="F1658" s="1">
-        <v>80830856</v>
+        <v>81372719</v>
       </c>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.3">
@@ -34119,7 +34125,7 @@
         <v>10</v>
       </c>
       <c r="F1659" s="1">
-        <v>56016579</v>
+        <v>56077086</v>
       </c>
     </row>
     <row r="1660" spans="1:6" x14ac:dyDescent="0.3">
@@ -34159,7 +34165,7 @@
         <v>9</v>
       </c>
       <c r="F1661" s="1">
-        <v>249892289</v>
+        <v>256595204</v>
       </c>
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.3">
@@ -34179,7 +34185,7 @@
         <v>10</v>
       </c>
       <c r="F1662" s="1">
-        <v>21278526</v>
+        <v>23336385</v>
       </c>
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.3">
@@ -34219,7 +34225,7 @@
         <v>9</v>
       </c>
       <c r="F1664" s="1">
-        <v>30299789</v>
+        <v>31115173</v>
       </c>
     </row>
     <row r="1665" spans="1:6" x14ac:dyDescent="0.3">
@@ -34239,7 +34245,7 @@
         <v>10</v>
       </c>
       <c r="F1665" s="1">
-        <v>7100982</v>
+        <v>7529506</v>
       </c>
     </row>
     <row r="1666" spans="1:6" x14ac:dyDescent="0.3">
@@ -34259,7 +34265,7 @@
         <v>9</v>
       </c>
       <c r="F1666" s="1">
-        <v>64569844</v>
+        <v>64925695</v>
       </c>
     </row>
     <row r="1667" spans="1:6" x14ac:dyDescent="0.3">
@@ -34279,7 +34285,7 @@
         <v>10</v>
       </c>
       <c r="F1667" s="1">
-        <v>46496220</v>
+        <v>46464933</v>
       </c>
     </row>
     <row r="1668" spans="1:6" x14ac:dyDescent="0.3">
@@ -34319,7 +34325,7 @@
         <v>9</v>
       </c>
       <c r="F1669" s="1">
-        <v>240917124</v>
+        <v>247757329</v>
       </c>
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.3">
@@ -34339,7 +34345,7 @@
         <v>10</v>
       </c>
       <c r="F1670" s="1">
-        <v>17417093</v>
+        <v>19397206</v>
       </c>
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.3">
@@ -34379,7 +34385,7 @@
         <v>9</v>
       </c>
       <c r="F1672" s="1">
-        <v>25753423</v>
+        <v>27053275</v>
       </c>
     </row>
     <row r="1673" spans="1:6" x14ac:dyDescent="0.3">
@@ -34399,7 +34405,167 @@
         <v>10</v>
       </c>
       <c r="F1673" s="1">
-        <v>4943324</v>
+        <v>5271529</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1674">
+        <v>2020</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1674">
+        <v>62606543</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1675">
+        <v>2020</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1675">
+        <v>43573301</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1676">
+        <v>2020</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1676">
+        <v>17628063</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1677">
+        <v>2020</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1677">
+        <v>227203724</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1678">
+        <v>2020</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1678">
+        <v>19831273</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1679">
+        <v>2020</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1679">
+        <v>324627</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1680">
+        <v>2020</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1680">
+        <v>28419785</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1681">
+        <v>2020</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1681">
+        <v>6699448</v>
       </c>
     </row>
   </sheetData>
